--- a/scot_covid.xlsx
+++ b/scot_covid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PGR3\Desktop\WB\Data\Covid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{8E801C9B-1950-4540-B249-7FE27D3D6709}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{03FF7CCD-9014-4662-99A6-83A4114FC0C9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -79,10 +79,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -127,7 +126,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -442,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M68"/>
+  <dimension ref="A1:M69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -490,7 +489,7 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
     </row>
@@ -532,7 +531,7 @@
       <c r="L2">
         <v>0</v>
       </c>
-      <c r="M2" s="5"/>
+      <c r="M2" s="3"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="d">
@@ -572,7 +571,7 @@
       <c r="L3">
         <v>0</v>
       </c>
-      <c r="M3" s="5"/>
+      <c r="M3" s="3"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="d">
@@ -612,7 +611,7 @@
       <c r="L4">
         <v>0</v>
       </c>
-      <c r="M4" s="5"/>
+      <c r="M4" s="3"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="d">
@@ -652,7 +651,7 @@
       <c r="L5">
         <v>0</v>
       </c>
-      <c r="M5" s="5"/>
+      <c r="M5" s="3"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="d">
@@ -692,7 +691,7 @@
       <c r="L6">
         <v>0</v>
       </c>
-      <c r="M6" s="5"/>
+      <c r="M6" s="3"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="d">
@@ -732,7 +731,7 @@
       <c r="L7">
         <v>0</v>
       </c>
-      <c r="M7" s="5"/>
+      <c r="M7" s="3"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="d">
@@ -772,7 +771,7 @@
       <c r="L8">
         <v>0</v>
       </c>
-      <c r="M8" s="5"/>
+      <c r="M8" s="3"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="d">
@@ -812,7 +811,7 @@
       <c r="L9">
         <v>0</v>
       </c>
-      <c r="M9" s="5"/>
+      <c r="M9" s="3"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="d">
@@ -852,7 +851,7 @@
       <c r="L10">
         <v>0</v>
       </c>
-      <c r="M10" s="5"/>
+      <c r="M10" s="3"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="d">
@@ -892,7 +891,7 @@
       <c r="L11">
         <v>0</v>
       </c>
-      <c r="M11" s="5"/>
+      <c r="M11" s="3"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="d">
@@ -932,7 +931,7 @@
       <c r="L12">
         <v>0</v>
       </c>
-      <c r="M12" s="5"/>
+      <c r="M12" s="3"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="d">
@@ -972,7 +971,7 @@
       <c r="L13">
         <v>0</v>
       </c>
-      <c r="M13" s="5"/>
+      <c r="M13" s="3"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="d">
@@ -1012,7 +1011,7 @@
       <c r="L14">
         <v>0</v>
       </c>
-      <c r="M14" s="5"/>
+      <c r="M14" s="3"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="d">
@@ -1052,7 +1051,7 @@
       <c r="L15">
         <v>0</v>
       </c>
-      <c r="M15" s="5"/>
+      <c r="M15" s="3"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="d">
@@ -1092,7 +1091,7 @@
       <c r="L16">
         <v>0</v>
       </c>
-      <c r="M16" s="5"/>
+      <c r="M16" s="3"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="d">
@@ -1132,7 +1131,7 @@
       <c r="L17">
         <v>0</v>
       </c>
-      <c r="M17" s="5"/>
+      <c r="M17" s="3"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="d">
@@ -1172,7 +1171,7 @@
       <c r="L18">
         <v>0</v>
       </c>
-      <c r="M18" s="5"/>
+      <c r="M18" s="3"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="d">
@@ -1212,7 +1211,7 @@
       <c r="L19">
         <v>0</v>
       </c>
-      <c r="M19" s="5"/>
+      <c r="M19" s="3"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="d">
@@ -1252,7 +1251,7 @@
       <c r="L20">
         <v>0</v>
       </c>
-      <c r="M20" s="5"/>
+      <c r="M20" s="3"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="d">
@@ -1292,7 +1291,7 @@
       <c r="L21">
         <v>0</v>
       </c>
-      <c r="M21" s="5"/>
+      <c r="M21" s="3"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="d">
@@ -1332,7 +1331,7 @@
       <c r="L22">
         <v>0</v>
       </c>
-      <c r="M22" s="5"/>
+      <c r="M22" s="3"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="d">
@@ -1372,7 +1371,7 @@
       <c r="L23">
         <v>0</v>
       </c>
-      <c r="M23" s="5"/>
+      <c r="M23" s="3"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="d">
@@ -1412,7 +1411,7 @@
       <c r="L24">
         <v>0</v>
       </c>
-      <c r="M24" s="5"/>
+      <c r="M24" s="3"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="d">
@@ -1452,7 +1451,7 @@
       <c r="L25">
         <v>0</v>
       </c>
-      <c r="M25" s="5"/>
+      <c r="M25" s="3"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="d">
@@ -1492,7 +1491,7 @@
       <c r="L26">
         <v>0</v>
       </c>
-      <c r="M26" s="5"/>
+      <c r="M26" s="3"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="d">
@@ -1532,7 +1531,7 @@
       <c r="L27">
         <v>0</v>
       </c>
-      <c r="M27" s="5"/>
+      <c r="M27" s="3"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="d">
@@ -1572,7 +1571,7 @@
       <c r="L28">
         <v>0</v>
       </c>
-      <c r="M28" s="5"/>
+      <c r="M28" s="3"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="d">
@@ -1612,7 +1611,7 @@
       <c r="L29">
         <v>0</v>
       </c>
-      <c r="M29" s="5"/>
+      <c r="M29" s="3"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="d">
@@ -1652,7 +1651,7 @@
       <c r="L30">
         <v>0</v>
       </c>
-      <c r="M30" s="5"/>
+      <c r="M30" s="3"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="d">
@@ -1692,7 +1691,7 @@
       <c r="L31">
         <v>0</v>
       </c>
-      <c r="M31" s="5"/>
+      <c r="M31" s="3"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="d">
@@ -1732,7 +1731,7 @@
       <c r="L32">
         <v>0</v>
       </c>
-      <c r="M32" s="5"/>
+      <c r="M32" s="3"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="d">
@@ -1772,7 +1771,7 @@
       <c r="L33">
         <v>0</v>
       </c>
-      <c r="M33" s="5"/>
+      <c r="M33" s="3"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="d">
@@ -1812,7 +1811,7 @@
       <c r="L34">
         <v>0</v>
       </c>
-      <c r="M34" s="5"/>
+      <c r="M34" s="3"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="d">
@@ -1852,7 +1851,7 @@
       <c r="L35">
         <v>0</v>
       </c>
-      <c r="M35" s="5"/>
+      <c r="M35" s="3"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="d">
@@ -1892,7 +1891,7 @@
       <c r="L36">
         <v>0</v>
       </c>
-      <c r="M36" s="5"/>
+      <c r="M36" s="3"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="d">
@@ -1932,7 +1931,7 @@
       <c r="L37">
         <v>0</v>
       </c>
-      <c r="M37" s="5"/>
+      <c r="M37" s="3"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="d">
@@ -1972,7 +1971,7 @@
       <c r="L38">
         <v>0</v>
       </c>
-      <c r="M38" s="5"/>
+      <c r="M38" s="3"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="d">
@@ -2012,7 +2011,7 @@
       <c r="L39">
         <v>0</v>
       </c>
-      <c r="M39" s="5"/>
+      <c r="M39" s="3"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="d">
@@ -2087,7 +2086,7 @@
         <v>168.26038984920928</v>
       </c>
       <c r="I41" s="4">
-        <f t="shared" ref="I41:I68" si="7">F41/E41</f>
+        <f t="shared" ref="I41:I69" si="7">F41/E41</f>
         <v>0</v>
       </c>
       <c r="J41" s="3">
@@ -2172,7 +2171,7 @@
         <v>210</v>
       </c>
       <c r="F43">
-        <f t="shared" ref="F43:F68" si="8">C43-C42</f>
+        <f t="shared" ref="F43:F69" si="8">C43-C42</f>
         <v>3</v>
       </c>
       <c r="G43" s="3">
@@ -2864,7 +2863,7 @@
         <v>39</v>
       </c>
       <c r="G57" s="3">
-        <f t="shared" ref="G57:G68" si="11">F57/F56</f>
+        <f t="shared" ref="G57:G69" si="11">F57/F56</f>
         <v>1.21875</v>
       </c>
       <c r="H57" s="3">
@@ -3019,7 +3018,7 @@
         <v>1595.9911732254507</v>
       </c>
       <c r="I60" s="4">
-        <f t="shared" ref="I60:I68" si="12">F60/E60</f>
+        <f t="shared" ref="I60:I69" si="12">F60/E60</f>
         <v>0.10238095238095238</v>
       </c>
       <c r="J60" s="3">
@@ -3174,7 +3173,7 @@
         <v>7.2210505172240635</v>
       </c>
       <c r="K63">
-        <f t="shared" ref="K63:K68" si="13">L63-L62</f>
+        <f t="shared" ref="K63:K69" si="13">L63-L62</f>
         <v>6</v>
       </c>
       <c r="L63">
@@ -3317,7 +3316,7 @@
         <v>0.21627906976744185</v>
       </c>
       <c r="J66" s="3">
-        <f t="shared" ref="J66:J68" si="14">(C66/B66)*100</f>
+        <f t="shared" ref="J66:J69" si="14">(C66/B66)*100</f>
         <v>10.472745625841185</v>
       </c>
       <c r="K66">
@@ -3358,7 +3357,7 @@
         <v>0.74731182795698925</v>
       </c>
       <c r="H67" s="3">
-        <f t="shared" ref="H67:H68" si="15">D67/5.438</f>
+        <f t="shared" ref="H67:H69" si="15">D67/5.438</f>
         <v>2554.0639941154836</v>
       </c>
       <c r="I67" s="4">
@@ -3395,7 +3394,7 @@
         <v>14624</v>
       </c>
       <c r="E68">
-        <f t="shared" ref="E68" si="16">D68-D67</f>
+        <f t="shared" ref="E68:E69" si="16">D68-D67</f>
         <v>735</v>
       </c>
       <c r="F68">
@@ -3425,9 +3424,58 @@
       <c r="L68">
         <v>47</v>
       </c>
-      <c r="M68" s="5">
-        <f t="shared" ref="M68" si="17">L68/C68</f>
-        <v>3.0070377479206652E-2</v>
+      <c r="M68" s="3">
+        <f>(L68/C68)*100</f>
+        <v>3.0070377479206654</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="d">
+        <v>2020-03-31</v>
+      </c>
+      <c r="B69">
+        <v>13902</v>
+      </c>
+      <c r="C69">
+        <v>1993</v>
+      </c>
+      <c r="D69">
+        <v>15895</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="16"/>
+        <v>1271</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="8"/>
+        <v>430</v>
+      </c>
+      <c r="G69" s="3">
+        <f t="shared" si="11"/>
+        <v>2.4022346368715084</v>
+      </c>
+      <c r="H69" s="3">
+        <f t="shared" si="15"/>
+        <v>2922.9496138286136</v>
+      </c>
+      <c r="I69" s="4">
+        <f t="shared" si="12"/>
+        <v>0.33831628638867034</v>
+      </c>
+      <c r="J69" s="3">
+        <f t="shared" si="14"/>
+        <v>14.336066752985182</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="13"/>
+        <v>13</v>
+      </c>
+      <c r="L69">
+        <v>60</v>
+      </c>
+      <c r="M69" s="3">
+        <f t="shared" ref="M69" si="17">(L69/C69)*100</f>
+        <v>3.0105368790767688</v>
       </c>
     </row>
   </sheetData>

--- a/scot_covid.xlsx
+++ b/scot_covid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PGR3\Desktop\WB\Data\Covid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{03FF7CCD-9014-4662-99A6-83A4114FC0C9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{861C6709-8666-45AB-AFD6-A547AE13050B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -441,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M69"/>
+  <dimension ref="A1:M70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="E72" sqref="E72"/>
+      <selection activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2171,7 +2171,7 @@
         <v>210</v>
       </c>
       <c r="F43">
-        <f t="shared" ref="F43:F69" si="8">C43-C42</f>
+        <f t="shared" ref="F43:F70" si="8">C43-C42</f>
         <v>3</v>
       </c>
       <c r="G43" s="3">
@@ -2863,7 +2863,7 @@
         <v>39</v>
       </c>
       <c r="G57" s="3">
-        <f t="shared" ref="G57:G69" si="11">F57/F56</f>
+        <f t="shared" ref="G57:G70" si="11">F57/F56</f>
         <v>1.21875</v>
       </c>
       <c r="H57" s="3">
@@ -3018,7 +3018,7 @@
         <v>1595.9911732254507</v>
       </c>
       <c r="I60" s="4">
-        <f t="shared" ref="I60:I69" si="12">F60/E60</f>
+        <f t="shared" ref="I60:I70" si="12">F60/E60</f>
         <v>0.10238095238095238</v>
       </c>
       <c r="J60" s="3">
@@ -3173,7 +3173,7 @@
         <v>7.2210505172240635</v>
       </c>
       <c r="K63">
-        <f t="shared" ref="K63:K69" si="13">L63-L62</f>
+        <f t="shared" ref="K63:K70" si="13">L63-L62</f>
         <v>6</v>
       </c>
       <c r="L63">
@@ -3316,7 +3316,7 @@
         <v>0.21627906976744185</v>
       </c>
       <c r="J66" s="3">
-        <f t="shared" ref="J66:J69" si="14">(C66/B66)*100</f>
+        <f t="shared" ref="J66:J70" si="14">(C66/B66)*100</f>
         <v>10.472745625841185</v>
       </c>
       <c r="K66">
@@ -3357,7 +3357,7 @@
         <v>0.74731182795698925</v>
       </c>
       <c r="H67" s="3">
-        <f t="shared" ref="H67:H69" si="15">D67/5.438</f>
+        <f t="shared" ref="H67:H70" si="15">D67/5.438</f>
         <v>2554.0639941154836</v>
       </c>
       <c r="I67" s="4">
@@ -3394,7 +3394,7 @@
         <v>14624</v>
       </c>
       <c r="E68">
-        <f t="shared" ref="E68:E69" si="16">D68-D67</f>
+        <f t="shared" ref="E68:E70" si="16">D68-D67</f>
         <v>735</v>
       </c>
       <c r="F68">
@@ -3474,8 +3474,57 @@
         <v>60</v>
       </c>
       <c r="M69" s="3">
-        <f t="shared" ref="M69" si="17">(L69/C69)*100</f>
+        <f t="shared" ref="M69:M70" si="17">(L69/C69)*100</f>
         <v>3.0105368790767688</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="d">
+        <v>2020-04-01</v>
+      </c>
+      <c r="B70">
+        <v>14697</v>
+      </c>
+      <c r="C70">
+        <v>2310</v>
+      </c>
+      <c r="D70">
+        <v>17007</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="16"/>
+        <v>1112</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="8"/>
+        <v>317</v>
+      </c>
+      <c r="G70" s="3">
+        <f t="shared" si="11"/>
+        <v>0.73720930232558135</v>
+      </c>
+      <c r="H70" s="3">
+        <f t="shared" si="15"/>
+        <v>3127.4365575579259</v>
+      </c>
+      <c r="I70" s="4">
+        <f t="shared" si="12"/>
+        <v>0.28507194244604317</v>
+      </c>
+      <c r="J70" s="3">
+        <f t="shared" si="14"/>
+        <v>15.717493365993059</v>
+      </c>
+      <c r="K70">
+        <f t="shared" si="13"/>
+        <v>16</v>
+      </c>
+      <c r="L70">
+        <v>76</v>
+      </c>
+      <c r="M70" s="3">
+        <f t="shared" si="17"/>
+        <v>3.2900432900432901</v>
       </c>
     </row>
   </sheetData>

--- a/scot_covid.xlsx
+++ b/scot_covid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PGR3\Desktop\WB\Data\Covid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{861C6709-8666-45AB-AFD6-A547AE13050B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{385E74A9-8C7A-4A43-9CB4-EC415E09D105}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -441,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M70"/>
+  <dimension ref="A1:M71"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="E73" sqref="E73"/>
+      <selection activeCell="A71" sqref="A71:M71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2171,7 +2171,7 @@
         <v>210</v>
       </c>
       <c r="F43">
-        <f t="shared" ref="F43:F70" si="8">C43-C42</f>
+        <f t="shared" ref="F43:F71" si="8">C43-C42</f>
         <v>3</v>
       </c>
       <c r="G43" s="3">
@@ -2863,7 +2863,7 @@
         <v>39</v>
       </c>
       <c r="G57" s="3">
-        <f t="shared" ref="G57:G70" si="11">F57/F56</f>
+        <f t="shared" ref="G57:G71" si="11">F57/F56</f>
         <v>1.21875</v>
       </c>
       <c r="H57" s="3">
@@ -3018,7 +3018,7 @@
         <v>1595.9911732254507</v>
       </c>
       <c r="I60" s="4">
-        <f t="shared" ref="I60:I70" si="12">F60/E60</f>
+        <f t="shared" ref="I60:I71" si="12">F60/E60</f>
         <v>0.10238095238095238</v>
       </c>
       <c r="J60" s="3">
@@ -3173,7 +3173,7 @@
         <v>7.2210505172240635</v>
       </c>
       <c r="K63">
-        <f t="shared" ref="K63:K70" si="13">L63-L62</f>
+        <f t="shared" ref="K63:K71" si="13">L63-L62</f>
         <v>6</v>
       </c>
       <c r="L63">
@@ -3316,7 +3316,7 @@
         <v>0.21627906976744185</v>
       </c>
       <c r="J66" s="3">
-        <f t="shared" ref="J66:J70" si="14">(C66/B66)*100</f>
+        <f t="shared" ref="J66:J71" si="14">(C66/B66)*100</f>
         <v>10.472745625841185</v>
       </c>
       <c r="K66">
@@ -3357,7 +3357,7 @@
         <v>0.74731182795698925</v>
       </c>
       <c r="H67" s="3">
-        <f t="shared" ref="H67:H70" si="15">D67/5.438</f>
+        <f t="shared" ref="H67:H71" si="15">D67/5.438</f>
         <v>2554.0639941154836</v>
       </c>
       <c r="I67" s="4">
@@ -3394,7 +3394,7 @@
         <v>14624</v>
       </c>
       <c r="E68">
-        <f t="shared" ref="E68:E70" si="16">D68-D67</f>
+        <f t="shared" ref="E68:E71" si="16">D68-D67</f>
         <v>735</v>
       </c>
       <c r="F68">
@@ -3474,7 +3474,7 @@
         <v>60</v>
       </c>
       <c r="M69" s="3">
-        <f t="shared" ref="M69:M70" si="17">(L69/C69)*100</f>
+        <f t="shared" ref="M69:M71" si="17">(L69/C69)*100</f>
         <v>3.0105368790767688</v>
       </c>
     </row>
@@ -3525,6 +3525,55 @@
       <c r="M70" s="3">
         <f t="shared" si="17"/>
         <v>3.2900432900432901</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="d">
+        <v>2020-04-02</v>
+      </c>
+      <c r="B71">
+        <v>15526</v>
+      </c>
+      <c r="C71">
+        <v>2602</v>
+      </c>
+      <c r="D71">
+        <v>18128</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="16"/>
+        <v>1121</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="8"/>
+        <v>292</v>
+      </c>
+      <c r="G71" s="3">
+        <f t="shared" si="11"/>
+        <v>0.92113564668769721</v>
+      </c>
+      <c r="H71" s="3">
+        <f t="shared" si="15"/>
+        <v>3333.5785215152632</v>
+      </c>
+      <c r="I71" s="4">
+        <f t="shared" si="12"/>
+        <v>0.26048171275646742</v>
+      </c>
+      <c r="J71" s="3">
+        <f t="shared" si="14"/>
+        <v>16.758984928507019</v>
+      </c>
+      <c r="K71">
+        <f t="shared" si="13"/>
+        <v>50</v>
+      </c>
+      <c r="L71">
+        <v>126</v>
+      </c>
+      <c r="M71" s="3">
+        <f t="shared" si="17"/>
+        <v>4.8424289008455039</v>
       </c>
     </row>
   </sheetData>

--- a/scot_covid.xlsx
+++ b/scot_covid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PGR3\Desktop\WB\Data\Covid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{385E74A9-8C7A-4A43-9CB4-EC415E09D105}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{418B366A-8A29-42F1-925F-2FCB5963662E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -441,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M71"/>
+  <dimension ref="A1:M72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71:M71"/>
+      <selection activeCell="A72" sqref="A72:M72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2171,7 +2171,7 @@
         <v>210</v>
       </c>
       <c r="F43">
-        <f t="shared" ref="F43:F71" si="8">C43-C42</f>
+        <f t="shared" ref="F43:F72" si="8">C43-C42</f>
         <v>3</v>
       </c>
       <c r="G43" s="3">
@@ -2863,7 +2863,7 @@
         <v>39</v>
       </c>
       <c r="G57" s="3">
-        <f t="shared" ref="G57:G71" si="11">F57/F56</f>
+        <f t="shared" ref="G57:G72" si="11">F57/F56</f>
         <v>1.21875</v>
       </c>
       <c r="H57" s="3">
@@ -3018,7 +3018,7 @@
         <v>1595.9911732254507</v>
       </c>
       <c r="I60" s="4">
-        <f t="shared" ref="I60:I71" si="12">F60/E60</f>
+        <f t="shared" ref="I60:I72" si="12">F60/E60</f>
         <v>0.10238095238095238</v>
       </c>
       <c r="J60" s="3">
@@ -3173,7 +3173,7 @@
         <v>7.2210505172240635</v>
       </c>
       <c r="K63">
-        <f t="shared" ref="K63:K71" si="13">L63-L62</f>
+        <f t="shared" ref="K63:K72" si="13">L63-L62</f>
         <v>6</v>
       </c>
       <c r="L63">
@@ -3316,7 +3316,7 @@
         <v>0.21627906976744185</v>
       </c>
       <c r="J66" s="3">
-        <f t="shared" ref="J66:J71" si="14">(C66/B66)*100</f>
+        <f t="shared" ref="J66:J72" si="14">(C66/B66)*100</f>
         <v>10.472745625841185</v>
       </c>
       <c r="K66">
@@ -3357,7 +3357,7 @@
         <v>0.74731182795698925</v>
       </c>
       <c r="H67" s="3">
-        <f t="shared" ref="H67:H71" si="15">D67/5.438</f>
+        <f t="shared" ref="H67:H72" si="15">D67/5.438</f>
         <v>2554.0639941154836</v>
       </c>
       <c r="I67" s="4">
@@ -3394,7 +3394,7 @@
         <v>14624</v>
       </c>
       <c r="E68">
-        <f t="shared" ref="E68:E71" si="16">D68-D67</f>
+        <f t="shared" ref="E68:E72" si="16">D68-D67</f>
         <v>735</v>
       </c>
       <c r="F68">
@@ -3474,7 +3474,7 @@
         <v>60</v>
       </c>
       <c r="M69" s="3">
-        <f t="shared" ref="M69:M71" si="17">(L69/C69)*100</f>
+        <f t="shared" ref="M69:M72" si="17">(L69/C69)*100</f>
         <v>3.0105368790767688</v>
       </c>
     </row>
@@ -3574,6 +3574,55 @@
       <c r="M71" s="3">
         <f t="shared" si="17"/>
         <v>4.8424289008455039</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="d">
+        <v>2020-04-03</v>
+      </c>
+      <c r="B72">
+        <v>16534</v>
+      </c>
+      <c r="C72">
+        <v>3001</v>
+      </c>
+      <c r="D72">
+        <v>19535</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="16"/>
+        <v>1407</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="8"/>
+        <v>399</v>
+      </c>
+      <c r="G72" s="3">
+        <f t="shared" si="11"/>
+        <v>1.3664383561643836</v>
+      </c>
+      <c r="H72" s="3">
+        <f t="shared" si="15"/>
+        <v>3592.3133504965062</v>
+      </c>
+      <c r="I72" s="4">
+        <f t="shared" si="12"/>
+        <v>0.28358208955223879</v>
+      </c>
+      <c r="J72" s="3">
+        <f t="shared" si="14"/>
+        <v>18.150477803314384</v>
+      </c>
+      <c r="K72">
+        <f t="shared" si="13"/>
+        <v>46</v>
+      </c>
+      <c r="L72">
+        <v>172</v>
+      </c>
+      <c r="M72" s="3">
+        <f t="shared" si="17"/>
+        <v>5.731422859046984</v>
       </c>
     </row>
   </sheetData>

--- a/scot_covid.xlsx
+++ b/scot_covid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PGR3\Desktop\WB\Data\Covid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{418B366A-8A29-42F1-925F-2FCB5963662E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{F14B5D06-F467-4A42-952C-4F523D2D05B6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -441,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M72"/>
+  <dimension ref="A1:M73"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72:M72"/>
+      <selection activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2171,7 +2171,7 @@
         <v>210</v>
       </c>
       <c r="F43">
-        <f t="shared" ref="F43:F72" si="8">C43-C42</f>
+        <f t="shared" ref="F43:F73" si="8">C43-C42</f>
         <v>3</v>
       </c>
       <c r="G43" s="3">
@@ -2863,7 +2863,7 @@
         <v>39</v>
       </c>
       <c r="G57" s="3">
-        <f t="shared" ref="G57:G72" si="11">F57/F56</f>
+        <f t="shared" ref="G57:G73" si="11">F57/F56</f>
         <v>1.21875</v>
       </c>
       <c r="H57" s="3">
@@ -3018,7 +3018,7 @@
         <v>1595.9911732254507</v>
       </c>
       <c r="I60" s="4">
-        <f t="shared" ref="I60:I72" si="12">F60/E60</f>
+        <f t="shared" ref="I60:I73" si="12">F60/E60</f>
         <v>0.10238095238095238</v>
       </c>
       <c r="J60" s="3">
@@ -3173,7 +3173,7 @@
         <v>7.2210505172240635</v>
       </c>
       <c r="K63">
-        <f t="shared" ref="K63:K72" si="13">L63-L62</f>
+        <f t="shared" ref="K63:K73" si="13">L63-L62</f>
         <v>6</v>
       </c>
       <c r="L63">
@@ -3316,7 +3316,7 @@
         <v>0.21627906976744185</v>
       </c>
       <c r="J66" s="3">
-        <f t="shared" ref="J66:J72" si="14">(C66/B66)*100</f>
+        <f t="shared" ref="J66:J73" si="14">(C66/B66)*100</f>
         <v>10.472745625841185</v>
       </c>
       <c r="K66">
@@ -3357,7 +3357,7 @@
         <v>0.74731182795698925</v>
       </c>
       <c r="H67" s="3">
-        <f t="shared" ref="H67:H72" si="15">D67/5.438</f>
+        <f t="shared" ref="H67:H73" si="15">D67/5.438</f>
         <v>2554.0639941154836</v>
       </c>
       <c r="I67" s="4">
@@ -3394,7 +3394,7 @@
         <v>14624</v>
       </c>
       <c r="E68">
-        <f t="shared" ref="E68:E72" si="16">D68-D67</f>
+        <f t="shared" ref="E68:E73" si="16">D68-D67</f>
         <v>735</v>
       </c>
       <c r="F68">
@@ -3474,7 +3474,7 @@
         <v>60</v>
       </c>
       <c r="M69" s="3">
-        <f t="shared" ref="M69:M72" si="17">(L69/C69)*100</f>
+        <f t="shared" ref="M69:M73" si="17">(L69/C69)*100</f>
         <v>3.0105368790767688</v>
       </c>
     </row>
@@ -3623,6 +3623,55 @@
       <c r="M72" s="3">
         <f t="shared" si="17"/>
         <v>5.731422859046984</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="d">
+        <v>2020-04-04</v>
+      </c>
+      <c r="B73">
+        <v>17453</v>
+      </c>
+      <c r="C73">
+        <v>3345</v>
+      </c>
+      <c r="D73">
+        <v>20798</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="16"/>
+        <v>1263</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="8"/>
+        <v>344</v>
+      </c>
+      <c r="G73" s="3">
+        <f t="shared" si="11"/>
+        <v>0.8621553884711779</v>
+      </c>
+      <c r="H73" s="3">
+        <f t="shared" si="15"/>
+        <v>3824.5678558293494</v>
+      </c>
+      <c r="I73" s="4">
+        <f t="shared" si="12"/>
+        <v>0.27236737925574028</v>
+      </c>
+      <c r="J73" s="3">
+        <f t="shared" si="14"/>
+        <v>19.165759468286257</v>
+      </c>
+      <c r="K73">
+        <f t="shared" si="13"/>
+        <v>46</v>
+      </c>
+      <c r="L73">
+        <v>218</v>
+      </c>
+      <c r="M73" s="3">
+        <f t="shared" si="17"/>
+        <v>6.5171898355754863</v>
       </c>
     </row>
   </sheetData>

--- a/scot_covid.xlsx
+++ b/scot_covid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PGR3\Desktop\WB\Data\Covid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{F14B5D06-F467-4A42-952C-4F523D2D05B6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{BC934F5B-F628-44EC-A7A7-1974393BD106}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -441,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M73"/>
+  <dimension ref="A1:M74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="D76" sqref="D76"/>
+      <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2171,7 +2171,7 @@
         <v>210</v>
       </c>
       <c r="F43">
-        <f t="shared" ref="F43:F73" si="8">C43-C42</f>
+        <f t="shared" ref="F43:F74" si="8">C43-C42</f>
         <v>3</v>
       </c>
       <c r="G43" s="3">
@@ -2863,7 +2863,7 @@
         <v>39</v>
       </c>
       <c r="G57" s="3">
-        <f t="shared" ref="G57:G73" si="11">F57/F56</f>
+        <f t="shared" ref="G57:G74" si="11">F57/F56</f>
         <v>1.21875</v>
       </c>
       <c r="H57" s="3">
@@ -3018,7 +3018,7 @@
         <v>1595.9911732254507</v>
       </c>
       <c r="I60" s="4">
-        <f t="shared" ref="I60:I73" si="12">F60/E60</f>
+        <f t="shared" ref="I60:I74" si="12">F60/E60</f>
         <v>0.10238095238095238</v>
       </c>
       <c r="J60" s="3">
@@ -3173,7 +3173,7 @@
         <v>7.2210505172240635</v>
       </c>
       <c r="K63">
-        <f t="shared" ref="K63:K73" si="13">L63-L62</f>
+        <f t="shared" ref="K63:K74" si="13">L63-L62</f>
         <v>6</v>
       </c>
       <c r="L63">
@@ -3316,7 +3316,7 @@
         <v>0.21627906976744185</v>
       </c>
       <c r="J66" s="3">
-        <f t="shared" ref="J66:J73" si="14">(C66/B66)*100</f>
+        <f t="shared" ref="J66:J74" si="14">(C66/B66)*100</f>
         <v>10.472745625841185</v>
       </c>
       <c r="K66">
@@ -3357,7 +3357,7 @@
         <v>0.74731182795698925</v>
       </c>
       <c r="H67" s="3">
-        <f t="shared" ref="H67:H73" si="15">D67/5.438</f>
+        <f t="shared" ref="H67:H74" si="15">D67/5.438</f>
         <v>2554.0639941154836</v>
       </c>
       <c r="I67" s="4">
@@ -3394,7 +3394,7 @@
         <v>14624</v>
       </c>
       <c r="E68">
-        <f t="shared" ref="E68:E73" si="16">D68-D67</f>
+        <f t="shared" ref="E68:E74" si="16">D68-D67</f>
         <v>735</v>
       </c>
       <c r="F68">
@@ -3474,7 +3474,7 @@
         <v>60</v>
       </c>
       <c r="M69" s="3">
-        <f t="shared" ref="M69:M73" si="17">(L69/C69)*100</f>
+        <f t="shared" ref="M69:M74" si="17">(L69/C69)*100</f>
         <v>3.0105368790767688</v>
       </c>
     </row>
@@ -3672,6 +3672,55 @@
       <c r="M73" s="3">
         <f t="shared" si="17"/>
         <v>6.5171898355754863</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="d">
+        <v>2020-04-05</v>
+      </c>
+      <c r="B74">
+        <v>19437</v>
+      </c>
+      <c r="C74">
+        <v>3706</v>
+      </c>
+      <c r="D74">
+        <v>23143</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="16"/>
+        <v>2345</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="8"/>
+        <v>361</v>
+      </c>
+      <c r="G74" s="3">
+        <f t="shared" si="11"/>
+        <v>1.0494186046511629</v>
+      </c>
+      <c r="H74" s="3">
+        <f t="shared" si="15"/>
+        <v>4255.7925707980876</v>
+      </c>
+      <c r="I74" s="4">
+        <f t="shared" si="12"/>
+        <v>0.15394456289978678</v>
+      </c>
+      <c r="J74" s="3">
+        <f t="shared" si="14"/>
+        <v>19.066728404589188</v>
+      </c>
+      <c r="K74">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="L74">
+        <v>220</v>
+      </c>
+      <c r="M74" s="3">
+        <f t="shared" si="17"/>
+        <v>5.9363194819212088</v>
       </c>
     </row>
   </sheetData>

--- a/scot_covid.xlsx
+++ b/scot_covid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PGR3\Desktop\WB\Data\Covid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{BC934F5B-F628-44EC-A7A7-1974393BD106}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{B99ECB4C-6B4F-4343-8523-9804B230DE9D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -441,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M74"/>
+  <dimension ref="A1:M75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B76" sqref="B76"/>
+      <selection activeCell="E78" sqref="E78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2171,7 +2171,7 @@
         <v>210</v>
       </c>
       <c r="F43">
-        <f t="shared" ref="F43:F74" si="8">C43-C42</f>
+        <f t="shared" ref="F43:F75" si="8">C43-C42</f>
         <v>3</v>
       </c>
       <c r="G43" s="3">
@@ -2863,7 +2863,7 @@
         <v>39</v>
       </c>
       <c r="G57" s="3">
-        <f t="shared" ref="G57:G74" si="11">F57/F56</f>
+        <f t="shared" ref="G57:G75" si="11">F57/F56</f>
         <v>1.21875</v>
       </c>
       <c r="H57" s="3">
@@ -3018,7 +3018,7 @@
         <v>1595.9911732254507</v>
       </c>
       <c r="I60" s="4">
-        <f t="shared" ref="I60:I74" si="12">F60/E60</f>
+        <f t="shared" ref="I60:I75" si="12">F60/E60</f>
         <v>0.10238095238095238</v>
       </c>
       <c r="J60" s="3">
@@ -3173,7 +3173,7 @@
         <v>7.2210505172240635</v>
       </c>
       <c r="K63">
-        <f t="shared" ref="K63:K74" si="13">L63-L62</f>
+        <f t="shared" ref="K63:K75" si="13">L63-L62</f>
         <v>6</v>
       </c>
       <c r="L63">
@@ -3316,7 +3316,7 @@
         <v>0.21627906976744185</v>
       </c>
       <c r="J66" s="3">
-        <f t="shared" ref="J66:J74" si="14">(C66/B66)*100</f>
+        <f t="shared" ref="J66:J75" si="14">(C66/B66)*100</f>
         <v>10.472745625841185</v>
       </c>
       <c r="K66">
@@ -3357,7 +3357,7 @@
         <v>0.74731182795698925</v>
       </c>
       <c r="H67" s="3">
-        <f t="shared" ref="H67:H74" si="15">D67/5.438</f>
+        <f t="shared" ref="H67:H75" si="15">D67/5.438</f>
         <v>2554.0639941154836</v>
       </c>
       <c r="I67" s="4">
@@ -3394,7 +3394,7 @@
         <v>14624</v>
       </c>
       <c r="E68">
-        <f t="shared" ref="E68:E74" si="16">D68-D67</f>
+        <f t="shared" ref="E68:E75" si="16">D68-D67</f>
         <v>735</v>
       </c>
       <c r="F68">
@@ -3474,7 +3474,7 @@
         <v>60</v>
       </c>
       <c r="M69" s="3">
-        <f t="shared" ref="M69:M74" si="17">(L69/C69)*100</f>
+        <f t="shared" ref="M69:M75" si="17">(L69/C69)*100</f>
         <v>3.0105368790767688</v>
       </c>
     </row>
@@ -3721,6 +3721,55 @@
       <c r="M74" s="3">
         <f t="shared" si="17"/>
         <v>5.9363194819212088</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="d">
+        <v>2020-04-06</v>
+      </c>
+      <c r="B75">
+        <v>20075</v>
+      </c>
+      <c r="C75">
+        <v>3961</v>
+      </c>
+      <c r="D75">
+        <v>24036</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="16"/>
+        <v>893</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="8"/>
+        <v>255</v>
+      </c>
+      <c r="G75" s="3">
+        <f t="shared" si="11"/>
+        <v>0.7063711911357341</v>
+      </c>
+      <c r="H75" s="3">
+        <f t="shared" si="15"/>
+        <v>4420.0073556454581</v>
+      </c>
+      <c r="I75" s="4">
+        <f t="shared" si="12"/>
+        <v>0.28555431131019038</v>
+      </c>
+      <c r="J75" s="3">
+        <f t="shared" si="14"/>
+        <v>19.731008717310086</v>
+      </c>
+      <c r="K75">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="L75">
+        <v>222</v>
+      </c>
+      <c r="M75" s="3">
+        <f t="shared" si="17"/>
+        <v>5.604645291593032</v>
       </c>
     </row>
   </sheetData>

--- a/scot_covid.xlsx
+++ b/scot_covid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PGR3\Desktop\WB\Data\Covid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{B99ECB4C-6B4F-4343-8523-9804B230DE9D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{409B35EB-8F6F-4F04-AB41-C965C1B1D111}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -441,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M75"/>
+  <dimension ref="A1:M76"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="E78" sqref="E78"/>
+      <selection activeCell="F80" sqref="F80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2171,7 +2171,7 @@
         <v>210</v>
       </c>
       <c r="F43">
-        <f t="shared" ref="F43:F75" si="8">C43-C42</f>
+        <f t="shared" ref="F43:F76" si="8">C43-C42</f>
         <v>3</v>
       </c>
       <c r="G43" s="3">
@@ -2863,7 +2863,7 @@
         <v>39</v>
       </c>
       <c r="G57" s="3">
-        <f t="shared" ref="G57:G75" si="11">F57/F56</f>
+        <f t="shared" ref="G57:G76" si="11">F57/F56</f>
         <v>1.21875</v>
       </c>
       <c r="H57" s="3">
@@ -3018,7 +3018,7 @@
         <v>1595.9911732254507</v>
       </c>
       <c r="I60" s="4">
-        <f t="shared" ref="I60:I75" si="12">F60/E60</f>
+        <f t="shared" ref="I60:I76" si="12">F60/E60</f>
         <v>0.10238095238095238</v>
       </c>
       <c r="J60" s="3">
@@ -3173,7 +3173,7 @@
         <v>7.2210505172240635</v>
       </c>
       <c r="K63">
-        <f t="shared" ref="K63:K75" si="13">L63-L62</f>
+        <f t="shared" ref="K63:K76" si="13">L63-L62</f>
         <v>6</v>
       </c>
       <c r="L63">
@@ -3316,7 +3316,7 @@
         <v>0.21627906976744185</v>
       </c>
       <c r="J66" s="3">
-        <f t="shared" ref="J66:J75" si="14">(C66/B66)*100</f>
+        <f t="shared" ref="J66:J76" si="14">(C66/B66)*100</f>
         <v>10.472745625841185</v>
       </c>
       <c r="K66">
@@ -3357,7 +3357,7 @@
         <v>0.74731182795698925</v>
       </c>
       <c r="H67" s="3">
-        <f t="shared" ref="H67:H75" si="15">D67/5.438</f>
+        <f t="shared" ref="H67:H76" si="15">D67/5.438</f>
         <v>2554.0639941154836</v>
       </c>
       <c r="I67" s="4">
@@ -3394,7 +3394,7 @@
         <v>14624</v>
       </c>
       <c r="E68">
-        <f t="shared" ref="E68:E75" si="16">D68-D67</f>
+        <f t="shared" ref="E68:E76" si="16">D68-D67</f>
         <v>735</v>
       </c>
       <c r="F68">
@@ -3474,7 +3474,7 @@
         <v>60</v>
       </c>
       <c r="M69" s="3">
-        <f t="shared" ref="M69:M75" si="17">(L69/C69)*100</f>
+        <f t="shared" ref="M69:M76" si="17">(L69/C69)*100</f>
         <v>3.0105368790767688</v>
       </c>
     </row>
@@ -3770,6 +3770,55 @@
       <c r="M75" s="3">
         <f t="shared" si="17"/>
         <v>5.604645291593032</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="d">
+        <v>2020-04-07</v>
+      </c>
+      <c r="B76">
+        <v>20793</v>
+      </c>
+      <c r="C76">
+        <v>4229</v>
+      </c>
+      <c r="D76">
+        <v>25022</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="16"/>
+        <v>986</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="8"/>
+        <v>268</v>
+      </c>
+      <c r="G76" s="3">
+        <f t="shared" si="11"/>
+        <v>1.0509803921568628</v>
+      </c>
+      <c r="H76" s="3">
+        <f t="shared" si="15"/>
+        <v>4601.3240161824206</v>
+      </c>
+      <c r="I76" s="4">
+        <f t="shared" si="12"/>
+        <v>0.27180527383367142</v>
+      </c>
+      <c r="J76" s="3">
+        <f t="shared" si="14"/>
+        <v>20.338575482133411</v>
+      </c>
+      <c r="K76">
+        <f t="shared" si="13"/>
+        <v>74</v>
+      </c>
+      <c r="L76">
+        <v>296</v>
+      </c>
+      <c r="M76" s="3">
+        <f t="shared" si="17"/>
+        <v>6.999290612437929</v>
       </c>
     </row>
   </sheetData>

--- a/scot_covid.xlsx
+++ b/scot_covid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PGR3\Desktop\WB\Data\Covid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{409B35EB-8F6F-4F04-AB41-C965C1B1D111}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{5A52326C-F5D7-40E8-B4D9-587A5FC427C4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="13" uniqueCount="13">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="17" uniqueCount="17">
   <si>
     <t>Date</t>
   </si>
@@ -73,6 +73,18 @@
   </si>
   <si>
     <t>CaseFatalityRate</t>
+  </si>
+  <si>
+    <t>ICU</t>
+  </si>
+  <si>
+    <t>HospSusConf</t>
+  </si>
+  <si>
+    <t>IntensRate</t>
+  </si>
+  <si>
+    <t>HospRate</t>
   </si>
 </sst>
 </file>
@@ -441,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M76"/>
+  <dimension ref="A1:Q77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="F80" sqref="F80"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -452,7 +464,7 @@
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -492,8 +504,20 @@
       <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="d">
         <v>2020-01-24</v>
       </c>
@@ -533,7 +557,7 @@
       </c>
       <c r="M2" s="3"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="d">
         <v>2020-01-25</v>
       </c>
@@ -573,7 +597,7 @@
       </c>
       <c r="M3" s="3"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="d">
         <v>2020-01-26</v>
       </c>
@@ -613,7 +637,7 @@
       </c>
       <c r="M4" s="3"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="d">
         <v>2020-01-27</v>
       </c>
@@ -653,7 +677,7 @@
       </c>
       <c r="M5" s="3"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="d">
         <v>2020-01-28</v>
       </c>
@@ -693,7 +717,7 @@
       </c>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="d">
         <v>2020-01-29</v>
       </c>
@@ -733,7 +757,7 @@
       </c>
       <c r="M7" s="3"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="d">
         <v>2020-01-30</v>
       </c>
@@ -773,7 +797,7 @@
       </c>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="d">
         <v>2020-01-31</v>
       </c>
@@ -813,7 +837,7 @@
       </c>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="d">
         <v>2020-02-01</v>
       </c>
@@ -853,7 +877,7 @@
       </c>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="d">
         <v>2020-02-02</v>
       </c>
@@ -893,7 +917,7 @@
       </c>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="d">
         <v>2020-02-03</v>
       </c>
@@ -933,7 +957,7 @@
       </c>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="d">
         <v>2020-02-04</v>
       </c>
@@ -973,7 +997,7 @@
       </c>
       <c r="M13" s="3"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="d">
         <v>2020-02-05</v>
       </c>
@@ -1013,7 +1037,7 @@
       </c>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="d">
         <v>2020-02-06</v>
       </c>
@@ -1053,7 +1077,7 @@
       </c>
       <c r="M15" s="3"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="d">
         <v>2020-02-07</v>
       </c>
@@ -2171,7 +2195,7 @@
         <v>210</v>
       </c>
       <c r="F43">
-        <f t="shared" ref="F43:F76" si="8">C43-C42</f>
+        <f t="shared" ref="F43:F77" si="8">C43-C42</f>
         <v>3</v>
       </c>
       <c r="G43" s="3">
@@ -2863,7 +2887,7 @@
         <v>39</v>
       </c>
       <c r="G57" s="3">
-        <f t="shared" ref="G57:G76" si="11">F57/F56</f>
+        <f t="shared" ref="G57:G77" si="11">F57/F56</f>
         <v>1.21875</v>
       </c>
       <c r="H57" s="3">
@@ -3018,7 +3042,7 @@
         <v>1595.9911732254507</v>
       </c>
       <c r="I60" s="4">
-        <f t="shared" ref="I60:I76" si="12">F60/E60</f>
+        <f t="shared" ref="I60:I77" si="12">F60/E60</f>
         <v>0.10238095238095238</v>
       </c>
       <c r="J60" s="3">
@@ -3173,7 +3197,7 @@
         <v>7.2210505172240635</v>
       </c>
       <c r="K63">
-        <f t="shared" ref="K63:K76" si="13">L63-L62</f>
+        <f t="shared" ref="K63:K77" si="13">L63-L62</f>
         <v>6</v>
       </c>
       <c r="L63">
@@ -3233,7 +3257,7 @@
         <v>2.796420581655481</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="d">
         <v>2020-03-27</v>
       </c>
@@ -3282,7 +3306,7 @@
         <v>3.1161473087818696</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="d">
         <v>2020-03-28</v>
       </c>
@@ -3316,7 +3340,7 @@
         <v>0.21627906976744185</v>
       </c>
       <c r="J66" s="3">
-        <f t="shared" ref="J66:J76" si="14">(C66/B66)*100</f>
+        <f t="shared" ref="J66:J77" si="14">(C66/B66)*100</f>
         <v>10.472745625841185</v>
       </c>
       <c r="K66">
@@ -3331,7 +3355,7 @@
         <v>3.2128514056224895</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="d">
         <v>2020-03-29</v>
       </c>
@@ -3357,7 +3381,7 @@
         <v>0.74731182795698925</v>
       </c>
       <c r="H67" s="3">
-        <f t="shared" ref="H67:H76" si="15">D67/5.438</f>
+        <f t="shared" ref="H67:H77" si="15">D67/5.438</f>
         <v>2554.0639941154836</v>
       </c>
       <c r="I67" s="4">
@@ -3380,7 +3404,7 @@
         <v>2.9624277456647397</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="d">
         <v>2020-03-30</v>
       </c>
@@ -3394,7 +3418,7 @@
         <v>14624</v>
       </c>
       <c r="E68">
-        <f t="shared" ref="E68:E76" si="16">D68-D67</f>
+        <f t="shared" ref="E68:E77" si="16">D68-D67</f>
         <v>735</v>
       </c>
       <c r="F68">
@@ -3429,7 +3453,7 @@
         <v>3.0070377479206654</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="d">
         <v>2020-03-31</v>
       </c>
@@ -3474,11 +3498,11 @@
         <v>60</v>
       </c>
       <c r="M69" s="3">
-        <f t="shared" ref="M69:M76" si="17">(L69/C69)*100</f>
+        <f t="shared" ref="M69:M77" si="17">(L69/C69)*100</f>
         <v>3.0105368790767688</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="d">
         <v>2020-04-01</v>
       </c>
@@ -3527,7 +3551,7 @@
         <v>3.2900432900432901</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="d">
         <v>2020-04-02</v>
       </c>
@@ -3576,7 +3600,7 @@
         <v>4.8424289008455039</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="d">
         <v>2020-04-03</v>
       </c>
@@ -3625,7 +3649,7 @@
         <v>5.731422859046984</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="d">
         <v>2020-04-04</v>
       </c>
@@ -3674,7 +3698,7 @@
         <v>6.5171898355754863</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="d">
         <v>2020-04-05</v>
       </c>
@@ -3723,7 +3747,7 @@
         <v>5.9363194819212088</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="d">
         <v>2020-04-06</v>
       </c>
@@ -3772,7 +3796,7 @@
         <v>5.604645291593032</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="d">
         <v>2020-04-07</v>
       </c>
@@ -3819,6 +3843,69 @@
       <c r="M76" s="3">
         <f t="shared" si="17"/>
         <v>6.999290612437929</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="d">
+        <v>2020-04-08</v>
+      </c>
+      <c r="B77">
+        <v>21661</v>
+      </c>
+      <c r="C77">
+        <v>4565</v>
+      </c>
+      <c r="D77">
+        <v>26226</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="16"/>
+        <v>1204</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="8"/>
+        <v>336</v>
+      </c>
+      <c r="G77" s="3">
+        <f t="shared" si="11"/>
+        <v>1.2537313432835822</v>
+      </c>
+      <c r="H77" s="3">
+        <f t="shared" si="15"/>
+        <v>4822.7289444648768</v>
+      </c>
+      <c r="I77" s="4">
+        <f t="shared" si="12"/>
+        <v>0.27906976744186046</v>
+      </c>
+      <c r="J77" s="3">
+        <f t="shared" si="14"/>
+        <v>21.074742624994229</v>
+      </c>
+      <c r="K77">
+        <f t="shared" si="13"/>
+        <v>70</v>
+      </c>
+      <c r="L77">
+        <v>366</v>
+      </c>
+      <c r="M77" s="3">
+        <f t="shared" si="17"/>
+        <v>8.0175246440306687</v>
+      </c>
+      <c r="N77">
+        <v>193</v>
+      </c>
+      <c r="O77">
+        <v>1771</v>
+      </c>
+      <c r="P77" s="3">
+        <f>(N77/O77)*100</f>
+        <v>10.897797854319593</v>
+      </c>
+      <c r="Q77">
+        <f>(O77/C77)*100</f>
+        <v>38.795180722891565</v>
       </c>
     </row>
   </sheetData>

--- a/scot_covid.xlsx
+++ b/scot_covid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PGR3\Desktop\WB\Data\Covid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{5A52326C-F5D7-40E8-B4D9-587A5FC427C4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{A0A96D49-DEDD-4B29-880A-CBE04DBE0C93}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -455,8 +455,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="N78" sqref="N78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3894,14 +3894,14 @@
         <v>8.0175246440306687</v>
       </c>
       <c r="N77">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="O77">
         <v>1771</v>
       </c>
       <c r="P77" s="3">
         <f>(N77/O77)*100</f>
-        <v>10.897797854319593</v>
+        <v>11.857707509881422</v>
       </c>
       <c r="Q77">
         <f>(O77/C77)*100</f>

--- a/scot_covid.xlsx
+++ b/scot_covid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PGR3\Desktop\WB\Data\Covid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{A0A96D49-DEDD-4B29-880A-CBE04DBE0C93}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{09F9ABB8-F910-439F-A133-F2A43F02E646}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -453,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q77"/>
+  <dimension ref="A1:Q78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="N78" sqref="N78"/>
+      <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2195,7 +2195,7 @@
         <v>210</v>
       </c>
       <c r="F43">
-        <f t="shared" ref="F43:F77" si="8">C43-C42</f>
+        <f t="shared" ref="F43:F78" si="8">C43-C42</f>
         <v>3</v>
       </c>
       <c r="G43" s="3">
@@ -2887,7 +2887,7 @@
         <v>39</v>
       </c>
       <c r="G57" s="3">
-        <f t="shared" ref="G57:G77" si="11">F57/F56</f>
+        <f t="shared" ref="G57:G78" si="11">F57/F56</f>
         <v>1.21875</v>
       </c>
       <c r="H57" s="3">
@@ -3042,7 +3042,7 @@
         <v>1595.9911732254507</v>
       </c>
       <c r="I60" s="4">
-        <f t="shared" ref="I60:I77" si="12">F60/E60</f>
+        <f t="shared" ref="I60:I78" si="12">F60/E60</f>
         <v>0.10238095238095238</v>
       </c>
       <c r="J60" s="3">
@@ -3197,7 +3197,7 @@
         <v>7.2210505172240635</v>
       </c>
       <c r="K63">
-        <f t="shared" ref="K63:K77" si="13">L63-L62</f>
+        <f t="shared" ref="K63:K78" si="13">L63-L62</f>
         <v>6</v>
       </c>
       <c r="L63">
@@ -3340,7 +3340,7 @@
         <v>0.21627906976744185</v>
       </c>
       <c r="J66" s="3">
-        <f t="shared" ref="J66:J77" si="14">(C66/B66)*100</f>
+        <f t="shared" ref="J66:J78" si="14">(C66/B66)*100</f>
         <v>10.472745625841185</v>
       </c>
       <c r="K66">
@@ -3381,7 +3381,7 @@
         <v>0.74731182795698925</v>
       </c>
       <c r="H67" s="3">
-        <f t="shared" ref="H67:H77" si="15">D67/5.438</f>
+        <f t="shared" ref="H67:H78" si="15">D67/5.438</f>
         <v>2554.0639941154836</v>
       </c>
       <c r="I67" s="4">
@@ -3418,7 +3418,7 @@
         <v>14624</v>
       </c>
       <c r="E68">
-        <f t="shared" ref="E68:E77" si="16">D68-D67</f>
+        <f t="shared" ref="E68:E78" si="16">D68-D67</f>
         <v>735</v>
       </c>
       <c r="F68">
@@ -3498,7 +3498,7 @@
         <v>60</v>
       </c>
       <c r="M69" s="3">
-        <f t="shared" ref="M69:M77" si="17">(L69/C69)*100</f>
+        <f t="shared" ref="M69:M78" si="17">(L69/C69)*100</f>
         <v>3.0105368790767688</v>
       </c>
     </row>
@@ -3906,6 +3906,69 @@
       <c r="Q77">
         <f>(O77/C77)*100</f>
         <v>38.795180722891565</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="d">
+        <v>2020-04-09</v>
+      </c>
+      <c r="B78">
+        <v>22561</v>
+      </c>
+      <c r="C78">
+        <v>4957</v>
+      </c>
+      <c r="D78">
+        <v>27518</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="16"/>
+        <v>1292</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="8"/>
+        <v>392</v>
+      </c>
+      <c r="G78" s="3">
+        <f t="shared" si="11"/>
+        <v>1.1666666666666667</v>
+      </c>
+      <c r="H78" s="3">
+        <f t="shared" si="15"/>
+        <v>5060.3162927546891</v>
+      </c>
+      <c r="I78" s="4">
+        <f t="shared" si="12"/>
+        <v>0.30340557275541796</v>
+      </c>
+      <c r="J78" s="3">
+        <f t="shared" si="14"/>
+        <v>21.971543814547228</v>
+      </c>
+      <c r="K78">
+        <f t="shared" si="13"/>
+        <v>81</v>
+      </c>
+      <c r="L78">
+        <v>447</v>
+      </c>
+      <c r="M78" s="3">
+        <f t="shared" si="17"/>
+        <v>9.0175509380673802</v>
+      </c>
+      <c r="N78">
+        <v>212</v>
+      </c>
+      <c r="O78">
+        <v>1781</v>
+      </c>
+      <c r="P78" s="3">
+        <f t="shared" ref="P78" si="18">(N78/O78)*100</f>
+        <v>11.903425042111174</v>
+      </c>
+      <c r="Q78">
+        <f t="shared" ref="Q78" si="19">(O78/C78)*100</f>
+        <v>35.928989308049225</v>
       </c>
     </row>
   </sheetData>

--- a/scot_covid.xlsx
+++ b/scot_covid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PGR3\Desktop\WB\Data\Covid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{09F9ABB8-F910-439F-A133-F2A43F02E646}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{ED4001CC-7A69-4B23-BC45-EFE256B437D6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="17" uniqueCount="17">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="19" uniqueCount="19">
   <si>
     <t>Date</t>
   </si>
@@ -86,6 +86,12 @@
   <si>
     <t>HospRate</t>
   </si>
+  <si>
+    <t>NewICU</t>
+  </si>
+  <si>
+    <t>NewHosp</t>
+  </si>
 </sst>
 </file>
 
@@ -132,13 +138,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -453,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q78"/>
+  <dimension ref="A1:S80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="C81" sqref="C81"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -464,7 +471,7 @@
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -508,16 +515,22 @@
         <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="S1" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="d">
         <v>2020-01-24</v>
       </c>
@@ -557,7 +570,7 @@
       </c>
       <c r="M2" s="3"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="d">
         <v>2020-01-25</v>
       </c>
@@ -597,7 +610,7 @@
       </c>
       <c r="M3" s="3"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="d">
         <v>2020-01-26</v>
       </c>
@@ -637,7 +650,7 @@
       </c>
       <c r="M4" s="3"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="d">
         <v>2020-01-27</v>
       </c>
@@ -677,7 +690,7 @@
       </c>
       <c r="M5" s="3"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="d">
         <v>2020-01-28</v>
       </c>
@@ -717,7 +730,7 @@
       </c>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="d">
         <v>2020-01-29</v>
       </c>
@@ -757,7 +770,7 @@
       </c>
       <c r="M7" s="3"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="d">
         <v>2020-01-30</v>
       </c>
@@ -797,7 +810,7 @@
       </c>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="d">
         <v>2020-01-31</v>
       </c>
@@ -837,7 +850,7 @@
       </c>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="d">
         <v>2020-02-01</v>
       </c>
@@ -877,7 +890,7 @@
       </c>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="d">
         <v>2020-02-02</v>
       </c>
@@ -917,7 +930,7 @@
       </c>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="d">
         <v>2020-02-03</v>
       </c>
@@ -957,7 +970,7 @@
       </c>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="d">
         <v>2020-02-04</v>
       </c>
@@ -997,7 +1010,7 @@
       </c>
       <c r="M13" s="3"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="d">
         <v>2020-02-05</v>
       </c>
@@ -1037,7 +1050,7 @@
       </c>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="d">
         <v>2020-02-06</v>
       </c>
@@ -1077,7 +1090,7 @@
       </c>
       <c r="M15" s="3"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="d">
         <v>2020-02-07</v>
       </c>
@@ -2195,7 +2208,7 @@
         <v>210</v>
       </c>
       <c r="F43">
-        <f t="shared" ref="F43:F78" si="8">C43-C42</f>
+        <f t="shared" ref="F43:F80" si="8">C43-C42</f>
         <v>3</v>
       </c>
       <c r="G43" s="3">
@@ -2470,7 +2483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="d">
         <v>2020-03-11</v>
       </c>
@@ -2519,7 +2532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="d">
         <v>2020-03-12</v>
       </c>
@@ -2568,7 +2581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="d">
         <v>2020-03-13</v>
       </c>
@@ -2617,7 +2630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="d">
         <v>2020-03-14</v>
       </c>
@@ -2667,7 +2680,7 @@
         <v>0.82644628099173556</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="d">
         <v>2020-03-15</v>
       </c>
@@ -2717,7 +2730,7 @@
         <v>0.65359477124183007</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="d">
         <v>2020-03-16</v>
       </c>
@@ -2767,7 +2780,7 @@
         <v>0.58479532163742687</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="d">
         <v>2020-03-17</v>
       </c>
@@ -2816,7 +2829,7 @@
         <v>1.0256410256410255</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="d">
         <v>2020-03-18</v>
       </c>
@@ -2830,42 +2843,52 @@
         <v>6091</v>
       </c>
       <c r="E56">
-        <f t="shared" si="4"/>
         <v>845</v>
       </c>
       <c r="F56">
-        <f t="shared" si="8"/>
         <v>32</v>
       </c>
       <c r="G56" s="3">
-        <f>F56/F55</f>
         <v>1.3333333333333333</v>
       </c>
       <c r="H56" s="3">
-        <f t="shared" si="3"/>
         <v>1120.0809121000368</v>
       </c>
       <c r="I56" s="4">
-        <f t="shared" si="7"/>
         <v>3.7869822485207101E-2</v>
       </c>
       <c r="J56" s="3">
-        <f t="shared" si="0"/>
         <v>3.8710777626193722</v>
       </c>
       <c r="K56">
         <v>1</v>
       </c>
       <c r="L56">
-        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="M56" s="3">
-        <f t="shared" si="5"/>
         <v>1.3215859030837005</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N56">
+        <v>6</v>
+      </c>
+      <c r="O56">
+        <v>6</v>
+      </c>
+      <c r="P56">
+        <v>149</v>
+      </c>
+      <c r="Q56">
+        <v>149</v>
+      </c>
+      <c r="R56">
+        <v>4.0268456375838921</v>
+      </c>
+      <c r="S56">
+        <v>65.63876651982379</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="d">
         <v>2020-03-19</v>
       </c>
@@ -2879,42 +2902,52 @@
         <v>6772</v>
       </c>
       <c r="E57">
-        <f t="shared" si="4"/>
         <v>681</v>
       </c>
       <c r="F57">
-        <f t="shared" si="8"/>
         <v>39</v>
       </c>
       <c r="G57" s="3">
-        <f t="shared" ref="G57:G78" si="11">F57/F56</f>
         <v>1.21875</v>
       </c>
       <c r="H57" s="3">
-        <f t="shared" si="3"/>
         <v>1245.3107760205958</v>
       </c>
       <c r="I57" s="4">
-        <f t="shared" si="7"/>
         <v>5.7268722466960353E-2</v>
       </c>
       <c r="J57" s="3">
-        <f t="shared" si="0"/>
         <v>4.0885336612357825</v>
       </c>
       <c r="K57">
         <v>3</v>
       </c>
       <c r="L57">
-        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="M57" s="3">
-        <f t="shared" si="5"/>
         <v>2.2556390977443606</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N57">
+        <v>11</v>
+      </c>
+      <c r="O57">
+        <v>5</v>
+      </c>
+      <c r="P57">
+        <v>213</v>
+      </c>
+      <c r="Q57">
+        <v>64</v>
+      </c>
+      <c r="R57">
+        <v>5.164319248826291</v>
+      </c>
+      <c r="S57">
+        <v>80.075187969924812</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="d">
         <v>2020-03-20</v>
       </c>
@@ -2928,42 +2961,52 @@
         <v>7550</v>
       </c>
       <c r="E58">
-        <f t="shared" si="4"/>
         <v>778</v>
       </c>
       <c r="F58">
-        <f t="shared" si="8"/>
         <v>56</v>
       </c>
       <c r="G58" s="3">
-        <f t="shared" si="11"/>
         <v>1.4358974358974359</v>
       </c>
       <c r="H58" s="3">
-        <f t="shared" si="3"/>
         <v>1388.3780801765356</v>
       </c>
       <c r="I58" s="4">
-        <f t="shared" si="7"/>
         <v>7.1979434447300775E-2</v>
       </c>
       <c r="J58" s="3">
-        <f t="shared" si="0"/>
         <v>4.4548976203652462</v>
       </c>
       <c r="K58">
         <v>0</v>
       </c>
       <c r="L58">
-        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="M58" s="3">
-        <f t="shared" si="5"/>
         <v>1.8633540372670807</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N58">
+        <v>16</v>
+      </c>
+      <c r="O58">
+        <v>5</v>
+      </c>
+      <c r="P58">
+        <v>247</v>
+      </c>
+      <c r="Q58">
+        <v>34</v>
+      </c>
+      <c r="R58">
+        <v>6.4777327935222671</v>
+      </c>
+      <c r="S58">
+        <v>76.708074534161483</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="d">
         <v>2020-03-21</v>
       </c>
@@ -2977,42 +3020,52 @@
         <v>8259</v>
       </c>
       <c r="E59">
-        <f t="shared" si="4"/>
         <v>709</v>
       </c>
       <c r="F59">
-        <f t="shared" si="8"/>
         <v>51</v>
       </c>
       <c r="G59" s="3">
-        <f t="shared" si="11"/>
         <v>0.9107142857142857</v>
       </c>
       <c r="H59" s="3">
-        <f t="shared" si="3"/>
         <v>1518.7568959176169</v>
       </c>
       <c r="I59" s="4">
-        <f>F59/E59</f>
         <v>7.1932299012693934E-2</v>
       </c>
       <c r="J59" s="3">
-        <f t="shared" si="0"/>
         <v>4.7299010905401975</v>
       </c>
       <c r="K59">
         <v>1</v>
       </c>
       <c r="L59">
-        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="M59" s="3">
-        <f t="shared" si="5"/>
         <v>1.8766756032171581</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N59">
+        <v>20</v>
+      </c>
+      <c r="O59">
+        <v>4</v>
+      </c>
+      <c r="P59">
+        <v>244</v>
+      </c>
+      <c r="Q59">
+        <v>-3</v>
+      </c>
+      <c r="R59">
+        <v>8.1967213114754092</v>
+      </c>
+      <c r="S59">
+        <v>65.415549597855232</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="d">
         <v>2020-03-22</v>
       </c>
@@ -3026,42 +3079,52 @@
         <v>8679</v>
       </c>
       <c r="E60">
-        <f t="shared" si="4"/>
         <v>420</v>
       </c>
       <c r="F60">
-        <f t="shared" si="8"/>
         <v>43</v>
       </c>
       <c r="G60" s="3">
-        <f t="shared" si="11"/>
         <v>0.84313725490196079</v>
       </c>
       <c r="H60" s="3">
-        <f t="shared" si="3"/>
         <v>1595.9911732254507</v>
       </c>
       <c r="I60" s="4">
-        <f t="shared" ref="I60:I78" si="12">F60/E60</f>
         <v>0.10238095238095238</v>
       </c>
       <c r="J60" s="3">
-        <f t="shared" si="0"/>
         <v>5.0344911049255714</v>
       </c>
       <c r="K60">
         <v>3</v>
       </c>
       <c r="L60">
-        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="M60" s="3">
-        <f t="shared" si="5"/>
         <v>2.4038461538461542</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N60">
+        <v>23</v>
+      </c>
+      <c r="O60">
+        <v>3</v>
+      </c>
+      <c r="P60">
+        <v>285</v>
+      </c>
+      <c r="Q60">
+        <v>41</v>
+      </c>
+      <c r="R60">
+        <v>8.0701754385964914</v>
+      </c>
+      <c r="S60">
+        <v>68.509615384615387</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="d">
         <v>2020-03-23</v>
       </c>
@@ -3075,42 +3138,52 @@
         <v>9364</v>
       </c>
       <c r="E61">
-        <f t="shared" si="4"/>
         <v>685</v>
       </c>
       <c r="F61">
-        <f t="shared" si="8"/>
         <v>83</v>
       </c>
       <c r="G61" s="3">
-        <f t="shared" si="11"/>
         <v>1.930232558139535</v>
       </c>
       <c r="H61" s="3">
-        <f t="shared" si="3"/>
         <v>1721.9566016917986</v>
       </c>
       <c r="I61" s="4">
-        <f t="shared" si="12"/>
         <v>0.12116788321167883</v>
       </c>
       <c r="J61" s="3">
-        <f t="shared" si="0"/>
         <v>5.6288776085730401</v>
       </c>
       <c r="K61">
         <v>4</v>
       </c>
       <c r="L61">
-        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="M61" s="3">
-        <f t="shared" si="5"/>
         <v>2.8056112224448899</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N61">
+        <v>30</v>
+      </c>
+      <c r="O61">
+        <v>7</v>
+      </c>
+      <c r="P61">
+        <v>329</v>
+      </c>
+      <c r="Q61">
+        <v>44</v>
+      </c>
+      <c r="R61">
+        <v>9.1185410334346511</v>
+      </c>
+      <c r="S61">
+        <v>65.93186372745491</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="d">
         <v>2020-03-24</v>
       </c>
@@ -3124,42 +3197,52 @@
         <v>9968</v>
       </c>
       <c r="E62">
-        <f t="shared" si="4"/>
         <v>604</v>
       </c>
       <c r="F62">
-        <f t="shared" si="8"/>
         <v>85</v>
       </c>
       <c r="G62" s="3">
-        <f t="shared" si="11"/>
         <v>1.0240963855421688</v>
       </c>
       <c r="H62" s="3">
-        <f t="shared" si="3"/>
         <v>1833.0268481059213</v>
       </c>
       <c r="I62" s="4">
-        <f t="shared" si="12"/>
         <v>0.14072847682119205</v>
       </c>
       <c r="J62" s="3">
-        <f t="shared" si="0"/>
         <v>6.223358908780904</v>
       </c>
       <c r="K62">
-        <f>L62-L61</f>
         <v>2</v>
       </c>
       <c r="L62">
         <v>16</v>
       </c>
       <c r="M62" s="3">
-        <f t="shared" si="5"/>
         <v>2.7397260273972601</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N62">
+        <v>42</v>
+      </c>
+      <c r="O62">
+        <v>12</v>
+      </c>
+      <c r="P62">
+        <v>441</v>
+      </c>
+      <c r="Q62">
+        <v>112</v>
+      </c>
+      <c r="R62">
+        <v>9.5238095238095237</v>
+      </c>
+      <c r="S62">
+        <v>75.513698630136986</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="d">
         <v>2020-03-25</v>
       </c>
@@ -3173,42 +3256,52 @@
         <v>10676</v>
       </c>
       <c r="E63">
-        <f t="shared" si="4"/>
         <v>708</v>
       </c>
       <c r="F63">
-        <f t="shared" si="8"/>
         <v>135</v>
       </c>
       <c r="G63" s="3">
-        <f t="shared" si="11"/>
         <v>1.588235294117647</v>
       </c>
       <c r="H63" s="3">
-        <f t="shared" si="3"/>
         <v>1963.2217727105553</v>
       </c>
       <c r="I63" s="4">
-        <f t="shared" si="12"/>
         <v>0.19067796610169491</v>
       </c>
       <c r="J63" s="3">
-        <f t="shared" si="0"/>
         <v>7.2210505172240635</v>
       </c>
       <c r="K63">
-        <f t="shared" ref="K63:K78" si="13">L63-L62</f>
         <v>6</v>
       </c>
       <c r="L63">
         <v>22</v>
       </c>
       <c r="M63" s="3">
-        <f t="shared" si="5"/>
         <v>3.05980528511822</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N63">
+        <v>52</v>
+      </c>
+      <c r="O63">
+        <v>10</v>
+      </c>
+      <c r="P63">
+        <v>482</v>
+      </c>
+      <c r="Q63">
+        <v>41</v>
+      </c>
+      <c r="R63">
+        <v>10.78838174273859</v>
+      </c>
+      <c r="S63">
+        <v>67.037552155771905</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="d">
         <v>2020-03-26</v>
       </c>
@@ -3222,42 +3315,52 @@
         <v>11487</v>
       </c>
       <c r="E64">
-        <f t="shared" si="4"/>
         <v>811</v>
       </c>
       <c r="F64">
-        <f t="shared" si="8"/>
         <v>175</v>
       </c>
       <c r="G64" s="3">
-        <f t="shared" si="11"/>
         <v>1.2962962962962963</v>
       </c>
       <c r="H64" s="3">
-        <f t="shared" si="3"/>
         <v>2112.3574843692536</v>
       </c>
       <c r="I64" s="4">
-        <f t="shared" si="12"/>
         <v>0.21578298397040691</v>
       </c>
       <c r="J64" s="3">
-        <f t="shared" si="0"/>
         <v>8.4395355423392804</v>
       </c>
       <c r="K64">
-        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="L64">
         <v>25</v>
       </c>
       <c r="M64" s="3">
-        <f t="shared" si="5"/>
         <v>2.796420581655481</v>
       </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N64">
+        <v>57</v>
+      </c>
+      <c r="O64">
+        <v>5</v>
+      </c>
+      <c r="P64">
+        <v>575</v>
+      </c>
+      <c r="Q64">
+        <v>93</v>
+      </c>
+      <c r="R64">
+        <v>9.9130434782608692</v>
+      </c>
+      <c r="S64">
+        <v>64.317673378076066</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="d">
         <v>2020-03-27</v>
       </c>
@@ -3271,42 +3374,52 @@
         <v>12273</v>
       </c>
       <c r="E65">
-        <f t="shared" si="4"/>
         <v>786</v>
       </c>
       <c r="F65">
-        <f t="shared" si="8"/>
         <v>165</v>
       </c>
       <c r="G65" s="3">
-        <f t="shared" si="11"/>
         <v>0.94285714285714284</v>
       </c>
       <c r="H65" s="3">
-        <f t="shared" si="3"/>
         <v>2256.8959176167709</v>
       </c>
       <c r="I65" s="4">
-        <f t="shared" si="12"/>
         <v>0.20992366412213739</v>
       </c>
       <c r="J65" s="3">
-        <f t="shared" si="0"/>
         <v>9.4435527019796677</v>
       </c>
       <c r="K65">
-        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="L65">
         <v>33</v>
       </c>
       <c r="M65" s="3">
-        <f t="shared" si="5"/>
         <v>3.1161473087818696</v>
       </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N65">
+        <v>72</v>
+      </c>
+      <c r="O65">
+        <v>15</v>
+      </c>
+      <c r="P65">
+        <v>672</v>
+      </c>
+      <c r="Q65">
+        <v>97</v>
+      </c>
+      <c r="R65">
+        <v>10.714285714285714</v>
+      </c>
+      <c r="S65">
+        <v>63.456090651558071</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="d">
         <v>2020-03-28</v>
       </c>
@@ -3320,42 +3433,52 @@
         <v>13133</v>
       </c>
       <c r="E66">
-        <f t="shared" si="4"/>
         <v>860</v>
       </c>
       <c r="F66">
-        <f t="shared" si="8"/>
         <v>186</v>
       </c>
       <c r="G66" s="3">
-        <f t="shared" si="11"/>
         <v>1.1272727272727272</v>
       </c>
       <c r="H66" s="3">
-        <f t="shared" si="3"/>
         <v>2415.042294961383</v>
       </c>
       <c r="I66" s="4">
-        <f t="shared" si="12"/>
         <v>0.21627906976744185</v>
       </c>
       <c r="J66" s="3">
-        <f t="shared" ref="J66:J78" si="14">(C66/B66)*100</f>
         <v>10.472745625841185</v>
       </c>
       <c r="K66">
-        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="L66">
         <v>40</v>
       </c>
       <c r="M66" s="3">
-        <f t="shared" si="5"/>
         <v>3.2128514056224895</v>
       </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N66">
+        <v>81</v>
+      </c>
+      <c r="O66">
+        <v>9</v>
+      </c>
+      <c r="P66">
+        <v>782</v>
+      </c>
+      <c r="Q66">
+        <v>110</v>
+      </c>
+      <c r="R66">
+        <v>10.358056265984656</v>
+      </c>
+      <c r="S66">
+        <v>62.811244979919678</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="d">
         <v>2020-03-29</v>
       </c>
@@ -3369,42 +3492,52 @@
         <v>13889</v>
       </c>
       <c r="E67">
-        <f t="shared" si="4"/>
         <v>756</v>
       </c>
       <c r="F67">
-        <f t="shared" si="8"/>
         <v>139</v>
       </c>
       <c r="G67" s="3">
-        <f t="shared" si="11"/>
         <v>0.74731182795698925</v>
       </c>
       <c r="H67" s="3">
-        <f t="shared" ref="H67:H78" si="15">D67/5.438</f>
         <v>2554.0639941154836</v>
       </c>
       <c r="I67" s="4">
-        <f t="shared" si="12"/>
         <v>0.18386243386243387</v>
       </c>
       <c r="J67" s="3">
-        <f t="shared" si="14"/>
         <v>11.067572970811677</v>
       </c>
       <c r="K67">
-        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="L67">
         <v>41</v>
       </c>
       <c r="M67" s="3">
-        <f>(L67/C67)*100</f>
         <v>2.9624277456647397</v>
       </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N67">
+        <v>95</v>
+      </c>
+      <c r="O67">
+        <v>14</v>
+      </c>
+      <c r="P67">
+        <v>859</v>
+      </c>
+      <c r="Q67">
+        <v>77</v>
+      </c>
+      <c r="R67">
+        <v>11.059371362048893</v>
+      </c>
+      <c r="S67">
+        <v>62.066473988439306</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="d">
         <v>2020-03-30</v>
       </c>
@@ -3418,42 +3551,52 @@
         <v>14624</v>
       </c>
       <c r="E68">
-        <f t="shared" ref="E68:E78" si="16">D68-D67</f>
         <v>735</v>
       </c>
       <c r="F68">
-        <f t="shared" si="8"/>
         <v>179</v>
       </c>
       <c r="G68" s="3">
-        <f t="shared" si="11"/>
         <v>1.2877697841726619</v>
       </c>
       <c r="H68" s="3">
-        <f t="shared" si="15"/>
         <v>2689.223979404193</v>
       </c>
       <c r="I68" s="4">
-        <f t="shared" si="12"/>
         <v>0.24353741496598638</v>
       </c>
       <c r="J68" s="3">
-        <f t="shared" si="14"/>
         <v>11.966924431513666</v>
       </c>
       <c r="K68">
-        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="L68">
         <v>47</v>
       </c>
       <c r="M68" s="3">
-        <f>(L68/C68)*100</f>
         <v>3.0070377479206654</v>
       </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N68">
+        <v>108</v>
+      </c>
+      <c r="O68">
+        <v>13</v>
+      </c>
+      <c r="P68">
+        <v>924</v>
+      </c>
+      <c r="Q68">
+        <v>65</v>
+      </c>
+      <c r="R68">
+        <v>11.688311688311687</v>
+      </c>
+      <c r="S68">
+        <v>59.117082533589247</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="d">
         <v>2020-03-31</v>
       </c>
@@ -3467,42 +3610,52 @@
         <v>15895</v>
       </c>
       <c r="E69">
-        <f t="shared" si="16"/>
         <v>1271</v>
       </c>
       <c r="F69">
-        <f t="shared" si="8"/>
         <v>430</v>
       </c>
       <c r="G69" s="3">
-        <f t="shared" si="11"/>
         <v>2.4022346368715084</v>
       </c>
       <c r="H69" s="3">
-        <f t="shared" si="15"/>
         <v>2922.9496138286136</v>
       </c>
       <c r="I69" s="4">
-        <f t="shared" si="12"/>
         <v>0.33831628638867034</v>
       </c>
       <c r="J69" s="3">
-        <f t="shared" si="14"/>
         <v>14.336066752985182</v>
       </c>
       <c r="K69">
-        <f t="shared" si="13"/>
         <v>13</v>
       </c>
       <c r="L69">
         <v>60</v>
       </c>
       <c r="M69" s="3">
-        <f t="shared" ref="M69:M78" si="17">(L69/C69)*100</f>
         <v>3.0105368790767688</v>
       </c>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N69">
+        <v>135</v>
+      </c>
+      <c r="O69">
+        <v>27</v>
+      </c>
+      <c r="P69">
+        <v>1073</v>
+      </c>
+      <c r="Q69">
+        <v>149</v>
+      </c>
+      <c r="R69">
+        <v>12.581547064305685</v>
+      </c>
+      <c r="S69">
+        <v>53.838434520822872</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="d">
         <v>2020-04-01</v>
       </c>
@@ -3516,42 +3669,52 @@
         <v>17007</v>
       </c>
       <c r="E70">
-        <f t="shared" si="16"/>
         <v>1112</v>
       </c>
       <c r="F70">
-        <f t="shared" si="8"/>
         <v>317</v>
       </c>
       <c r="G70" s="3">
-        <f t="shared" si="11"/>
         <v>0.73720930232558135</v>
       </c>
       <c r="H70" s="3">
-        <f t="shared" si="15"/>
         <v>3127.4365575579259</v>
       </c>
       <c r="I70" s="4">
-        <f t="shared" si="12"/>
         <v>0.28507194244604317</v>
       </c>
       <c r="J70" s="3">
-        <f t="shared" si="14"/>
         <v>15.717493365993059</v>
       </c>
       <c r="K70">
-        <f t="shared" si="13"/>
         <v>16</v>
       </c>
       <c r="L70">
         <v>76</v>
       </c>
       <c r="M70" s="3">
-        <f t="shared" si="17"/>
         <v>3.2900432900432901</v>
       </c>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N70">
+        <v>147</v>
+      </c>
+      <c r="O70">
+        <v>12</v>
+      </c>
+      <c r="P70">
+        <v>1153</v>
+      </c>
+      <c r="Q70">
+        <v>80</v>
+      </c>
+      <c r="R70">
+        <v>12.749349522983522</v>
+      </c>
+      <c r="S70">
+        <v>49.913419913419915</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="d">
         <v>2020-04-02</v>
       </c>
@@ -3565,42 +3728,52 @@
         <v>18128</v>
       </c>
       <c r="E71">
-        <f t="shared" si="16"/>
         <v>1121</v>
       </c>
       <c r="F71">
-        <f t="shared" si="8"/>
         <v>292</v>
       </c>
       <c r="G71" s="3">
-        <f t="shared" si="11"/>
         <v>0.92113564668769721</v>
       </c>
       <c r="H71" s="3">
-        <f t="shared" si="15"/>
         <v>3333.5785215152632</v>
       </c>
       <c r="I71" s="4">
-        <f t="shared" si="12"/>
         <v>0.26048171275646742</v>
       </c>
       <c r="J71" s="3">
-        <f t="shared" si="14"/>
         <v>16.758984928507019</v>
       </c>
       <c r="K71">
-        <f t="shared" si="13"/>
         <v>50</v>
       </c>
       <c r="L71">
         <v>126</v>
       </c>
       <c r="M71" s="3">
-        <f t="shared" si="17"/>
         <v>4.8424289008455039</v>
       </c>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N71">
+        <v>162</v>
+      </c>
+      <c r="O71">
+        <v>15</v>
+      </c>
+      <c r="P71">
+        <v>1277</v>
+      </c>
+      <c r="Q71">
+        <v>124</v>
+      </c>
+      <c r="R71">
+        <v>12.685982772122163</v>
+      </c>
+      <c r="S71">
+        <v>49.07763259031514</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="d">
         <v>2020-04-03</v>
       </c>
@@ -3614,42 +3787,52 @@
         <v>19535</v>
       </c>
       <c r="E72">
-        <f t="shared" si="16"/>
         <v>1407</v>
       </c>
       <c r="F72">
-        <f t="shared" si="8"/>
         <v>399</v>
       </c>
       <c r="G72" s="3">
-        <f t="shared" si="11"/>
         <v>1.3664383561643836</v>
       </c>
       <c r="H72" s="3">
-        <f t="shared" si="15"/>
         <v>3592.3133504965062</v>
       </c>
       <c r="I72" s="4">
-        <f t="shared" si="12"/>
         <v>0.28358208955223879</v>
       </c>
       <c r="J72" s="3">
-        <f t="shared" si="14"/>
         <v>18.150477803314384</v>
       </c>
       <c r="K72">
-        <f t="shared" si="13"/>
         <v>46</v>
       </c>
       <c r="L72">
         <v>172</v>
       </c>
       <c r="M72" s="3">
-        <f t="shared" si="17"/>
         <v>5.731422859046984</v>
       </c>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N72">
+        <v>176</v>
+      </c>
+      <c r="O72">
+        <v>14</v>
+      </c>
+      <c r="P72">
+        <v>1360</v>
+      </c>
+      <c r="Q72">
+        <v>83</v>
+      </c>
+      <c r="R72">
+        <v>12.941176470588237</v>
+      </c>
+      <c r="S72">
+        <v>45.318227257580808</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="d">
         <v>2020-04-04</v>
       </c>
@@ -3663,42 +3846,52 @@
         <v>20798</v>
       </c>
       <c r="E73">
-        <f t="shared" si="16"/>
         <v>1263</v>
       </c>
       <c r="F73">
-        <f t="shared" si="8"/>
         <v>344</v>
       </c>
       <c r="G73" s="3">
-        <f t="shared" si="11"/>
         <v>0.8621553884711779</v>
       </c>
       <c r="H73" s="3">
-        <f t="shared" si="15"/>
         <v>3824.5678558293494</v>
       </c>
       <c r="I73" s="4">
-        <f t="shared" si="12"/>
         <v>0.27236737925574028</v>
       </c>
       <c r="J73" s="3">
-        <f t="shared" si="14"/>
         <v>19.165759468286257</v>
       </c>
       <c r="K73">
-        <f t="shared" si="13"/>
         <v>46</v>
       </c>
       <c r="L73">
         <v>218</v>
       </c>
       <c r="M73" s="3">
-        <f t="shared" si="17"/>
         <v>6.5171898355754863</v>
       </c>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N73">
+        <v>192</v>
+      </c>
+      <c r="O73">
+        <v>16</v>
+      </c>
+      <c r="P73">
+        <v>1483</v>
+      </c>
+      <c r="Q73">
+        <v>123</v>
+      </c>
+      <c r="R73">
+        <v>12.946729602157788</v>
+      </c>
+      <c r="S73">
+        <v>44.334828101644248</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="d">
         <v>2020-04-05</v>
       </c>
@@ -3712,42 +3905,52 @@
         <v>23143</v>
       </c>
       <c r="E74">
-        <f t="shared" si="16"/>
         <v>2345</v>
       </c>
       <c r="F74">
-        <f t="shared" si="8"/>
         <v>361</v>
       </c>
       <c r="G74" s="3">
-        <f t="shared" si="11"/>
         <v>1.0494186046511629</v>
       </c>
       <c r="H74" s="3">
-        <f t="shared" si="15"/>
         <v>4255.7925707980876</v>
       </c>
       <c r="I74" s="4">
-        <f t="shared" si="12"/>
         <v>0.15394456289978678</v>
       </c>
       <c r="J74" s="3">
-        <f t="shared" si="14"/>
         <v>19.066728404589188</v>
       </c>
       <c r="K74">
-        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="L74">
         <v>220</v>
       </c>
       <c r="M74" s="3">
-        <f t="shared" si="17"/>
         <v>5.9363194819212088</v>
       </c>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N74">
+        <v>197</v>
+      </c>
+      <c r="O74">
+        <v>5</v>
+      </c>
+      <c r="P74">
+        <v>1590</v>
+      </c>
+      <c r="Q74">
+        <v>107</v>
+      </c>
+      <c r="R74">
+        <v>12.389937106918239</v>
+      </c>
+      <c r="S74">
+        <v>42.903399892066915</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="d">
         <v>2020-04-06</v>
       </c>
@@ -3761,42 +3964,52 @@
         <v>24036</v>
       </c>
       <c r="E75">
-        <f t="shared" si="16"/>
         <v>893</v>
       </c>
       <c r="F75">
-        <f t="shared" si="8"/>
         <v>255</v>
       </c>
       <c r="G75" s="3">
-        <f t="shared" si="11"/>
         <v>0.7063711911357341</v>
       </c>
       <c r="H75" s="3">
-        <f t="shared" si="15"/>
         <v>4420.0073556454581</v>
       </c>
       <c r="I75" s="4">
-        <f t="shared" si="12"/>
         <v>0.28555431131019038</v>
       </c>
       <c r="J75" s="3">
-        <f t="shared" si="14"/>
         <v>19.731008717310086</v>
       </c>
       <c r="K75">
-        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="L75">
         <v>222</v>
       </c>
       <c r="M75" s="3">
-        <f t="shared" si="17"/>
         <v>5.604645291593032</v>
       </c>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N75">
+        <v>199</v>
+      </c>
+      <c r="O75">
+        <v>2</v>
+      </c>
+      <c r="P75">
+        <v>1646</v>
+      </c>
+      <c r="Q75">
+        <v>56</v>
+      </c>
+      <c r="R75">
+        <v>12.089914945321993</v>
+      </c>
+      <c r="S75">
+        <v>41.555162837667254</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="d">
         <v>2020-04-07</v>
       </c>
@@ -3810,42 +4023,52 @@
         <v>25022</v>
       </c>
       <c r="E76">
-        <f t="shared" si="16"/>
         <v>986</v>
       </c>
       <c r="F76">
-        <f t="shared" si="8"/>
         <v>268</v>
       </c>
       <c r="G76" s="3">
-        <f t="shared" si="11"/>
         <v>1.0509803921568628</v>
       </c>
       <c r="H76" s="3">
-        <f t="shared" si="15"/>
         <v>4601.3240161824206</v>
       </c>
       <c r="I76" s="4">
-        <f t="shared" si="12"/>
         <v>0.27180527383367142</v>
       </c>
       <c r="J76" s="3">
-        <f t="shared" si="14"/>
         <v>20.338575482133411</v>
       </c>
       <c r="K76">
-        <f t="shared" si="13"/>
         <v>74</v>
       </c>
       <c r="L76">
         <v>296</v>
       </c>
       <c r="M76" s="3">
-        <f t="shared" si="17"/>
         <v>6.999290612437929</v>
       </c>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N76">
+        <v>199</v>
+      </c>
+      <c r="O76">
+        <v>0</v>
+      </c>
+      <c r="P76">
+        <v>1733</v>
+      </c>
+      <c r="Q76">
+        <v>87</v>
+      </c>
+      <c r="R76">
+        <v>11.482977495672245</v>
+      </c>
+      <c r="S76">
+        <v>40.978954835658548</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="d">
         <v>2020-04-08</v>
       </c>
@@ -3859,56 +4082,52 @@
         <v>26226</v>
       </c>
       <c r="E77">
-        <f t="shared" si="16"/>
         <v>1204</v>
       </c>
       <c r="F77">
-        <f t="shared" si="8"/>
         <v>336</v>
       </c>
       <c r="G77" s="3">
-        <f t="shared" si="11"/>
         <v>1.2537313432835822</v>
       </c>
       <c r="H77" s="3">
-        <f t="shared" si="15"/>
         <v>4822.7289444648768</v>
       </c>
       <c r="I77" s="4">
-        <f t="shared" si="12"/>
         <v>0.27906976744186046</v>
       </c>
       <c r="J77" s="3">
-        <f t="shared" si="14"/>
         <v>21.074742624994229</v>
       </c>
       <c r="K77">
-        <f t="shared" si="13"/>
         <v>70</v>
       </c>
       <c r="L77">
         <v>366</v>
       </c>
       <c r="M77" s="3">
-        <f t="shared" si="17"/>
         <v>8.0175246440306687</v>
       </c>
       <c r="N77">
         <v>210</v>
       </c>
       <c r="O77">
+        <v>11</v>
+      </c>
+      <c r="P77" s="3">
         <v>1771</v>
       </c>
-      <c r="P77" s="3">
-        <f>(N77/O77)*100</f>
+      <c r="Q77">
+        <v>38</v>
+      </c>
+      <c r="R77">
         <v>11.857707509881422</v>
       </c>
-      <c r="Q77">
-        <f>(O77/C77)*100</f>
+      <c r="S77">
         <v>38.795180722891565</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="d">
         <v>2020-04-09</v>
       </c>
@@ -3922,53 +4141,167 @@
         <v>27518</v>
       </c>
       <c r="E78">
-        <f t="shared" si="16"/>
         <v>1292</v>
       </c>
       <c r="F78">
-        <f t="shared" si="8"/>
         <v>392</v>
       </c>
       <c r="G78" s="3">
-        <f t="shared" si="11"/>
         <v>1.1666666666666667</v>
       </c>
       <c r="H78" s="3">
-        <f t="shared" si="15"/>
         <v>5060.3162927546891</v>
       </c>
       <c r="I78" s="4">
-        <f t="shared" si="12"/>
         <v>0.30340557275541796</v>
       </c>
       <c r="J78" s="3">
-        <f t="shared" si="14"/>
         <v>21.971543814547228</v>
       </c>
       <c r="K78">
-        <f t="shared" si="13"/>
         <v>81</v>
       </c>
       <c r="L78">
         <v>447</v>
       </c>
       <c r="M78" s="3">
-        <f t="shared" si="17"/>
         <v>9.0175509380673802</v>
       </c>
       <c r="N78">
         <v>212</v>
       </c>
       <c r="O78">
+        <v>2</v>
+      </c>
+      <c r="P78" s="3">
         <v>1781</v>
       </c>
-      <c r="P78" s="3">
-        <f t="shared" ref="P78" si="18">(N78/O78)*100</f>
+      <c r="Q78">
+        <v>10</v>
+      </c>
+      <c r="R78">
         <v>11.903425042111174</v>
       </c>
-      <c r="Q78">
-        <f t="shared" ref="Q78" si="19">(O78/C78)*100</f>
+      <c r="S78">
         <v>35.928989308049225</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="d">
+        <v>2020-04-10</v>
+      </c>
+      <c r="B79">
+        <v>23377</v>
+      </c>
+      <c r="C79">
+        <v>5275</v>
+      </c>
+      <c r="D79">
+        <v>28652</v>
+      </c>
+      <c r="E79">
+        <v>1134</v>
+      </c>
+      <c r="F79">
+        <v>318</v>
+      </c>
+      <c r="G79">
+        <v>0.81122448979591832</v>
+      </c>
+      <c r="H79">
+        <v>5268.8488414858402</v>
+      </c>
+      <c r="I79">
+        <v>0.28042328042328041</v>
+      </c>
+      <c r="J79">
+        <v>22.564914231937376</v>
+      </c>
+      <c r="K79">
+        <v>48</v>
+      </c>
+      <c r="L79">
+        <v>495</v>
+      </c>
+      <c r="M79">
+        <v>9.3838862559241711</v>
+      </c>
+      <c r="N79">
+        <v>207</v>
+      </c>
+      <c r="O79">
+        <v>-5</v>
+      </c>
+      <c r="P79">
+        <v>1832</v>
+      </c>
+      <c r="Q79">
+        <v>51</v>
+      </c>
+      <c r="R79">
+        <v>11.299126637554584</v>
+      </c>
+      <c r="S79">
+        <v>34.729857819905213</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="d">
+        <v>2020-04-11</v>
+      </c>
+      <c r="B80">
+        <v>24313</v>
+      </c>
+      <c r="C80">
+        <v>5590</v>
+      </c>
+      <c r="D80">
+        <v>29903</v>
+      </c>
+      <c r="E80">
+        <v>1251</v>
+      </c>
+      <c r="F80">
+        <v>315</v>
+      </c>
+      <c r="G80">
+        <v>0.99056603773584906</v>
+      </c>
+      <c r="H80">
+        <v>5498.8966531813167</v>
+      </c>
+      <c r="I80">
+        <v>0.25179856115107913</v>
+      </c>
+      <c r="J80">
+        <v>22.991815078353145</v>
+      </c>
+      <c r="K80">
+        <v>48</v>
+      </c>
+      <c r="L80">
+        <v>543</v>
+      </c>
+      <c r="M80">
+        <v>9.7137745974955276</v>
+      </c>
+      <c r="N80">
+        <v>212</v>
+      </c>
+      <c r="O80">
+        <v>5</v>
+      </c>
+      <c r="P80">
+        <v>1855</v>
+      </c>
+      <c r="Q80">
+        <v>23</v>
+      </c>
+      <c r="R80">
+        <v>11.428571428571429</v>
+      </c>
+      <c r="S80">
+        <v>33.184257602862253</v>
       </c>
     </row>
   </sheetData>

--- a/scot_covid.xlsx
+++ b/scot_covid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PGR3\Desktop\WB\Data\Covid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{ED4001CC-7A69-4B23-BC45-EFE256B437D6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{00B475BF-D1F0-40CA-AB71-2A471D2CC9A9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -460,15 +460,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S80"/>
+  <dimension ref="A1:S81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
@@ -4304,6 +4305,65 @@
         <v>33.184257602862253</v>
       </c>
     </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="d">
+        <v>2020-04-12</v>
+      </c>
+      <c r="B81">
+        <v>25202</v>
+      </c>
+      <c r="C81">
+        <v>5912</v>
+      </c>
+      <c r="D81">
+        <v>31114</v>
+      </c>
+      <c r="E81">
+        <v>1211</v>
+      </c>
+      <c r="F81">
+        <v>322</v>
+      </c>
+      <c r="G81">
+        <v>1.0222222222222221</v>
+      </c>
+      <c r="H81">
+        <v>5721.5888194189047</v>
+      </c>
+      <c r="I81">
+        <v>0.26589595375722541</v>
+      </c>
+      <c r="J81">
+        <v>23.458455678120785</v>
+      </c>
+      <c r="K81">
+        <v>23</v>
+      </c>
+      <c r="L81">
+        <v>566</v>
+      </c>
+      <c r="M81">
+        <v>9.5737483085250332</v>
+      </c>
+      <c r="N81">
+        <v>221</v>
+      </c>
+      <c r="O81">
+        <v>9</v>
+      </c>
+      <c r="P81">
+        <v>1755</v>
+      </c>
+      <c r="Q81">
+        <v>-100</v>
+      </c>
+      <c r="R81">
+        <v>12.592592592592592</v>
+      </c>
+      <c r="S81">
+        <v>29.685385656292283</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/scot_covid.xlsx
+++ b/scot_covid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PGR3\Desktop\WB\Data\Covid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{00B475BF-D1F0-40CA-AB71-2A471D2CC9A9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{D982A1B3-850E-4F85-AAD8-E1C8679C982F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="19" uniqueCount="19">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="21" uniqueCount="21">
   <si>
     <t>Date</t>
   </si>
@@ -92,6 +92,12 @@
   <si>
     <t>NewHosp</t>
   </si>
+  <si>
+    <t>DeathsPerMillion</t>
+  </si>
+  <si>
+    <t>DailyDPMillion</t>
+  </si>
 </sst>
 </file>
 
@@ -101,7 +107,7 @@
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,13 +123,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -138,14 +156,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -460,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S81"/>
+  <dimension ref="A1:U82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B83" sqref="B83"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D85" sqref="D85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -472,7 +494,7 @@
     <col min="5" max="5" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -513,25 +535,31 @@
         <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="R1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="S1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="T1" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="U1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="d">
         <v>2020-01-24</v>
       </c>
@@ -542,25 +570,20 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <f>B2+C2</f>
         <v>2</v>
       </c>
       <c r="E2">
-        <f>D2</f>
         <v>2</v>
       </c>
       <c r="F2">
-        <f>C2</f>
         <v>0</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3">
-        <f>D2/5.438</f>
         <v>0.36778227289444648</v>
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="3">
-        <f t="shared" ref="J2:J65" si="0">(C2/B2)*100</f>
         <v>0</v>
       </c>
       <c r="K2">
@@ -570,8 +593,14 @@
         <v>0</v>
       </c>
       <c r="M2" s="3"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="d">
         <v>2020-01-25</v>
       </c>
@@ -582,25 +611,20 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D54" si="1">B3+C3</f>
         <v>5</v>
       </c>
       <c r="E3">
-        <f>D3-D2</f>
         <v>3</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F39" si="2">C3</f>
         <v>0</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3">
-        <f t="shared" ref="H3:H66" si="3">D3/5.438</f>
         <v>0.91945568223611629</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="3">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K3">
@@ -610,8 +634,14 @@
         <v>0</v>
       </c>
       <c r="M3" s="3"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="d">
         <v>2020-01-26</v>
       </c>
@@ -622,25 +652,20 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E67" si="4">D4-D3</f>
         <v>1</v>
       </c>
       <c r="F4">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3">
-        <f t="shared" si="3"/>
         <v>1.1033468186833395</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="3">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K4">
@@ -650,8 +675,14 @@
         <v>0</v>
       </c>
       <c r="M4" s="3"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="d">
         <v>2020-01-27</v>
       </c>
@@ -662,25 +693,20 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="E5">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F5">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3">
-        <f t="shared" si="3"/>
         <v>1.2872379551305628</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="3">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K5">
@@ -690,8 +716,14 @@
         <v>0</v>
       </c>
       <c r="M5" s="3"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="d">
         <v>2020-01-28</v>
       </c>
@@ -702,25 +734,20 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="E6">
-        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="F6">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3">
-        <f t="shared" si="3"/>
         <v>2.0228025009194557</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="3">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K6">
@@ -730,8 +757,14 @@
         <v>0</v>
       </c>
       <c r="M6" s="3"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="d">
         <v>2020-01-29</v>
       </c>
@@ -742,25 +775,20 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="E7">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F7">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3">
-        <f t="shared" si="3"/>
         <v>2.0228025009194557</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="3">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K7">
@@ -770,8 +798,14 @@
         <v>0</v>
       </c>
       <c r="M7" s="3"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="d">
         <v>2020-01-30</v>
       </c>
@@ -782,25 +816,20 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="E8">
-        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="F8">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3">
-        <f t="shared" si="3"/>
         <v>2.9422581831555719</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="3">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K8">
@@ -810,8 +839,14 @@
         <v>0</v>
       </c>
       <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="d">
         <v>2020-01-31</v>
       </c>
@@ -822,25 +857,20 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="E9">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F9">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3">
-        <f t="shared" si="3"/>
         <v>2.9422581831555719</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="3">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K9">
@@ -850,8 +880,14 @@
         <v>0</v>
       </c>
       <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="d">
         <v>2020-02-01</v>
       </c>
@@ -862,25 +898,20 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="E10">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F10">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3">
-        <f t="shared" si="3"/>
         <v>2.9422581831555719</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="3">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K10">
@@ -890,8 +921,14 @@
         <v>0</v>
       </c>
       <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="d">
         <v>2020-02-02</v>
       </c>
@@ -902,25 +939,20 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="E11">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F11">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3">
-        <f t="shared" si="3"/>
         <v>2.9422581831555719</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="3">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K11">
@@ -930,8 +962,14 @@
         <v>0</v>
       </c>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="d">
         <v>2020-02-03</v>
       </c>
@@ -942,25 +980,20 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="E12">
-        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F12">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3">
-        <f t="shared" si="3"/>
         <v>4.7811695476278047</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="3">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K12">
@@ -970,8 +1003,14 @@
         <v>0</v>
       </c>
       <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="d">
         <v>2020-02-04</v>
       </c>
@@ -982,25 +1021,20 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="E13">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F13">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3">
-        <f t="shared" si="3"/>
         <v>4.7811695476278047</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="3">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K13">
@@ -1010,8 +1044,14 @@
         <v>0</v>
       </c>
       <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="d">
         <v>2020-02-05</v>
       </c>
@@ -1022,25 +1062,20 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="E14">
-        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="F14">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3">
-        <f t="shared" si="3"/>
         <v>5.7006252298639213</v>
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="3">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K14">
@@ -1050,8 +1085,14 @@
         <v>0</v>
       </c>
       <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="d">
         <v>2020-02-06</v>
       </c>
@@ -1062,25 +1103,20 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="E15">
-        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="F15">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3">
-        <f t="shared" si="3"/>
         <v>6.2522986392055904</v>
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="3">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K15">
@@ -1090,8 +1126,14 @@
         <v>0</v>
       </c>
       <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="d">
         <v>2020-02-07</v>
       </c>
@@ -1102,25 +1144,20 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="E16">
-        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="F16">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3">
-        <f t="shared" si="3"/>
         <v>6.9878631849944837</v>
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="3">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K16">
@@ -1130,8 +1167,14 @@
         <v>0</v>
       </c>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="d">
         <v>2020-02-08</v>
       </c>
@@ -1142,25 +1185,20 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="E17">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F17">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3">
-        <f t="shared" si="3"/>
         <v>6.9878631849944837</v>
       </c>
       <c r="I17" s="4"/>
       <c r="J17" s="3">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K17">
@@ -1170,8 +1208,14 @@
         <v>0</v>
       </c>
       <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="d">
         <v>2020-02-09</v>
       </c>
@@ -1182,25 +1226,20 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <f t="shared" si="1"/>
         <v>41</v>
       </c>
       <c r="E18">
-        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="F18">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3">
-        <f t="shared" si="3"/>
         <v>7.5395365943361536</v>
       </c>
       <c r="I18" s="4"/>
       <c r="J18" s="3">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K18">
@@ -1210,8 +1249,14 @@
         <v>0</v>
       </c>
       <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="d">
         <v>2020-02-10</v>
       </c>
@@ -1222,25 +1267,20 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <f t="shared" si="1"/>
         <v>57</v>
       </c>
       <c r="E19">
-        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="F19">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3">
-        <f t="shared" si="3"/>
         <v>10.481794777491725</v>
       </c>
       <c r="I19" s="4"/>
       <c r="J19" s="3">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K19">
@@ -1250,8 +1290,14 @@
         <v>0</v>
       </c>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="d">
         <v>2020-02-11</v>
       </c>
@@ -1262,25 +1308,20 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <f t="shared" si="1"/>
         <v>82</v>
       </c>
       <c r="E20">
-        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="F20">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3">
-        <f t="shared" si="3"/>
         <v>15.079073188672307</v>
       </c>
       <c r="I20" s="4"/>
       <c r="J20" s="3">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K20">
@@ -1290,8 +1331,14 @@
         <v>0</v>
       </c>
       <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="d">
         <v>2020-02-12</v>
       </c>
@@ -1302,25 +1349,20 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <f t="shared" si="1"/>
         <v>106</v>
       </c>
       <c r="E21">
-        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="F21">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="3">
-        <f t="shared" si="3"/>
         <v>19.492460463405664</v>
       </c>
       <c r="I21" s="4"/>
       <c r="J21" s="3">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K21">
@@ -1330,8 +1372,14 @@
         <v>0</v>
       </c>
       <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="d">
         <v>2020-02-13</v>
       </c>
@@ -1342,25 +1390,20 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <f t="shared" si="1"/>
         <v>148</v>
       </c>
       <c r="E22">
-        <f t="shared" si="4"/>
         <v>42</v>
       </c>
       <c r="F22">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3">
-        <f t="shared" si="3"/>
         <v>27.215888194189041</v>
       </c>
       <c r="I22" s="4"/>
       <c r="J22" s="3">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K22">
@@ -1370,8 +1413,14 @@
         <v>0</v>
       </c>
       <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="d">
         <v>2020-02-14</v>
       </c>
@@ -1382,25 +1431,20 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <f t="shared" si="1"/>
         <v>200</v>
       </c>
       <c r="E23">
-        <f t="shared" si="4"/>
         <v>52</v>
       </c>
       <c r="F23">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3">
-        <f t="shared" si="3"/>
         <v>36.778227289444651</v>
       </c>
       <c r="I23" s="4"/>
       <c r="J23" s="3">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K23">
@@ -1410,8 +1454,14 @@
         <v>0</v>
       </c>
       <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="d">
         <v>2020-02-15</v>
       </c>
@@ -1422,25 +1472,20 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <f t="shared" si="1"/>
         <v>224</v>
       </c>
       <c r="E24">
-        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="F24">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3">
-        <f t="shared" si="3"/>
         <v>41.19161456417801</v>
       </c>
       <c r="I24" s="4"/>
       <c r="J24" s="3">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K24">
@@ -1450,8 +1495,14 @@
         <v>0</v>
       </c>
       <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="d">
         <v>2020-02-16</v>
       </c>
@@ -1462,25 +1513,20 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <f t="shared" si="1"/>
         <v>252</v>
       </c>
       <c r="E25">
-        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="F25">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3">
-        <f t="shared" si="3"/>
         <v>46.34056638470026</v>
       </c>
       <c r="I25" s="4"/>
       <c r="J25" s="3">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K25">
@@ -1490,8 +1536,14 @@
         <v>0</v>
       </c>
       <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="d">
         <v>2020-02-17</v>
       </c>
@@ -1502,25 +1554,20 @@
         <v>0</v>
       </c>
       <c r="D26">
-        <f t="shared" si="1"/>
         <v>264</v>
       </c>
       <c r="E26">
-        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="F26">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3">
-        <f t="shared" si="3"/>
         <v>48.547260022066936</v>
       </c>
       <c r="I26" s="4"/>
       <c r="J26" s="3">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K26">
@@ -1530,8 +1577,14 @@
         <v>0</v>
       </c>
       <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="d">
         <v>2020-02-18</v>
       </c>
@@ -1542,25 +1595,20 @@
         <v>0</v>
       </c>
       <c r="D27">
-        <f t="shared" si="1"/>
         <v>276</v>
       </c>
       <c r="E27">
-        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="F27">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3">
-        <f t="shared" si="3"/>
         <v>50.75395365943362</v>
       </c>
       <c r="I27" s="4"/>
       <c r="J27" s="3">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K27">
@@ -1570,8 +1618,14 @@
         <v>0</v>
       </c>
       <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="d">
         <v>2020-02-19</v>
       </c>
@@ -1582,25 +1636,20 @@
         <v>0</v>
       </c>
       <c r="D28">
-        <f t="shared" si="1"/>
         <v>306</v>
       </c>
       <c r="E28">
-        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="F28">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3">
-        <f t="shared" si="3"/>
         <v>56.270687752850314</v>
       </c>
       <c r="I28" s="4"/>
       <c r="J28" s="3">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K28">
@@ -1610,8 +1659,14 @@
         <v>0</v>
       </c>
       <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="d">
         <v>2020-02-20</v>
       </c>
@@ -1622,25 +1677,20 @@
         <v>0</v>
       </c>
       <c r="D29">
-        <f t="shared" si="1"/>
         <v>327</v>
       </c>
       <c r="E29">
-        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="F29">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3">
-        <f t="shared" si="3"/>
         <v>60.132401618242007</v>
       </c>
       <c r="I29" s="4"/>
       <c r="J29" s="3">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K29">
@@ -1650,8 +1700,14 @@
         <v>0</v>
       </c>
       <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="d">
         <v>2020-02-21</v>
       </c>
@@ -1662,25 +1718,20 @@
         <v>0</v>
       </c>
       <c r="D30">
-        <f t="shared" si="1"/>
         <v>368</v>
       </c>
       <c r="E30">
-        <f t="shared" si="4"/>
         <v>41</v>
       </c>
       <c r="F30">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="3">
-        <f t="shared" si="3"/>
         <v>67.671938212578155</v>
       </c>
       <c r="I30" s="4"/>
       <c r="J30" s="3">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K30">
@@ -1690,8 +1741,14 @@
         <v>0</v>
       </c>
       <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="d">
         <v>2020-02-22</v>
       </c>
@@ -1702,25 +1759,20 @@
         <v>0</v>
       </c>
       <c r="D31">
-        <f t="shared" si="1"/>
         <v>382</v>
       </c>
       <c r="E31">
-        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="F31">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="3">
-        <f t="shared" si="3"/>
         <v>70.246414122839283</v>
       </c>
       <c r="I31" s="4"/>
       <c r="J31" s="3">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K31">
@@ -1730,8 +1782,14 @@
         <v>0</v>
       </c>
       <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="d">
         <v>2020-02-23</v>
       </c>
@@ -1742,25 +1800,20 @@
         <v>0</v>
       </c>
       <c r="D32">
-        <f t="shared" si="1"/>
         <v>393</v>
       </c>
       <c r="E32">
-        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="F32">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3">
-        <f t="shared" si="3"/>
         <v>72.269216623758737</v>
       </c>
       <c r="I32" s="4"/>
       <c r="J32" s="3">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K32">
@@ -1770,8 +1823,14 @@
         <v>0</v>
       </c>
       <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="d">
         <v>2020-02-24</v>
       </c>
@@ -1782,25 +1841,20 @@
         <v>0</v>
       </c>
       <c r="D33">
-        <f t="shared" si="1"/>
         <v>404</v>
       </c>
       <c r="E33">
-        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="F33">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="3">
-        <f t="shared" si="3"/>
         <v>74.292019124678191</v>
       </c>
       <c r="I33" s="4"/>
       <c r="J33" s="3">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K33">
@@ -1810,8 +1864,14 @@
         <v>0</v>
       </c>
       <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="d">
         <v>2020-02-25</v>
       </c>
@@ -1822,25 +1882,20 @@
         <v>0</v>
       </c>
       <c r="D34">
-        <f t="shared" si="1"/>
         <v>412</v>
       </c>
       <c r="E34">
-        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="F34">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G34" s="3"/>
       <c r="H34" s="3">
-        <f t="shared" si="3"/>
         <v>75.763148216255985</v>
       </c>
       <c r="I34" s="4"/>
       <c r="J34" s="3">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K34">
@@ -1850,8 +1905,14 @@
         <v>0</v>
       </c>
       <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="d">
         <v>2020-02-26</v>
       </c>
@@ -1862,25 +1923,20 @@
         <v>0</v>
       </c>
       <c r="D35">
-        <f t="shared" si="1"/>
         <v>437</v>
       </c>
       <c r="E35">
-        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="F35">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G35" s="3"/>
       <c r="H35" s="3">
-        <f t="shared" si="3"/>
         <v>80.360426627436567</v>
       </c>
       <c r="I35" s="4"/>
       <c r="J35" s="3">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K35">
@@ -1890,8 +1946,14 @@
         <v>0</v>
       </c>
       <c r="M35" s="3"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="d">
         <v>2020-02-27</v>
       </c>
@@ -1902,25 +1964,20 @@
         <v>0</v>
       </c>
       <c r="D36">
-        <f t="shared" si="1"/>
         <v>470</v>
       </c>
       <c r="E36">
-        <f t="shared" si="4"/>
         <v>33</v>
       </c>
       <c r="F36">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="3">
-        <f t="shared" si="3"/>
         <v>86.428834130194929</v>
       </c>
       <c r="I36" s="4"/>
       <c r="J36" s="3">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K36">
@@ -1930,8 +1987,14 @@
         <v>0</v>
       </c>
       <c r="M36" s="3"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="d">
         <v>2020-02-28</v>
       </c>
@@ -1942,25 +2005,20 @@
         <v>0</v>
       </c>
       <c r="D37">
-        <f t="shared" si="1"/>
         <v>500</v>
       </c>
       <c r="E37">
-        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="F37">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G37" s="3"/>
       <c r="H37" s="3">
-        <f t="shared" si="3"/>
         <v>91.94556822361163</v>
       </c>
       <c r="I37" s="4"/>
       <c r="J37" s="3">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K37">
@@ -1970,8 +2028,14 @@
         <v>0</v>
       </c>
       <c r="M37" s="3"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="d">
         <v>2020-02-29</v>
       </c>
@@ -1982,25 +2046,20 @@
         <v>0</v>
       </c>
       <c r="D38">
-        <f t="shared" si="1"/>
         <v>630</v>
       </c>
       <c r="E38">
-        <f t="shared" si="4"/>
         <v>130</v>
       </c>
       <c r="F38">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G38" s="3"/>
       <c r="H38" s="3">
-        <f t="shared" si="3"/>
         <v>115.85141596175065</v>
       </c>
       <c r="I38" s="4"/>
       <c r="J38" s="3">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K38">
@@ -2010,8 +2069,14 @@
         <v>0</v>
       </c>
       <c r="M38" s="3"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="d">
         <v>2020-03-01</v>
       </c>
@@ -2022,25 +2087,20 @@
         <v>0</v>
       </c>
       <c r="D39">
-        <f t="shared" si="1"/>
         <v>698</v>
       </c>
       <c r="E39">
-        <f t="shared" si="4"/>
         <v>68</v>
       </c>
       <c r="F39">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G39" s="3"/>
       <c r="H39" s="3">
-        <f t="shared" si="3"/>
         <v>128.35601324016184</v>
       </c>
       <c r="I39" s="4"/>
       <c r="J39" s="3">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K39">
@@ -2050,8 +2110,14 @@
         <v>0</v>
       </c>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="d">
         <v>2020-03-02</v>
       </c>
@@ -2062,25 +2128,20 @@
         <v>1</v>
       </c>
       <c r="D40">
-        <f t="shared" si="1"/>
         <v>815</v>
       </c>
       <c r="E40">
-        <f t="shared" si="4"/>
         <v>117</v>
       </c>
       <c r="F40">
-        <f>C40</f>
         <v>1</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3">
-        <f t="shared" si="3"/>
         <v>149.87127620448695</v>
       </c>
       <c r="I40" s="4"/>
       <c r="J40" s="3">
-        <f t="shared" si="0"/>
         <v>0.12285012285012285</v>
       </c>
       <c r="K40">
@@ -2090,11 +2151,16 @@
         <v>0</v>
       </c>
       <c r="M40" s="3">
-        <f t="shared" ref="M40:M66" si="5">(L40/C40)*100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="d">
         <v>2020-03-03</v>
       </c>
@@ -2105,30 +2171,24 @@
         <v>1</v>
       </c>
       <c r="D41">
-        <f t="shared" si="1"/>
         <v>915</v>
       </c>
       <c r="E41">
-        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="F41">
         <v>0</v>
       </c>
       <c r="G41" s="3">
-        <f t="shared" ref="G41:G53" si="6">F41/F40</f>
         <v>0</v>
       </c>
       <c r="H41" s="3">
-        <f t="shared" si="3"/>
         <v>168.26038984920928</v>
       </c>
       <c r="I41" s="4">
-        <f t="shared" ref="I41:I69" si="7">F41/E41</f>
         <v>0</v>
       </c>
       <c r="J41" s="3">
-        <f t="shared" si="0"/>
         <v>0.10940919037199125</v>
       </c>
       <c r="K41">
@@ -2138,11 +2198,16 @@
         <v>0</v>
       </c>
       <c r="M41" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="d">
         <v>2020-03-04</v>
       </c>
@@ -2153,30 +2218,24 @@
         <v>3</v>
       </c>
       <c r="D42">
-        <f t="shared" si="1"/>
         <v>1046</v>
       </c>
       <c r="E42">
-        <f t="shared" si="4"/>
         <v>131</v>
       </c>
       <c r="F42">
-        <f>C42-C41</f>
         <v>2</v>
       </c>
       <c r="G42" s="3">
         <v>0</v>
       </c>
       <c r="H42" s="3">
-        <f t="shared" si="3"/>
         <v>192.35012872379554</v>
       </c>
       <c r="I42" s="4">
-        <f t="shared" si="7"/>
         <v>1.5267175572519083E-2</v>
       </c>
       <c r="J42" s="3">
-        <f t="shared" si="0"/>
         <v>0.28763183125599234</v>
       </c>
       <c r="K42">
@@ -2186,11 +2245,16 @@
         <v>0</v>
       </c>
       <c r="M42" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="d">
         <v>2020-03-05</v>
       </c>
@@ -2201,31 +2265,24 @@
         <v>6</v>
       </c>
       <c r="D43">
-        <f t="shared" si="1"/>
         <v>1256</v>
       </c>
       <c r="E43">
-        <f t="shared" si="4"/>
         <v>210</v>
       </c>
       <c r="F43">
-        <f t="shared" ref="F43:F80" si="8">C43-C42</f>
         <v>3</v>
       </c>
       <c r="G43" s="3">
-        <f t="shared" si="6"/>
         <v>1.5</v>
       </c>
       <c r="H43" s="3">
-        <f t="shared" si="3"/>
         <v>230.9672673777124</v>
       </c>
       <c r="I43" s="4">
-        <f t="shared" si="7"/>
         <v>1.4285714285714285E-2</v>
       </c>
       <c r="J43" s="3">
-        <f t="shared" si="0"/>
         <v>0.48</v>
       </c>
       <c r="K43">
@@ -2235,11 +2292,16 @@
         <v>0</v>
       </c>
       <c r="M43" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="d">
         <v>2020-03-06</v>
       </c>
@@ -2250,31 +2312,24 @@
         <v>11</v>
       </c>
       <c r="D44">
-        <f t="shared" si="1"/>
         <v>1525</v>
       </c>
       <c r="E44">
-        <f t="shared" si="4"/>
         <v>269</v>
       </c>
       <c r="F44">
-        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="G44" s="3">
-        <f t="shared" si="6"/>
         <v>1.6666666666666667</v>
       </c>
       <c r="H44" s="3">
-        <f t="shared" si="3"/>
         <v>280.43398308201546</v>
       </c>
       <c r="I44" s="4">
-        <f t="shared" si="7"/>
         <v>1.858736059479554E-2</v>
       </c>
       <c r="J44" s="3">
-        <f t="shared" si="0"/>
         <v>0.72655217965653895</v>
       </c>
       <c r="K44">
@@ -2284,11 +2339,16 @@
         <v>0</v>
       </c>
       <c r="M44" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="d">
         <v>2020-03-07</v>
       </c>
@@ -2299,31 +2359,24 @@
         <v>16</v>
       </c>
       <c r="D45">
-        <f t="shared" si="1"/>
         <v>1680</v>
       </c>
       <c r="E45">
-        <f t="shared" si="4"/>
         <v>155</v>
       </c>
       <c r="F45">
-        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="G45" s="3">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H45" s="3">
-        <f t="shared" si="3"/>
         <v>308.93710923133506</v>
       </c>
       <c r="I45" s="4">
-        <f t="shared" si="7"/>
         <v>3.2258064516129031E-2</v>
       </c>
       <c r="J45" s="3">
-        <f t="shared" si="0"/>
         <v>0.96153846153846156</v>
       </c>
       <c r="K45">
@@ -2333,11 +2386,16 @@
         <v>0</v>
       </c>
       <c r="M45" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="d">
         <v>2020-03-08</v>
       </c>
@@ -2348,31 +2406,24 @@
         <v>18</v>
       </c>
       <c r="D46">
-        <f t="shared" si="1"/>
         <v>1957</v>
       </c>
       <c r="E46">
-        <f t="shared" si="4"/>
         <v>277</v>
       </c>
       <c r="F46">
-        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="G46" s="3">
-        <f t="shared" si="6"/>
         <v>0.4</v>
       </c>
       <c r="H46" s="3">
-        <f t="shared" si="3"/>
         <v>359.87495402721589</v>
       </c>
       <c r="I46" s="4">
-        <f t="shared" si="7"/>
         <v>7.2202166064981952E-3</v>
       </c>
       <c r="J46" s="3">
-        <f t="shared" si="0"/>
         <v>0.92831356369262508</v>
       </c>
       <c r="K46">
@@ -2382,11 +2433,16 @@
         <v>0</v>
       </c>
       <c r="M46" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="d">
         <v>2020-03-09</v>
       </c>
@@ -2397,31 +2453,24 @@
         <v>23</v>
       </c>
       <c r="D47">
-        <f t="shared" si="1"/>
         <v>2101</v>
       </c>
       <c r="E47">
-        <f t="shared" si="4"/>
         <v>144</v>
       </c>
       <c r="F47">
-        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="G47" s="3">
-        <f t="shared" si="6"/>
         <v>2.5</v>
       </c>
       <c r="H47" s="3">
-        <f t="shared" si="3"/>
         <v>386.35527767561604</v>
       </c>
       <c r="I47" s="4">
-        <f t="shared" si="7"/>
         <v>3.4722222222222224E-2</v>
       </c>
       <c r="J47" s="3">
-        <f t="shared" si="0"/>
         <v>1.1068334937439845</v>
       </c>
       <c r="K47">
@@ -2431,11 +2480,16 @@
         <v>0</v>
       </c>
       <c r="M47" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="d">
         <v>2020-03-10</v>
       </c>
@@ -2446,31 +2500,24 @@
         <v>27</v>
       </c>
       <c r="D48">
-        <f t="shared" si="1"/>
         <v>2234</v>
       </c>
       <c r="E48">
-        <f t="shared" si="4"/>
         <v>133</v>
       </c>
       <c r="F48">
-        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="G48" s="3">
-        <f t="shared" si="6"/>
         <v>0.8</v>
       </c>
       <c r="H48" s="3">
-        <f t="shared" si="3"/>
         <v>410.81279882309673</v>
       </c>
       <c r="I48" s="4">
-        <f t="shared" si="7"/>
         <v>3.007518796992481E-2</v>
       </c>
       <c r="J48" s="3">
-        <f t="shared" si="0"/>
         <v>1.2233801540552787</v>
       </c>
       <c r="K48">
@@ -2480,11 +2527,16 @@
         <v>0</v>
       </c>
       <c r="M48" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="d">
         <v>2020-03-11</v>
       </c>
@@ -2495,31 +2547,24 @@
         <v>36</v>
       </c>
       <c r="D49">
-        <f t="shared" si="1"/>
         <v>2316</v>
       </c>
       <c r="E49">
-        <f t="shared" si="4"/>
         <v>82</v>
       </c>
       <c r="F49">
-        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="G49" s="3">
-        <f t="shared" si="6"/>
         <v>2.25</v>
       </c>
       <c r="H49" s="3">
-        <f t="shared" si="3"/>
         <v>425.89187201176907</v>
       </c>
       <c r="I49" s="4">
-        <f t="shared" si="7"/>
         <v>0.10975609756097561</v>
       </c>
       <c r="J49" s="3">
-        <f t="shared" si="0"/>
         <v>1.5789473684210527</v>
       </c>
       <c r="K49">
@@ -2529,11 +2574,16 @@
         <v>0</v>
       </c>
       <c r="M49" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="d">
         <v>2020-03-12</v>
       </c>
@@ -2544,31 +2594,24 @@
         <v>60</v>
       </c>
       <c r="D50">
-        <f t="shared" si="1"/>
         <v>2892</v>
       </c>
       <c r="E50">
-        <f t="shared" si="4"/>
         <v>576</v>
       </c>
       <c r="F50">
-        <f t="shared" si="8"/>
         <v>24</v>
       </c>
       <c r="G50" s="3">
-        <f t="shared" si="6"/>
         <v>2.6666666666666665</v>
       </c>
       <c r="H50" s="3">
-        <f t="shared" si="3"/>
         <v>531.8131666053697</v>
       </c>
       <c r="I50" s="4">
-        <f t="shared" si="7"/>
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="J50" s="3">
-        <f t="shared" si="0"/>
         <v>2.1186440677966099</v>
       </c>
       <c r="K50">
@@ -2578,11 +2621,16 @@
         <v>0</v>
       </c>
       <c r="M50" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="d">
         <v>2020-03-13</v>
       </c>
@@ -2593,31 +2641,24 @@
         <v>85</v>
       </c>
       <c r="D51">
-        <f t="shared" si="1"/>
         <v>3314</v>
       </c>
       <c r="E51">
-        <f t="shared" si="4"/>
         <v>422</v>
       </c>
       <c r="F51">
-        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="G51" s="3">
-        <f t="shared" si="6"/>
         <v>1.0416666666666667</v>
       </c>
       <c r="H51" s="3">
-        <f t="shared" si="3"/>
         <v>609.41522618609781</v>
       </c>
       <c r="I51" s="4">
-        <f t="shared" si="7"/>
         <v>5.9241706161137442E-2</v>
       </c>
       <c r="J51" s="3">
-        <f t="shared" si="0"/>
         <v>2.6323939300092905</v>
       </c>
       <c r="K51">
@@ -2627,11 +2668,16 @@
         <v>0</v>
       </c>
       <c r="M51" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="d">
         <v>2020-03-14</v>
       </c>
@@ -2642,46 +2688,43 @@
         <v>121</v>
       </c>
       <c r="D52">
-        <f t="shared" si="1"/>
         <v>3715</v>
       </c>
       <c r="E52">
-        <f t="shared" si="4"/>
         <v>401</v>
       </c>
       <c r="F52">
-        <f t="shared" si="8"/>
         <v>36</v>
       </c>
       <c r="G52" s="3">
-        <f t="shared" si="6"/>
         <v>1.44</v>
       </c>
       <c r="H52" s="3">
-        <f t="shared" si="3"/>
         <v>683.15557190143443</v>
       </c>
       <c r="I52" s="4">
-        <f t="shared" si="7"/>
         <v>8.9775561097256859E-2</v>
       </c>
       <c r="J52" s="3">
-        <f t="shared" si="0"/>
         <v>3.3667223149693934</v>
       </c>
       <c r="K52">
         <v>1</v>
       </c>
       <c r="L52">
-        <f t="shared" ref="L52" si="9">K52+K48+K49+K50+K51</f>
         <v>1</v>
       </c>
       <c r="M52" s="3">
-        <f t="shared" si="5"/>
         <v>0.82644628099173556</v>
       </c>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N52">
+        <v>0.18389113644722324</v>
+      </c>
+      <c r="O52">
+        <v>0.18389113644722324</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="d">
         <v>2020-03-15</v>
       </c>
@@ -2692,46 +2735,43 @@
         <v>153</v>
       </c>
       <c r="D53">
-        <f t="shared" si="1"/>
         <v>4240</v>
       </c>
       <c r="E53">
-        <f t="shared" si="4"/>
         <v>525</v>
       </c>
       <c r="F53">
-        <f t="shared" si="8"/>
         <v>32</v>
       </c>
       <c r="G53" s="3">
-        <f t="shared" si="6"/>
         <v>0.88888888888888884</v>
       </c>
       <c r="H53" s="3">
-        <f t="shared" si="3"/>
         <v>779.69841853622654</v>
       </c>
       <c r="I53" s="4">
-        <f t="shared" si="7"/>
         <v>6.0952380952380952E-2</v>
       </c>
       <c r="J53" s="3">
-        <f t="shared" si="0"/>
         <v>3.7435771959872763</v>
       </c>
       <c r="K53">
         <v>0</v>
       </c>
       <c r="L53">
-        <f>L52+K53</f>
         <v>1</v>
       </c>
       <c r="M53" s="3">
-        <f t="shared" si="5"/>
         <v>0.65359477124183007</v>
       </c>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N53">
+        <v>0.18389113644722324</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="d">
         <v>2020-03-16</v>
       </c>
@@ -2742,46 +2782,43 @@
         <v>171</v>
       </c>
       <c r="D54">
-        <f t="shared" si="1"/>
         <v>4895</v>
       </c>
       <c r="E54">
-        <f t="shared" si="4"/>
         <v>655</v>
       </c>
       <c r="F54">
-        <f t="shared" si="8"/>
         <v>18</v>
       </c>
       <c r="G54" s="3">
-        <f>F54/F53</f>
         <v>0.5625</v>
       </c>
       <c r="H54" s="3">
-        <f t="shared" si="3"/>
         <v>900.14711290915784</v>
       </c>
       <c r="I54" s="4">
-        <f t="shared" si="7"/>
         <v>2.748091603053435E-2</v>
       </c>
       <c r="J54" s="3">
-        <f t="shared" si="0"/>
         <v>3.6198137171888232</v>
       </c>
       <c r="K54">
         <v>0</v>
       </c>
       <c r="L54">
-        <f t="shared" ref="L54:L61" si="10">L53+K54</f>
         <v>1</v>
       </c>
       <c r="M54" s="3">
-        <f t="shared" si="5"/>
         <v>0.58479532163742687</v>
       </c>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N54">
+        <v>0.18389113644722324</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="d">
         <v>2020-03-17</v>
       </c>
@@ -2795,42 +2832,40 @@
         <v>5246</v>
       </c>
       <c r="E55">
-        <f t="shared" si="4"/>
         <v>351</v>
       </c>
       <c r="F55">
-        <f t="shared" si="8"/>
         <v>24</v>
       </c>
       <c r="G55" s="3">
-        <f>F55/F54</f>
         <v>1.3333333333333333</v>
       </c>
       <c r="H55" s="3">
-        <f t="shared" si="3"/>
         <v>964.69290180213318</v>
       </c>
       <c r="I55" s="4">
-        <f t="shared" si="7"/>
         <v>6.8376068376068383E-2</v>
       </c>
       <c r="J55" s="3">
-        <f t="shared" si="0"/>
         <v>3.8606216590774101</v>
       </c>
       <c r="K55">
         <v>1</v>
       </c>
       <c r="L55">
-        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="M55" s="3">
-        <f t="shared" si="5"/>
         <v>1.0256410256410255</v>
       </c>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N55">
+        <v>0.36778227289444648</v>
+      </c>
+      <c r="O55">
+        <v>0.18389113644722324</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="d">
         <v>2020-03-18</v>
       </c>
@@ -2871,25 +2906,31 @@
         <v>1.3215859030837005</v>
       </c>
       <c r="N56">
+        <v>0.55167340934166975</v>
+      </c>
+      <c r="O56">
+        <v>0.18389113644722324</v>
+      </c>
+      <c r="P56">
         <v>6</v>
       </c>
-      <c r="O56">
+      <c r="Q56">
         <v>6</v>
       </c>
-      <c r="P56">
+      <c r="R56">
         <v>149</v>
       </c>
-      <c r="Q56">
+      <c r="S56">
         <v>149</v>
       </c>
-      <c r="R56">
+      <c r="T56">
         <v>4.0268456375838921</v>
       </c>
-      <c r="S56">
+      <c r="U56">
         <v>65.63876651982379</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="d">
         <v>2020-03-19</v>
       </c>
@@ -2930,25 +2971,31 @@
         <v>2.2556390977443606</v>
       </c>
       <c r="N57">
+        <v>1.1033468186833395</v>
+      </c>
+      <c r="O57">
+        <v>0.55167340934166975</v>
+      </c>
+      <c r="P57">
         <v>11</v>
       </c>
-      <c r="O57">
+      <c r="Q57">
         <v>5</v>
       </c>
-      <c r="P57">
+      <c r="R57">
         <v>213</v>
       </c>
-      <c r="Q57">
+      <c r="S57">
         <v>64</v>
       </c>
-      <c r="R57">
+      <c r="T57">
         <v>5.164319248826291</v>
       </c>
-      <c r="S57">
+      <c r="U57">
         <v>80.075187969924812</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="d">
         <v>2020-03-20</v>
       </c>
@@ -2989,25 +3036,31 @@
         <v>1.8633540372670807</v>
       </c>
       <c r="N58">
+        <v>1.1033468186833395</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58">
         <v>16</v>
       </c>
-      <c r="O58">
+      <c r="Q58">
         <v>5</v>
       </c>
-      <c r="P58">
+      <c r="R58">
         <v>247</v>
       </c>
-      <c r="Q58">
+      <c r="S58">
         <v>34</v>
       </c>
-      <c r="R58">
+      <c r="T58">
         <v>6.4777327935222671</v>
       </c>
-      <c r="S58">
+      <c r="U58">
         <v>76.708074534161483</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="d">
         <v>2020-03-21</v>
       </c>
@@ -3048,25 +3101,31 @@
         <v>1.8766756032171581</v>
       </c>
       <c r="N59">
+        <v>1.2872379551305628</v>
+      </c>
+      <c r="O59">
+        <v>0.18389113644722324</v>
+      </c>
+      <c r="P59">
         <v>20</v>
       </c>
-      <c r="O59">
+      <c r="Q59">
         <v>4</v>
       </c>
-      <c r="P59">
+      <c r="R59">
         <v>244</v>
       </c>
-      <c r="Q59">
+      <c r="S59">
         <v>-3</v>
       </c>
-      <c r="R59">
+      <c r="T59">
         <v>8.1967213114754092</v>
       </c>
-      <c r="S59">
+      <c r="U59">
         <v>65.415549597855232</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="d">
         <v>2020-03-22</v>
       </c>
@@ -3107,25 +3166,31 @@
         <v>2.4038461538461542</v>
       </c>
       <c r="N60">
+        <v>1.8389113644722326</v>
+      </c>
+      <c r="O60">
+        <v>0.55167340934166975</v>
+      </c>
+      <c r="P60">
         <v>23</v>
       </c>
-      <c r="O60">
+      <c r="Q60">
         <v>3</v>
       </c>
-      <c r="P60">
+      <c r="R60">
         <v>285</v>
       </c>
-      <c r="Q60">
+      <c r="S60">
         <v>41</v>
       </c>
-      <c r="R60">
+      <c r="T60">
         <v>8.0701754385964914</v>
       </c>
-      <c r="S60">
+      <c r="U60">
         <v>68.509615384615387</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="d">
         <v>2020-03-23</v>
       </c>
@@ -3166,25 +3231,31 @@
         <v>2.8056112224448899</v>
       </c>
       <c r="N61">
+        <v>2.5744759102611257</v>
+      </c>
+      <c r="O61">
+        <v>0.73556454578889297</v>
+      </c>
+      <c r="P61">
         <v>30</v>
       </c>
-      <c r="O61">
+      <c r="Q61">
         <v>7</v>
       </c>
-      <c r="P61">
+      <c r="R61">
         <v>329</v>
       </c>
-      <c r="Q61">
+      <c r="S61">
         <v>44</v>
       </c>
-      <c r="R61">
+      <c r="T61">
         <v>9.1185410334346511</v>
       </c>
-      <c r="S61">
+      <c r="U61">
         <v>65.93186372745491</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="d">
         <v>2020-03-24</v>
       </c>
@@ -3225,25 +3296,31 @@
         <v>2.7397260273972601</v>
       </c>
       <c r="N62">
+        <v>2.9422581831555719</v>
+      </c>
+      <c r="O62">
+        <v>0.36778227289444648</v>
+      </c>
+      <c r="P62">
         <v>42</v>
       </c>
-      <c r="O62">
+      <c r="Q62">
         <v>12</v>
       </c>
-      <c r="P62">
+      <c r="R62">
         <v>441</v>
       </c>
-      <c r="Q62">
+      <c r="S62">
         <v>112</v>
       </c>
-      <c r="R62">
+      <c r="T62">
         <v>9.5238095238095237</v>
       </c>
-      <c r="S62">
+      <c r="U62">
         <v>75.513698630136986</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="d">
         <v>2020-03-25</v>
       </c>
@@ -3284,25 +3361,31 @@
         <v>3.05980528511822</v>
       </c>
       <c r="N63">
+        <v>4.0456050018389114</v>
+      </c>
+      <c r="O63">
+        <v>1.1033468186833395</v>
+      </c>
+      <c r="P63">
         <v>52</v>
       </c>
-      <c r="O63">
+      <c r="Q63">
         <v>10</v>
       </c>
-      <c r="P63">
+      <c r="R63">
         <v>482</v>
       </c>
-      <c r="Q63">
+      <c r="S63">
         <v>41</v>
       </c>
-      <c r="R63">
+      <c r="T63">
         <v>10.78838174273859</v>
       </c>
-      <c r="S63">
+      <c r="U63">
         <v>67.037552155771905</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="d">
         <v>2020-03-26</v>
       </c>
@@ -3343,25 +3426,31 @@
         <v>2.796420581655481</v>
       </c>
       <c r="N64">
+        <v>4.5972784111805813</v>
+      </c>
+      <c r="O64">
+        <v>0.55167340934166975</v>
+      </c>
+      <c r="P64">
         <v>57</v>
       </c>
-      <c r="O64">
+      <c r="Q64">
         <v>5</v>
       </c>
-      <c r="P64">
+      <c r="R64">
         <v>575</v>
       </c>
-      <c r="Q64">
+      <c r="S64">
         <v>93</v>
       </c>
-      <c r="R64">
+      <c r="T64">
         <v>9.9130434782608692</v>
       </c>
-      <c r="S64">
+      <c r="U64">
         <v>64.317673378076066</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="d">
         <v>2020-03-27</v>
       </c>
@@ -3402,25 +3491,31 @@
         <v>3.1161473087818696</v>
       </c>
       <c r="N65">
+        <v>6.068407502758367</v>
+      </c>
+      <c r="O65">
+        <v>1.4711290915777859</v>
+      </c>
+      <c r="P65">
         <v>72</v>
       </c>
-      <c r="O65">
+      <c r="Q65">
         <v>15</v>
       </c>
-      <c r="P65">
+      <c r="R65">
         <v>672</v>
       </c>
-      <c r="Q65">
+      <c r="S65">
         <v>97</v>
       </c>
-      <c r="R65">
+      <c r="T65">
         <v>10.714285714285714</v>
       </c>
-      <c r="S65">
+      <c r="U65">
         <v>63.456090651558071</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="d">
         <v>2020-03-28</v>
       </c>
@@ -3461,25 +3556,31 @@
         <v>3.2128514056224895</v>
       </c>
       <c r="N66">
+        <v>7.3556454578889303</v>
+      </c>
+      <c r="O66">
+        <v>1.2872379551305628</v>
+      </c>
+      <c r="P66">
         <v>81</v>
       </c>
-      <c r="O66">
+      <c r="Q66">
         <v>9</v>
       </c>
-      <c r="P66">
+      <c r="R66">
         <v>782</v>
       </c>
-      <c r="Q66">
+      <c r="S66">
         <v>110</v>
       </c>
-      <c r="R66">
+      <c r="T66">
         <v>10.358056265984656</v>
       </c>
-      <c r="S66">
+      <c r="U66">
         <v>62.811244979919678</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="d">
         <v>2020-03-29</v>
       </c>
@@ -3520,25 +3621,31 @@
         <v>2.9624277456647397</v>
       </c>
       <c r="N67">
+        <v>7.5395365943361536</v>
+      </c>
+      <c r="O67">
+        <v>0.18389113644722324</v>
+      </c>
+      <c r="P67">
         <v>95</v>
       </c>
-      <c r="O67">
+      <c r="Q67">
         <v>14</v>
       </c>
-      <c r="P67">
+      <c r="R67">
         <v>859</v>
       </c>
-      <c r="Q67">
+      <c r="S67">
         <v>77</v>
       </c>
-      <c r="R67">
+      <c r="T67">
         <v>11.059371362048893</v>
       </c>
-      <c r="S67">
+      <c r="U67">
         <v>62.066473988439306</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="d">
         <v>2020-03-30</v>
       </c>
@@ -3579,25 +3686,31 @@
         <v>3.0070377479206654</v>
       </c>
       <c r="N68">
+        <v>8.6428834130194936</v>
+      </c>
+      <c r="O68">
+        <v>1.1033468186833395</v>
+      </c>
+      <c r="P68">
         <v>108</v>
       </c>
-      <c r="O68">
+      <c r="Q68">
         <v>13</v>
       </c>
-      <c r="P68">
+      <c r="R68">
         <v>924</v>
       </c>
-      <c r="Q68">
+      <c r="S68">
         <v>65</v>
       </c>
-      <c r="R68">
+      <c r="T68">
         <v>11.688311688311687</v>
       </c>
-      <c r="S68">
+      <c r="U68">
         <v>59.117082533589247</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="d">
         <v>2020-03-31</v>
       </c>
@@ -3638,25 +3751,31 @@
         <v>3.0105368790767688</v>
       </c>
       <c r="N69">
+        <v>11.033468186833396</v>
+      </c>
+      <c r="O69">
+        <v>2.3905847738139023</v>
+      </c>
+      <c r="P69">
         <v>135</v>
       </c>
-      <c r="O69">
+      <c r="Q69">
         <v>27</v>
       </c>
-      <c r="P69">
+      <c r="R69">
         <v>1073</v>
       </c>
-      <c r="Q69">
+      <c r="S69">
         <v>149</v>
       </c>
-      <c r="R69">
+      <c r="T69">
         <v>12.581547064305685</v>
       </c>
-      <c r="S69">
+      <c r="U69">
         <v>53.838434520822872</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="d">
         <v>2020-04-01</v>
       </c>
@@ -3697,25 +3816,31 @@
         <v>3.2900432900432901</v>
       </c>
       <c r="N70">
+        <v>13.975726369988967</v>
+      </c>
+      <c r="O70">
+        <v>2.9422581831555719</v>
+      </c>
+      <c r="P70">
         <v>147</v>
       </c>
-      <c r="O70">
+      <c r="Q70">
         <v>12</v>
       </c>
-      <c r="P70">
+      <c r="R70">
         <v>1153</v>
       </c>
-      <c r="Q70">
+      <c r="S70">
         <v>80</v>
       </c>
-      <c r="R70">
+      <c r="T70">
         <v>12.749349522983522</v>
       </c>
-      <c r="S70">
+      <c r="U70">
         <v>49.913419913419915</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="d">
         <v>2020-04-02</v>
       </c>
@@ -3756,25 +3881,31 @@
         <v>4.8424289008455039</v>
       </c>
       <c r="N71">
+        <v>23.17028319235013</v>
+      </c>
+      <c r="O71">
+        <v>9.1945568223611627</v>
+      </c>
+      <c r="P71">
         <v>162</v>
       </c>
-      <c r="O71">
+      <c r="Q71">
         <v>15</v>
       </c>
-      <c r="P71">
+      <c r="R71">
         <v>1277</v>
       </c>
-      <c r="Q71">
+      <c r="S71">
         <v>124</v>
       </c>
-      <c r="R71">
+      <c r="T71">
         <v>12.685982772122163</v>
       </c>
-      <c r="S71">
+      <c r="U71">
         <v>49.07763259031514</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="d">
         <v>2020-04-03</v>
       </c>
@@ -3815,25 +3946,31 @@
         <v>5.731422859046984</v>
       </c>
       <c r="N72">
+        <v>31.629275468922401</v>
+      </c>
+      <c r="O72">
+        <v>8.4589922765722694</v>
+      </c>
+      <c r="P72">
         <v>176</v>
       </c>
-      <c r="O72">
+      <c r="Q72">
         <v>14</v>
       </c>
-      <c r="P72">
+      <c r="R72">
         <v>1360</v>
       </c>
-      <c r="Q72">
+      <c r="S72">
         <v>83</v>
       </c>
-      <c r="R72">
+      <c r="T72">
         <v>12.941176470588237</v>
       </c>
-      <c r="S72">
+      <c r="U72">
         <v>45.318227257580808</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="d">
         <v>2020-04-04</v>
       </c>
@@ -3874,25 +4011,31 @@
         <v>6.5171898355754863</v>
       </c>
       <c r="N73">
+        <v>40.088267745494669</v>
+      </c>
+      <c r="O73">
+        <v>8.4589922765722694</v>
+      </c>
+      <c r="P73">
         <v>192</v>
       </c>
-      <c r="O73">
+      <c r="Q73">
         <v>16</v>
       </c>
-      <c r="P73">
+      <c r="R73">
         <v>1483</v>
       </c>
-      <c r="Q73">
+      <c r="S73">
         <v>123</v>
       </c>
-      <c r="R73">
+      <c r="T73">
         <v>12.946729602157788</v>
       </c>
-      <c r="S73">
+      <c r="U73">
         <v>44.334828101644248</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="d">
         <v>2020-04-05</v>
       </c>
@@ -3933,25 +4076,31 @@
         <v>5.9363194819212088</v>
       </c>
       <c r="N74">
+        <v>40.456050018389114</v>
+      </c>
+      <c r="O74">
+        <v>0.36778227289444648</v>
+      </c>
+      <c r="P74">
         <v>197</v>
       </c>
-      <c r="O74">
+      <c r="Q74">
         <v>5</v>
       </c>
-      <c r="P74">
+      <c r="R74">
         <v>1590</v>
       </c>
-      <c r="Q74">
+      <c r="S74">
         <v>107</v>
       </c>
-      <c r="R74">
+      <c r="T74">
         <v>12.389937106918239</v>
       </c>
-      <c r="S74">
+      <c r="U74">
         <v>42.903399892066915</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="d">
         <v>2020-04-06</v>
       </c>
@@ -3992,25 +4141,31 @@
         <v>5.604645291593032</v>
       </c>
       <c r="N75">
+        <v>40.823832291283566</v>
+      </c>
+      <c r="O75">
+        <v>0.36778227289444648</v>
+      </c>
+      <c r="P75">
         <v>199</v>
       </c>
-      <c r="O75">
+      <c r="Q75">
         <v>2</v>
       </c>
-      <c r="P75">
+      <c r="R75">
         <v>1646</v>
       </c>
-      <c r="Q75">
+      <c r="S75">
         <v>56</v>
       </c>
-      <c r="R75">
+      <c r="T75">
         <v>12.089914945321993</v>
       </c>
-      <c r="S75">
+      <c r="U75">
         <v>41.555162837667254</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="d">
         <v>2020-04-07</v>
       </c>
@@ -4051,25 +4206,31 @@
         <v>6.999290612437929</v>
       </c>
       <c r="N76">
+        <v>54.431776388378083</v>
+      </c>
+      <c r="O76">
+        <v>13.607944097094521</v>
+      </c>
+      <c r="P76">
         <v>199</v>
       </c>
-      <c r="O76">
-        <v>0</v>
-      </c>
-      <c r="P76">
+      <c r="Q76">
+        <v>0</v>
+      </c>
+      <c r="R76">
         <v>1733</v>
       </c>
-      <c r="Q76">
+      <c r="S76">
         <v>87</v>
       </c>
-      <c r="R76">
+      <c r="T76">
         <v>11.482977495672245</v>
       </c>
-      <c r="S76">
+      <c r="U76">
         <v>40.978954835658548</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="d">
         <v>2020-04-08</v>
       </c>
@@ -4110,25 +4271,31 @@
         <v>8.0175246440306687</v>
       </c>
       <c r="N77">
+        <v>67.30415593968371</v>
+      </c>
+      <c r="O77">
+        <v>12.872379551305627</v>
+      </c>
+      <c r="P77" s="3">
         <v>210</v>
       </c>
-      <c r="O77">
+      <c r="Q77">
         <v>11</v>
       </c>
-      <c r="P77" s="3">
+      <c r="R77">
         <v>1771</v>
       </c>
-      <c r="Q77">
+      <c r="S77">
         <v>38</v>
       </c>
-      <c r="R77">
+      <c r="T77">
         <v>11.857707509881422</v>
       </c>
-      <c r="S77">
+      <c r="U77">
         <v>38.795180722891565</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="d">
         <v>2020-04-09</v>
       </c>
@@ -4169,25 +4336,31 @@
         <v>9.0175509380673802</v>
       </c>
       <c r="N78">
+        <v>82.199337991908791</v>
+      </c>
+      <c r="O78">
+        <v>14.895182052225083</v>
+      </c>
+      <c r="P78" s="3">
         <v>212</v>
       </c>
-      <c r="O78">
+      <c r="Q78">
         <v>2</v>
       </c>
-      <c r="P78" s="3">
+      <c r="R78">
         <v>1781</v>
       </c>
-      <c r="Q78">
+      <c r="S78">
         <v>10</v>
       </c>
-      <c r="R78">
+      <c r="T78">
         <v>11.903425042111174</v>
       </c>
-      <c r="S78">
+      <c r="U78">
         <v>35.928989308049225</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="d">
         <v>2020-04-10</v>
       </c>
@@ -4228,25 +4401,31 @@
         <v>9.3838862559241711</v>
       </c>
       <c r="N79">
+        <v>91.026112541375511</v>
+      </c>
+      <c r="O79">
+        <v>8.826774549466716</v>
+      </c>
+      <c r="P79">
         <v>207</v>
       </c>
-      <c r="O79">
+      <c r="Q79">
         <v>-5</v>
       </c>
-      <c r="P79">
+      <c r="R79">
         <v>1832</v>
       </c>
-      <c r="Q79">
+      <c r="S79">
         <v>51</v>
       </c>
-      <c r="R79">
+      <c r="T79">
         <v>11.299126637554584</v>
       </c>
-      <c r="S79">
+      <c r="U79">
         <v>34.729857819905213</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="d">
         <v>2020-04-11</v>
       </c>
@@ -4287,25 +4466,31 @@
         <v>9.7137745974955276</v>
       </c>
       <c r="N80">
+        <v>99.852887090842231</v>
+      </c>
+      <c r="O80">
+        <v>8.826774549466716</v>
+      </c>
+      <c r="P80">
         <v>212</v>
       </c>
-      <c r="O80">
+      <c r="Q80">
         <v>5</v>
       </c>
-      <c r="P80">
+      <c r="R80">
         <v>1855</v>
       </c>
-      <c r="Q80">
+      <c r="S80">
         <v>23</v>
       </c>
-      <c r="R80">
+      <c r="T80">
         <v>11.428571428571429</v>
       </c>
-      <c r="S80">
+      <c r="U80">
         <v>33.184257602862253</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="d">
         <v>2020-04-12</v>
       </c>
@@ -4346,22 +4531,93 @@
         <v>9.5737483085250332</v>
       </c>
       <c r="N81">
+        <v>104.08238322912837</v>
+      </c>
+      <c r="O81">
+        <v>4.2294961382861347</v>
+      </c>
+      <c r="P81">
         <v>221</v>
       </c>
-      <c r="O81">
+      <c r="Q81">
         <v>9</v>
       </c>
-      <c r="P81">
+      <c r="R81">
         <v>1755</v>
       </c>
-      <c r="Q81">
+      <c r="S81">
         <v>-100</v>
       </c>
-      <c r="R81">
+      <c r="T81">
         <v>12.592592592592592</v>
       </c>
-      <c r="S81">
+      <c r="U81">
         <v>29.685385656292283</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="d">
+        <v>2020-04-13</v>
+      </c>
+      <c r="B82" s="8">
+        <v>25746</v>
+      </c>
+      <c r="C82" s="8">
+        <v>6067</v>
+      </c>
+      <c r="D82">
+        <v>31813</v>
+      </c>
+      <c r="E82">
+        <v>699</v>
+      </c>
+      <c r="F82">
+        <v>155</v>
+      </c>
+      <c r="G82" s="3">
+        <v>0.48136645962732921</v>
+      </c>
+      <c r="H82" s="3">
+        <v>5850.128723795513</v>
+      </c>
+      <c r="I82" s="4">
+        <v>0.22174535050071531</v>
+      </c>
+      <c r="J82" s="3">
+        <v>23.564825603977315</v>
+      </c>
+      <c r="K82">
+        <v>9</v>
+      </c>
+      <c r="L82" s="8">
+        <v>575</v>
+      </c>
+      <c r="M82" s="3">
+        <v>9.4775012361958133</v>
+      </c>
+      <c r="N82" s="3">
+        <v>105.73740345715338</v>
+      </c>
+      <c r="O82" s="3">
+        <v>1.6550202280250093</v>
+      </c>
+      <c r="P82" s="8">
+        <v>211</v>
+      </c>
+      <c r="Q82" s="6">
+        <v>-10</v>
+      </c>
+      <c r="R82" s="8">
+        <v>1797</v>
+      </c>
+      <c r="S82" s="6">
+        <v>42</v>
+      </c>
+      <c r="T82" s="3">
+        <v>11.741791875347801</v>
+      </c>
+      <c r="U82">
+        <v>29.619251689467614</v>
       </c>
     </row>
   </sheetData>

--- a/scot_covid.xlsx
+++ b/scot_covid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PGR3\Desktop\WB\Data\Covid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{D982A1B3-850E-4F85-AAD8-E1C8679C982F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{A47D7D77-77F1-49BA-A2CF-DC2E487751F2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -482,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U82"/>
+  <dimension ref="A1:U83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D85" sqref="D85"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4620,6 +4620,71 @@
         <v>29.619251689467614</v>
       </c>
     </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="d">
+        <v>2020-04-14</v>
+      </c>
+      <c r="B83">
+        <v>26497</v>
+      </c>
+      <c r="C83">
+        <v>6358</v>
+      </c>
+      <c r="D83">
+        <v>32855</v>
+      </c>
+      <c r="E83">
+        <v>1042</v>
+      </c>
+      <c r="F83">
+        <v>291</v>
+      </c>
+      <c r="G83">
+        <v>1.8774193548387097</v>
+      </c>
+      <c r="H83">
+        <v>6041.7432879735197</v>
+      </c>
+      <c r="I83">
+        <v>0.27927063339731284</v>
+      </c>
+      <c r="J83">
+        <v>23.995169264445032</v>
+      </c>
+      <c r="K83">
+        <v>40</v>
+      </c>
+      <c r="L83">
+        <v>615</v>
+      </c>
+      <c r="M83">
+        <v>9.6728530984586349</v>
+      </c>
+      <c r="N83">
+        <v>113.0930489150423</v>
+      </c>
+      <c r="O83">
+        <v>7.3556454578889303</v>
+      </c>
+      <c r="P83">
+        <v>196</v>
+      </c>
+      <c r="Q83">
+        <v>-15</v>
+      </c>
+      <c r="R83">
+        <v>1798</v>
+      </c>
+      <c r="S83">
+        <v>1</v>
+      </c>
+      <c r="T83">
+        <v>10.901001112347053</v>
+      </c>
+      <c r="U83">
+        <v>28.279333123623779</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/scot_covid.xlsx
+++ b/scot_covid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PGR3\Desktop\WB\Data\Covid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{A47D7D77-77F1-49BA-A2CF-DC2E487751F2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{802E8902-6B03-41CF-817E-37D72D7045CA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -482,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U83"/>
+  <dimension ref="A1:U84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="B85" sqref="B85"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="C86" sqref="C86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4685,6 +4685,71 @@
         <v>28.279333123623779</v>
       </c>
     </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="d">
+        <v>2020-04-15</v>
+      </c>
+      <c r="B84">
+        <v>27316</v>
+      </c>
+      <c r="C84">
+        <v>6748</v>
+      </c>
+      <c r="D84">
+        <v>34064</v>
+      </c>
+      <c r="E84">
+        <v>1209</v>
+      </c>
+      <c r="F84">
+        <v>390</v>
+      </c>
+      <c r="G84">
+        <v>1.3402061855670102</v>
+      </c>
+      <c r="H84">
+        <v>6264.0676719382127</v>
+      </c>
+      <c r="I84">
+        <v>0.32258064516129031</v>
+      </c>
+      <c r="J84">
+        <v>24.703470493483675</v>
+      </c>
+      <c r="K84">
+        <v>84</v>
+      </c>
+      <c r="L84">
+        <v>699</v>
+      </c>
+      <c r="M84">
+        <v>10.358624777711915</v>
+      </c>
+      <c r="N84">
+        <v>128.53990437660906</v>
+      </c>
+      <c r="O84">
+        <v>15.446855461566754</v>
+      </c>
+      <c r="P84">
+        <v>195</v>
+      </c>
+      <c r="Q84">
+        <v>-1</v>
+      </c>
+      <c r="R84">
+        <v>1748</v>
+      </c>
+      <c r="S84">
+        <v>-50</v>
+      </c>
+      <c r="T84">
+        <v>11.155606407322654</v>
+      </c>
+      <c r="U84">
+        <v>25.903971547125078</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/scot_covid.xlsx
+++ b/scot_covid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PGR3\Desktop\WB\Data\Covid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{802E8902-6B03-41CF-817E-37D72D7045CA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{1DA5CCE8-CDB2-4F2F-8EC8-9E46D8312876}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -482,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U84"/>
+  <dimension ref="A1:U85"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="C86" sqref="C86"/>
+      <selection activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4750,6 +4750,86 @@
         <v>25.903971547125078</v>
       </c>
     </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="d">
+        <v>2020-04-16</v>
+      </c>
+      <c r="B85" s="8">
+        <v>28290</v>
+      </c>
+      <c r="C85" s="8">
+        <v>7102</v>
+      </c>
+      <c r="D85">
+        <f t="shared" ref="D85" si="0">B85+C85</f>
+        <v>35392</v>
+      </c>
+      <c r="E85">
+        <f t="shared" ref="E85" si="1">D85-D84</f>
+        <v>1328</v>
+      </c>
+      <c r="F85">
+        <f t="shared" ref="F85" si="2">C85-C84</f>
+        <v>354</v>
+      </c>
+      <c r="G85" s="3">
+        <f t="shared" ref="G85" si="3">F85/F84</f>
+        <v>0.90769230769230769</v>
+      </c>
+      <c r="H85" s="3">
+        <f t="shared" ref="H85" si="4">D85/5.438</f>
+        <v>6508.2751011401251</v>
+      </c>
+      <c r="I85" s="4">
+        <f t="shared" ref="I85" si="5">F85/E85</f>
+        <v>0.26656626506024095</v>
+      </c>
+      <c r="J85" s="3">
+        <f t="shared" ref="J85" si="6">(C85/B85)*100</f>
+        <v>25.104277129727819</v>
+      </c>
+      <c r="K85">
+        <f t="shared" ref="K85" si="7">L85-L84</f>
+        <v>80</v>
+      </c>
+      <c r="L85" s="8">
+        <v>779</v>
+      </c>
+      <c r="M85" s="3">
+        <f>(L85/C85)*100</f>
+        <v>10.968741199662068</v>
+      </c>
+      <c r="N85" s="3">
+        <f t="shared" ref="N85" si="8">L85/5.438</f>
+        <v>143.25119529238691</v>
+      </c>
+      <c r="O85" s="3">
+        <f t="shared" ref="O85" si="9">K85/5.438</f>
+        <v>14.711290915777861</v>
+      </c>
+      <c r="P85" s="8">
+        <v>196</v>
+      </c>
+      <c r="Q85" s="6">
+        <f t="shared" ref="Q85" si="10">P85-P84</f>
+        <v>1</v>
+      </c>
+      <c r="R85" s="8">
+        <v>1799</v>
+      </c>
+      <c r="S85" s="6">
+        <f t="shared" ref="S85" si="11">R85-R84</f>
+        <v>51</v>
+      </c>
+      <c r="T85" s="3">
+        <f t="shared" ref="T85" si="12">(P85/R85)*100</f>
+        <v>10.894941634241246</v>
+      </c>
+      <c r="U85">
+        <f>(R85/C85)*100</f>
+        <v>25.330892706279922</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/scot_covid.xlsx
+++ b/scot_covid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PGR3\Desktop\WB\Data\Covid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{1DA5CCE8-CDB2-4F2F-8EC8-9E46D8312876}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{5A00DEAA-B4EB-4CC2-AA64-1D60BA43E06C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr/>
@@ -130,18 +131,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -156,7 +151,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -167,7 +162,12 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -482,7 +482,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U85"/>
+  <dimension ref="A1:U86"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
       <selection activeCell="B87" sqref="B87"/>
@@ -4565,46 +4565,46 @@
       <c r="C82" s="8">
         <v>6067</v>
       </c>
-      <c r="D82">
+      <c r="D82" s="8">
         <v>31813</v>
       </c>
-      <c r="E82">
+      <c r="E82" s="8">
         <v>699</v>
       </c>
-      <c r="F82">
+      <c r="F82" s="8">
         <v>155</v>
       </c>
-      <c r="G82" s="3">
+      <c r="G82" s="9">
         <v>0.48136645962732921</v>
       </c>
-      <c r="H82" s="3">
+      <c r="H82" s="9">
         <v>5850.128723795513</v>
       </c>
-      <c r="I82" s="4">
+      <c r="I82" s="10">
         <v>0.22174535050071531</v>
       </c>
-      <c r="J82" s="3">
+      <c r="J82" s="9">
         <v>23.564825603977315</v>
       </c>
-      <c r="K82">
+      <c r="K82" s="8">
         <v>9</v>
       </c>
       <c r="L82" s="8">
         <v>575</v>
       </c>
-      <c r="M82" s="3">
+      <c r="M82" s="9">
         <v>9.4775012361958133</v>
       </c>
-      <c r="N82" s="3">
+      <c r="N82" s="9">
         <v>105.73740345715338</v>
       </c>
-      <c r="O82" s="3">
+      <c r="O82" s="9">
         <v>1.6550202280250093</v>
       </c>
       <c r="P82" s="8">
         <v>211</v>
       </c>
-      <c r="Q82" s="6">
+      <c r="Q82" s="11">
         <v>-10</v>
       </c>
       <c r="R82" s="8">
@@ -4624,55 +4624,55 @@
       <c r="A83" s="2" t="d">
         <v>2020-04-14</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="8">
         <v>26497</v>
       </c>
-      <c r="C83">
+      <c r="C83" s="8">
         <v>6358</v>
       </c>
-      <c r="D83">
+      <c r="D83" s="8">
         <v>32855</v>
       </c>
-      <c r="E83">
+      <c r="E83" s="8">
         <v>1042</v>
       </c>
-      <c r="F83">
+      <c r="F83" s="8">
         <v>291</v>
       </c>
-      <c r="G83">
+      <c r="G83" s="8">
         <v>1.8774193548387097</v>
       </c>
-      <c r="H83">
+      <c r="H83" s="8">
         <v>6041.7432879735197</v>
       </c>
-      <c r="I83">
+      <c r="I83" s="8">
         <v>0.27927063339731284</v>
       </c>
-      <c r="J83">
+      <c r="J83" s="8">
         <v>23.995169264445032</v>
       </c>
-      <c r="K83">
+      <c r="K83" s="8">
         <v>40</v>
       </c>
-      <c r="L83">
+      <c r="L83" s="8">
         <v>615</v>
       </c>
-      <c r="M83">
+      <c r="M83" s="8">
         <v>9.6728530984586349</v>
       </c>
-      <c r="N83">
+      <c r="N83" s="8">
         <v>113.0930489150423</v>
       </c>
-      <c r="O83">
+      <c r="O83" s="8">
         <v>7.3556454578889303</v>
       </c>
-      <c r="P83">
+      <c r="P83" s="8">
         <v>196</v>
       </c>
-      <c r="Q83">
+      <c r="Q83" s="8">
         <v>-15</v>
       </c>
-      <c r="R83">
+      <c r="R83" s="8">
         <v>1798</v>
       </c>
       <c r="S83">
@@ -4689,55 +4689,55 @@
       <c r="A84" s="2" t="d">
         <v>2020-04-15</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="8">
         <v>27316</v>
       </c>
-      <c r="C84">
+      <c r="C84" s="8">
         <v>6748</v>
       </c>
-      <c r="D84">
+      <c r="D84" s="8">
         <v>34064</v>
       </c>
-      <c r="E84">
+      <c r="E84" s="8">
         <v>1209</v>
       </c>
-      <c r="F84">
+      <c r="F84" s="8">
         <v>390</v>
       </c>
-      <c r="G84">
+      <c r="G84" s="8">
         <v>1.3402061855670102</v>
       </c>
-      <c r="H84">
+      <c r="H84" s="8">
         <v>6264.0676719382127</v>
       </c>
-      <c r="I84">
+      <c r="I84" s="8">
         <v>0.32258064516129031</v>
       </c>
-      <c r="J84">
+      <c r="J84" s="8">
         <v>24.703470493483675</v>
       </c>
-      <c r="K84">
+      <c r="K84" s="8">
         <v>84</v>
       </c>
-      <c r="L84">
+      <c r="L84" s="8">
         <v>699</v>
       </c>
-      <c r="M84">
+      <c r="M84" s="8">
         <v>10.358624777711915</v>
       </c>
-      <c r="N84">
+      <c r="N84" s="8">
         <v>128.53990437660906</v>
       </c>
-      <c r="O84">
+      <c r="O84" s="8">
         <v>15.446855461566754</v>
       </c>
-      <c r="P84">
+      <c r="P84" s="8">
         <v>195</v>
       </c>
-      <c r="Q84">
+      <c r="Q84" s="8">
         <v>-1</v>
       </c>
-      <c r="R84">
+      <c r="R84" s="8">
         <v>1748</v>
       </c>
       <c r="S84">
@@ -4760,74 +4760,154 @@
       <c r="C85" s="8">
         <v>7102</v>
       </c>
-      <c r="D85">
-        <f t="shared" ref="D85" si="0">B85+C85</f>
+      <c r="D85" s="8">
+        <f t="shared" ref="D85:D86" si="0">B85+C85</f>
         <v>35392</v>
       </c>
-      <c r="E85">
-        <f t="shared" ref="E85" si="1">D85-D84</f>
+      <c r="E85" s="8">
+        <f t="shared" ref="E85:E86" si="1">D85-D84</f>
         <v>1328</v>
       </c>
-      <c r="F85">
-        <f t="shared" ref="F85" si="2">C85-C84</f>
+      <c r="F85" s="8">
+        <f t="shared" ref="F85:F86" si="2">C85-C84</f>
         <v>354</v>
       </c>
-      <c r="G85" s="3">
-        <f t="shared" ref="G85" si="3">F85/F84</f>
+      <c r="G85" s="9">
+        <f t="shared" ref="G85:G86" si="3">F85/F84</f>
         <v>0.90769230769230769</v>
       </c>
-      <c r="H85" s="3">
-        <f t="shared" ref="H85" si="4">D85/5.438</f>
+      <c r="H85" s="9">
+        <f t="shared" ref="H85:H86" si="4">D85/5.438</f>
         <v>6508.2751011401251</v>
       </c>
-      <c r="I85" s="4">
-        <f t="shared" ref="I85" si="5">F85/E85</f>
+      <c r="I85" s="10">
+        <f t="shared" ref="I85:I86" si="5">F85/E85</f>
         <v>0.26656626506024095</v>
       </c>
-      <c r="J85" s="3">
-        <f t="shared" ref="J85" si="6">(C85/B85)*100</f>
+      <c r="J85" s="9">
+        <f t="shared" ref="J85:J86" si="6">(C85/B85)*100</f>
         <v>25.104277129727819</v>
       </c>
-      <c r="K85">
-        <f t="shared" ref="K85" si="7">L85-L84</f>
+      <c r="K85" s="8">
+        <f t="shared" ref="K85:K86" si="7">L85-L84</f>
         <v>80</v>
       </c>
       <c r="L85" s="8">
         <v>779</v>
       </c>
-      <c r="M85" s="3">
+      <c r="M85" s="9">
         <f>(L85/C85)*100</f>
         <v>10.968741199662068</v>
       </c>
-      <c r="N85" s="3">
-        <f t="shared" ref="N85" si="8">L85/5.438</f>
+      <c r="N85" s="9">
+        <f t="shared" ref="N85:N86" si="8">L85/5.438</f>
         <v>143.25119529238691</v>
       </c>
-      <c r="O85" s="3">
-        <f t="shared" ref="O85" si="9">K85/5.438</f>
+      <c r="O85" s="9">
+        <f t="shared" ref="O85:O86" si="9">K85/5.438</f>
         <v>14.711290915777861</v>
       </c>
       <c r="P85" s="8">
         <v>196</v>
       </c>
-      <c r="Q85" s="6">
-        <f t="shared" ref="Q85" si="10">P85-P84</f>
+      <c r="Q85" s="11">
+        <f t="shared" ref="Q85:Q86" si="10">P85-P84</f>
         <v>1</v>
       </c>
       <c r="R85" s="8">
         <v>1799</v>
       </c>
       <c r="S85" s="6">
-        <f t="shared" ref="S85" si="11">R85-R84</f>
+        <f t="shared" ref="S85:S86" si="11">R85-R84</f>
         <v>51</v>
       </c>
       <c r="T85" s="3">
-        <f t="shared" ref="T85" si="12">(P85/R85)*100</f>
+        <f t="shared" ref="T85:T86" si="12">(P85/R85)*100</f>
         <v>10.894941634241246</v>
       </c>
       <c r="U85">
         <f>(R85/C85)*100</f>
         <v>25.330892706279922</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="d">
+        <v>2020-04-17</v>
+      </c>
+      <c r="B86" s="8">
+        <v>29228</v>
+      </c>
+      <c r="C86" s="8">
+        <v>7409</v>
+      </c>
+      <c r="D86" s="8">
+        <f t="shared" si="0"/>
+        <v>36637</v>
+      </c>
+      <c r="E86" s="8">
+        <f t="shared" si="1"/>
+        <v>1245</v>
+      </c>
+      <c r="F86" s="8">
+        <f t="shared" si="2"/>
+        <v>307</v>
+      </c>
+      <c r="G86" s="9">
+        <f t="shared" si="3"/>
+        <v>0.86723163841807904</v>
+      </c>
+      <c r="H86" s="9">
+        <f t="shared" si="4"/>
+        <v>6737.2195660169182</v>
+      </c>
+      <c r="I86" s="10">
+        <f t="shared" si="5"/>
+        <v>0.2465863453815261</v>
+      </c>
+      <c r="J86" s="9">
+        <f t="shared" si="6"/>
+        <v>25.348980429724921</v>
+      </c>
+      <c r="K86" s="8">
+        <f t="shared" si="7"/>
+        <v>58</v>
+      </c>
+      <c r="L86" s="8">
+        <v>837</v>
+      </c>
+      <c r="M86" s="9">
+        <f t="shared" ref="M86" si="13">(L86/C86)*100</f>
+        <v>11.297071129707113</v>
+      </c>
+      <c r="N86" s="9">
+        <f t="shared" si="8"/>
+        <v>153.91688120632585</v>
+      </c>
+      <c r="O86" s="9">
+        <f t="shared" si="9"/>
+        <v>10.665685913938949</v>
+      </c>
+      <c r="P86" s="8">
+        <v>189</v>
+      </c>
+      <c r="Q86" s="11">
+        <f t="shared" si="10"/>
+        <v>-7</v>
+      </c>
+      <c r="R86" s="8">
+        <v>1799</v>
+      </c>
+      <c r="S86" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="T86" s="3">
+        <f t="shared" si="12"/>
+        <v>10.505836575875486</v>
+      </c>
+      <c r="U86">
+        <f t="shared" ref="U86" si="14">(R86/C86)*100</f>
+        <v>24.281279524902146</v>
       </c>
     </row>
   </sheetData>

--- a/scot_covid.xlsx
+++ b/scot_covid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PGR3\Desktop\WB\Data\Covid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{5A00DEAA-B4EB-4CC2-AA64-1D60BA43E06C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{49C575BE-79B1-4435-B264-6D08F139AB9F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -482,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U86"/>
+  <dimension ref="A1:U87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="B87" sqref="B87"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="F93" sqref="F93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4761,35 +4761,35 @@
         <v>7102</v>
       </c>
       <c r="D85" s="8">
-        <f t="shared" ref="D85:D86" si="0">B85+C85</f>
+        <f t="shared" ref="D85:D87" si="0">B85+C85</f>
         <v>35392</v>
       </c>
       <c r="E85" s="8">
-        <f t="shared" ref="E85:E86" si="1">D85-D84</f>
+        <f t="shared" ref="E85:E87" si="1">D85-D84</f>
         <v>1328</v>
       </c>
       <c r="F85" s="8">
-        <f t="shared" ref="F85:F86" si="2">C85-C84</f>
+        <f t="shared" ref="F85:F87" si="2">C85-C84</f>
         <v>354</v>
       </c>
       <c r="G85" s="9">
-        <f t="shared" ref="G85:G86" si="3">F85/F84</f>
+        <f t="shared" ref="G85:G87" si="3">F85/F84</f>
         <v>0.90769230769230769</v>
       </c>
       <c r="H85" s="9">
-        <f t="shared" ref="H85:H86" si="4">D85/5.438</f>
+        <f t="shared" ref="H85:H87" si="4">D85/5.438</f>
         <v>6508.2751011401251</v>
       </c>
       <c r="I85" s="10">
-        <f t="shared" ref="I85:I86" si="5">F85/E85</f>
+        <f t="shared" ref="I85:I87" si="5">F85/E85</f>
         <v>0.26656626506024095</v>
       </c>
       <c r="J85" s="9">
-        <f t="shared" ref="J85:J86" si="6">(C85/B85)*100</f>
+        <f t="shared" ref="J85:J87" si="6">(C85/B85)*100</f>
         <v>25.104277129727819</v>
       </c>
       <c r="K85" s="8">
-        <f t="shared" ref="K85:K86" si="7">L85-L84</f>
+        <f t="shared" ref="K85:K87" si="7">L85-L84</f>
         <v>80</v>
       </c>
       <c r="L85" s="8">
@@ -4800,29 +4800,29 @@
         <v>10.968741199662068</v>
       </c>
       <c r="N85" s="9">
-        <f t="shared" ref="N85:N86" si="8">L85/5.438</f>
+        <f t="shared" ref="N85:N87" si="8">L85/5.438</f>
         <v>143.25119529238691</v>
       </c>
       <c r="O85" s="9">
-        <f t="shared" ref="O85:O86" si="9">K85/5.438</f>
+        <f t="shared" ref="O85:O87" si="9">K85/5.438</f>
         <v>14.711290915777861</v>
       </c>
       <c r="P85" s="8">
         <v>196</v>
       </c>
       <c r="Q85" s="11">
-        <f t="shared" ref="Q85:Q86" si="10">P85-P84</f>
+        <f t="shared" ref="Q85:Q87" si="10">P85-P84</f>
         <v>1</v>
       </c>
       <c r="R85" s="8">
         <v>1799</v>
       </c>
       <c r="S85" s="6">
-        <f t="shared" ref="S85:S86" si="11">R85-R84</f>
+        <f t="shared" ref="S85:S87" si="11">R85-R84</f>
         <v>51</v>
       </c>
       <c r="T85" s="3">
-        <f t="shared" ref="T85:T86" si="12">(P85/R85)*100</f>
+        <f t="shared" ref="T85:T87" si="12">(P85/R85)*100</f>
         <v>10.894941634241246</v>
       </c>
       <c r="U85">
@@ -4876,7 +4876,7 @@
         <v>837</v>
       </c>
       <c r="M86" s="9">
-        <f t="shared" ref="M86" si="13">(L86/C86)*100</f>
+        <f t="shared" ref="M86:M87" si="13">(L86/C86)*100</f>
         <v>11.297071129707113</v>
       </c>
       <c r="N86" s="9">
@@ -4906,8 +4906,88 @@
         <v>10.505836575875486</v>
       </c>
       <c r="U86">
-        <f t="shared" ref="U86" si="14">(R86/C86)*100</f>
+        <f t="shared" ref="U86:U87" si="14">(R86/C86)*100</f>
         <v>24.281279524902146</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="d">
+        <v>2020-04-18</v>
+      </c>
+      <c r="B87" s="8">
+        <v>30413</v>
+      </c>
+      <c r="C87" s="8">
+        <v>7820</v>
+      </c>
+      <c r="D87" s="8">
+        <f t="shared" si="0"/>
+        <v>38233</v>
+      </c>
+      <c r="E87" s="8">
+        <f t="shared" si="1"/>
+        <v>1596</v>
+      </c>
+      <c r="F87" s="8">
+        <f t="shared" si="2"/>
+        <v>411</v>
+      </c>
+      <c r="G87" s="9">
+        <f t="shared" si="3"/>
+        <v>1.3387622149837133</v>
+      </c>
+      <c r="H87" s="9">
+        <f t="shared" si="4"/>
+        <v>7030.7098197866862</v>
+      </c>
+      <c r="I87" s="10">
+        <f t="shared" si="5"/>
+        <v>0.2575187969924812</v>
+      </c>
+      <c r="J87" s="9">
+        <f t="shared" si="6"/>
+        <v>25.7126886528787</v>
+      </c>
+      <c r="K87" s="8">
+        <f t="shared" si="7"/>
+        <v>56</v>
+      </c>
+      <c r="L87" s="8">
+        <v>893</v>
+      </c>
+      <c r="M87" s="9">
+        <f t="shared" si="13"/>
+        <v>11.419437340153452</v>
+      </c>
+      <c r="N87" s="9">
+        <f t="shared" si="8"/>
+        <v>164.21478484737037</v>
+      </c>
+      <c r="O87" s="9">
+        <f t="shared" si="9"/>
+        <v>10.297903641044503</v>
+      </c>
+      <c r="P87" s="8">
+        <v>182</v>
+      </c>
+      <c r="Q87" s="11">
+        <f t="shared" si="10"/>
+        <v>-7</v>
+      </c>
+      <c r="R87" s="8">
+        <v>1793</v>
+      </c>
+      <c r="S87" s="11">
+        <f t="shared" si="11"/>
+        <v>-6</v>
+      </c>
+      <c r="T87" s="9">
+        <f t="shared" si="12"/>
+        <v>10.15058561070831</v>
+      </c>
+      <c r="U87">
+        <f t="shared" si="14"/>
+        <v>22.928388746803069</v>
       </c>
     </row>
   </sheetData>

--- a/scot_covid.xlsx
+++ b/scot_covid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PGR3\Desktop\WB\Data\Covid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{49C575BE-79B1-4435-B264-6D08F139AB9F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{C1DBA091-36AA-444E-B362-260768F3355B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -482,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U87"/>
+  <dimension ref="A1:U88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="F93" sqref="F93"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="H93" sqref="H93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4761,35 +4761,35 @@
         <v>7102</v>
       </c>
       <c r="D85" s="8">
-        <f t="shared" ref="D85:D87" si="0">B85+C85</f>
+        <f t="shared" ref="D85:D88" si="0">B85+C85</f>
         <v>35392</v>
       </c>
       <c r="E85" s="8">
-        <f t="shared" ref="E85:E87" si="1">D85-D84</f>
+        <f t="shared" ref="E85:E88" si="1">D85-D84</f>
         <v>1328</v>
       </c>
       <c r="F85" s="8">
-        <f t="shared" ref="F85:F87" si="2">C85-C84</f>
+        <f t="shared" ref="F85:F88" si="2">C85-C84</f>
         <v>354</v>
       </c>
       <c r="G85" s="9">
-        <f t="shared" ref="G85:G87" si="3">F85/F84</f>
+        <f t="shared" ref="G85:G88" si="3">F85/F84</f>
         <v>0.90769230769230769</v>
       </c>
       <c r="H85" s="9">
-        <f t="shared" ref="H85:H87" si="4">D85/5.438</f>
+        <f t="shared" ref="H85:H88" si="4">D85/5.438</f>
         <v>6508.2751011401251</v>
       </c>
       <c r="I85" s="10">
-        <f t="shared" ref="I85:I87" si="5">F85/E85</f>
+        <f t="shared" ref="I85:I88" si="5">F85/E85</f>
         <v>0.26656626506024095</v>
       </c>
       <c r="J85" s="9">
-        <f t="shared" ref="J85:J87" si="6">(C85/B85)*100</f>
+        <f t="shared" ref="J85:J88" si="6">(C85/B85)*100</f>
         <v>25.104277129727819</v>
       </c>
       <c r="K85" s="8">
-        <f t="shared" ref="K85:K87" si="7">L85-L84</f>
+        <f t="shared" ref="K85:K88" si="7">L85-L84</f>
         <v>80</v>
       </c>
       <c r="L85" s="8">
@@ -4800,29 +4800,29 @@
         <v>10.968741199662068</v>
       </c>
       <c r="N85" s="9">
-        <f t="shared" ref="N85:N87" si="8">L85/5.438</f>
+        <f t="shared" ref="N85:N88" si="8">L85/5.438</f>
         <v>143.25119529238691</v>
       </c>
       <c r="O85" s="9">
-        <f t="shared" ref="O85:O87" si="9">K85/5.438</f>
+        <f t="shared" ref="O85:O88" si="9">K85/5.438</f>
         <v>14.711290915777861</v>
       </c>
       <c r="P85" s="8">
         <v>196</v>
       </c>
       <c r="Q85" s="11">
-        <f t="shared" ref="Q85:Q87" si="10">P85-P84</f>
+        <f t="shared" ref="Q85:Q88" si="10">P85-P84</f>
         <v>1</v>
       </c>
       <c r="R85" s="8">
         <v>1799</v>
       </c>
       <c r="S85" s="6">
-        <f t="shared" ref="S85:S87" si="11">R85-R84</f>
+        <f t="shared" ref="S85:S88" si="11">R85-R84</f>
         <v>51</v>
       </c>
       <c r="T85" s="3">
-        <f t="shared" ref="T85:T87" si="12">(P85/R85)*100</f>
+        <f t="shared" ref="T85:T88" si="12">(P85/R85)*100</f>
         <v>10.894941634241246</v>
       </c>
       <c r="U85">
@@ -4876,7 +4876,7 @@
         <v>837</v>
       </c>
       <c r="M86" s="9">
-        <f t="shared" ref="M86:M87" si="13">(L86/C86)*100</f>
+        <f t="shared" ref="M86:M88" si="13">(L86/C86)*100</f>
         <v>11.297071129707113</v>
       </c>
       <c r="N86" s="9">
@@ -4906,7 +4906,7 @@
         <v>10.505836575875486</v>
       </c>
       <c r="U86">
-        <f t="shared" ref="U86:U87" si="14">(R86/C86)*100</f>
+        <f t="shared" ref="U86:U88" si="14">(R86/C86)*100</f>
         <v>24.281279524902146</v>
       </c>
     </row>
@@ -4988,6 +4988,86 @@
       <c r="U87">
         <f t="shared" si="14"/>
         <v>22.928388746803069</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="d">
+        <v>2020-04-19</v>
+      </c>
+      <c r="B88" s="8">
+        <v>31425</v>
+      </c>
+      <c r="C88" s="8">
+        <v>8187</v>
+      </c>
+      <c r="D88" s="8">
+        <f t="shared" si="0"/>
+        <v>39612</v>
+      </c>
+      <c r="E88" s="8">
+        <f t="shared" si="1"/>
+        <v>1379</v>
+      </c>
+      <c r="F88" s="8">
+        <f t="shared" si="2"/>
+        <v>367</v>
+      </c>
+      <c r="G88" s="9">
+        <f t="shared" si="3"/>
+        <v>0.89294403892944041</v>
+      </c>
+      <c r="H88" s="9">
+        <f t="shared" si="4"/>
+        <v>7284.2956969474071</v>
+      </c>
+      <c r="I88" s="10">
+        <f t="shared" si="5"/>
+        <v>0.26613488034807831</v>
+      </c>
+      <c r="J88" s="9">
+        <f t="shared" si="6"/>
+        <v>26.052505966587113</v>
+      </c>
+      <c r="K88" s="8">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="L88" s="8">
+        <v>903</v>
+      </c>
+      <c r="M88" s="9">
+        <f t="shared" si="13"/>
+        <v>11.02968120190546</v>
+      </c>
+      <c r="N88" s="9">
+        <f t="shared" si="8"/>
+        <v>166.05369621184261</v>
+      </c>
+      <c r="O88" s="9">
+        <f t="shared" si="9"/>
+        <v>1.8389113644722326</v>
+      </c>
+      <c r="P88" s="8">
+        <v>174</v>
+      </c>
+      <c r="Q88" s="11">
+        <f t="shared" si="10"/>
+        <v>-8</v>
+      </c>
+      <c r="R88" s="8">
+        <v>1797</v>
+      </c>
+      <c r="S88" s="6">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="T88" s="3">
+        <f t="shared" si="12"/>
+        <v>9.6828046744574294</v>
+      </c>
+      <c r="U88">
+        <f t="shared" si="14"/>
+        <v>21.949432026383288</v>
       </c>
     </row>
   </sheetData>

--- a/scot_covid.xlsx
+++ b/scot_covid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PGR3\Desktop\WB\Data\Covid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{C1DBA091-36AA-444E-B362-260768F3355B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{84AEFEBF-9BF8-4B8A-9937-67BBA69BD922}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -482,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U88"/>
+  <dimension ref="A1:U89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="H93" sqref="H93"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="D92" sqref="D92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5070,6 +5070,71 @@
         <v>21.949432026383288</v>
       </c>
     </row>
+    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="d">
+        <v>2020-04-20</v>
+      </c>
+      <c r="B89">
+        <v>32250</v>
+      </c>
+      <c r="C89">
+        <v>8450</v>
+      </c>
+      <c r="D89">
+        <v>40700</v>
+      </c>
+      <c r="E89">
+        <v>1088</v>
+      </c>
+      <c r="F89">
+        <v>263</v>
+      </c>
+      <c r="G89">
+        <v>0.71662125340599458</v>
+      </c>
+      <c r="H89">
+        <v>7484.3692534019865</v>
+      </c>
+      <c r="I89">
+        <v>0.24172794117647059</v>
+      </c>
+      <c r="J89">
+        <v>26.2015503875969</v>
+      </c>
+      <c r="K89">
+        <v>12</v>
+      </c>
+      <c r="L89">
+        <v>915</v>
+      </c>
+      <c r="M89">
+        <v>10.828402366863905</v>
+      </c>
+      <c r="N89">
+        <v>168.26038984920928</v>
+      </c>
+      <c r="O89">
+        <v>2.206693637366679</v>
+      </c>
+      <c r="P89">
+        <v>169</v>
+      </c>
+      <c r="Q89">
+        <v>-5</v>
+      </c>
+      <c r="R89">
+        <v>1809</v>
+      </c>
+      <c r="S89">
+        <v>12</v>
+      </c>
+      <c r="T89">
+        <v>9.3421779988944174</v>
+      </c>
+      <c r="U89">
+        <v>21.408284023668639</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/scot_covid.xlsx
+++ b/scot_covid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PGR3\Desktop\WB\Data\Covid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{84AEFEBF-9BF8-4B8A-9937-67BBA69BD922}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{A21E6661-94A2-4679-8F4D-B5C75DAC7CEA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -482,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U89"/>
+  <dimension ref="A1:U90"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="D92" sqref="D92"/>
+      <selection activeCell="A89" sqref="A89:A90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5135,6 +5135,71 @@
         <v>21.408284023668639</v>
       </c>
     </row>
+    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="d">
+        <v>2020-04-21</v>
+      </c>
+      <c r="B90">
+        <v>33027</v>
+      </c>
+      <c r="C90">
+        <v>8672</v>
+      </c>
+      <c r="D90">
+        <v>41699</v>
+      </c>
+      <c r="E90">
+        <v>999</v>
+      </c>
+      <c r="F90">
+        <v>222</v>
+      </c>
+      <c r="G90">
+        <v>0.844106463878327</v>
+      </c>
+      <c r="H90">
+        <v>7668.0764987127623</v>
+      </c>
+      <c r="I90">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="J90">
+        <v>26.257304629545526</v>
+      </c>
+      <c r="K90">
+        <v>70</v>
+      </c>
+      <c r="L90">
+        <v>985</v>
+      </c>
+      <c r="M90">
+        <v>11.358394833948338</v>
+      </c>
+      <c r="N90">
+        <v>181.13276940051492</v>
+      </c>
+      <c r="O90">
+        <v>12.872379551305627</v>
+      </c>
+      <c r="P90">
+        <v>166</v>
+      </c>
+      <c r="Q90">
+        <v>-3</v>
+      </c>
+      <c r="R90">
+        <v>1866</v>
+      </c>
+      <c r="S90">
+        <v>57</v>
+      </c>
+      <c r="T90">
+        <v>8.896034297963558</v>
+      </c>
+      <c r="U90">
+        <v>21.517527675276753</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/scot_covid.xlsx
+++ b/scot_covid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PGR3\Desktop\WB\Data\Covid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{A21E6661-94A2-4679-8F4D-B5C75DAC7CEA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{8EDC714E-62A8-4206-BF19-C6B762075BBC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -482,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U90"/>
+  <dimension ref="A1:U91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="A89" sqref="A89:A90"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="B93" sqref="B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5200,6 +5200,71 @@
         <v>21.517527675276753</v>
       </c>
     </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="d">
+        <v>2020-04-22</v>
+      </c>
+      <c r="B91">
+        <v>34271</v>
+      </c>
+      <c r="C91">
+        <v>9038</v>
+      </c>
+      <c r="D91">
+        <v>43309</v>
+      </c>
+      <c r="E91">
+        <v>1610</v>
+      </c>
+      <c r="F91">
+        <v>366</v>
+      </c>
+      <c r="G91">
+        <v>1.6486486486486487</v>
+      </c>
+      <c r="H91">
+        <v>7964.1412283927921</v>
+      </c>
+      <c r="I91">
+        <v>0.22732919254658385</v>
+      </c>
+      <c r="J91">
+        <v>26.372151381634616</v>
+      </c>
+      <c r="K91">
+        <v>77</v>
+      </c>
+      <c r="L91">
+        <v>1062</v>
+      </c>
+      <c r="M91">
+        <v>11.750387253817216</v>
+      </c>
+      <c r="N91">
+        <v>195.29238690695109</v>
+      </c>
+      <c r="O91">
+        <v>14.15961750643619</v>
+      </c>
+      <c r="P91">
+        <v>155</v>
+      </c>
+      <c r="Q91">
+        <v>-11</v>
+      </c>
+      <c r="R91">
+        <v>1776</v>
+      </c>
+      <c r="S91">
+        <v>-90</v>
+      </c>
+      <c r="T91">
+        <v>8.7274774774774766</v>
+      </c>
+      <c r="U91">
+        <v>19.650365125027662</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/scot_covid.xlsx
+++ b/scot_covid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PGR3\Desktop\WB\Data\Covid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{8EDC714E-62A8-4206-BF19-C6B762075BBC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{6F22D448-B5C1-4884-83B1-8A27E383EAD4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -131,12 +131,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -151,7 +157,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -162,6 +168,7 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -482,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U91"/>
+  <dimension ref="A1:U92"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="B93" sqref="B93"/>
+      <selection activeCell="A91" sqref="A91:A92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4559,55 +4566,55 @@
       <c r="A82" s="2" t="d">
         <v>2020-04-13</v>
       </c>
-      <c r="B82" s="8">
+      <c r="B82" s="9">
         <v>25746</v>
       </c>
-      <c r="C82" s="8">
+      <c r="C82" s="9">
         <v>6067</v>
       </c>
-      <c r="D82" s="8">
+      <c r="D82" s="9">
         <v>31813</v>
       </c>
-      <c r="E82" s="8">
+      <c r="E82" s="9">
         <v>699</v>
       </c>
-      <c r="F82" s="8">
+      <c r="F82" s="9">
         <v>155</v>
       </c>
-      <c r="G82" s="9">
+      <c r="G82" s="10">
         <v>0.48136645962732921</v>
       </c>
-      <c r="H82" s="9">
+      <c r="H82" s="10">
         <v>5850.128723795513</v>
       </c>
-      <c r="I82" s="10">
+      <c r="I82" s="11">
         <v>0.22174535050071531</v>
       </c>
-      <c r="J82" s="9">
+      <c r="J82" s="10">
         <v>23.564825603977315</v>
       </c>
-      <c r="K82" s="8">
+      <c r="K82" s="9">
         <v>9</v>
       </c>
-      <c r="L82" s="8">
+      <c r="L82" s="9">
         <v>575</v>
       </c>
-      <c r="M82" s="9">
+      <c r="M82" s="10">
         <v>9.4775012361958133</v>
       </c>
-      <c r="N82" s="9">
+      <c r="N82" s="10">
         <v>105.73740345715338</v>
       </c>
-      <c r="O82" s="9">
+      <c r="O82" s="10">
         <v>1.6550202280250093</v>
       </c>
-      <c r="P82" s="8">
+      <c r="P82" s="9">
         <v>211</v>
       </c>
-      <c r="Q82" s="11">
+      <c r="Q82" s="12">
         <v>-10</v>
       </c>
-      <c r="R82" s="8">
+      <c r="R82" s="9">
         <v>1797</v>
       </c>
       <c r="S82" s="6">
@@ -4624,55 +4631,55 @@
       <c r="A83" s="2" t="d">
         <v>2020-04-14</v>
       </c>
-      <c r="B83" s="8">
+      <c r="B83" s="9">
         <v>26497</v>
       </c>
-      <c r="C83" s="8">
+      <c r="C83" s="9">
         <v>6358</v>
       </c>
-      <c r="D83" s="8">
+      <c r="D83" s="9">
         <v>32855</v>
       </c>
-      <c r="E83" s="8">
+      <c r="E83" s="9">
         <v>1042</v>
       </c>
-      <c r="F83" s="8">
+      <c r="F83" s="9">
         <v>291</v>
       </c>
-      <c r="G83" s="8">
+      <c r="G83" s="9">
         <v>1.8774193548387097</v>
       </c>
-      <c r="H83" s="8">
+      <c r="H83" s="9">
         <v>6041.7432879735197</v>
       </c>
-      <c r="I83" s="8">
+      <c r="I83" s="9">
         <v>0.27927063339731284</v>
       </c>
-      <c r="J83" s="8">
+      <c r="J83" s="9">
         <v>23.995169264445032</v>
       </c>
-      <c r="K83" s="8">
+      <c r="K83" s="9">
         <v>40</v>
       </c>
-      <c r="L83" s="8">
+      <c r="L83" s="9">
         <v>615</v>
       </c>
-      <c r="M83" s="8">
+      <c r="M83" s="9">
         <v>9.6728530984586349</v>
       </c>
-      <c r="N83" s="8">
+      <c r="N83" s="9">
         <v>113.0930489150423</v>
       </c>
-      <c r="O83" s="8">
+      <c r="O83" s="9">
         <v>7.3556454578889303</v>
       </c>
-      <c r="P83" s="8">
+      <c r="P83" s="9">
         <v>196</v>
       </c>
-      <c r="Q83" s="8">
+      <c r="Q83" s="9">
         <v>-15</v>
       </c>
-      <c r="R83" s="8">
+      <c r="R83" s="9">
         <v>1798</v>
       </c>
       <c r="S83">
@@ -4689,55 +4696,55 @@
       <c r="A84" s="2" t="d">
         <v>2020-04-15</v>
       </c>
-      <c r="B84" s="8">
+      <c r="B84" s="9">
         <v>27316</v>
       </c>
-      <c r="C84" s="8">
+      <c r="C84" s="9">
         <v>6748</v>
       </c>
-      <c r="D84" s="8">
+      <c r="D84" s="9">
         <v>34064</v>
       </c>
-      <c r="E84" s="8">
+      <c r="E84" s="9">
         <v>1209</v>
       </c>
-      <c r="F84" s="8">
+      <c r="F84" s="9">
         <v>390</v>
       </c>
-      <c r="G84" s="8">
+      <c r="G84" s="9">
         <v>1.3402061855670102</v>
       </c>
-      <c r="H84" s="8">
+      <c r="H84" s="9">
         <v>6264.0676719382127</v>
       </c>
-      <c r="I84" s="8">
+      <c r="I84" s="9">
         <v>0.32258064516129031</v>
       </c>
-      <c r="J84" s="8">
+      <c r="J84" s="9">
         <v>24.703470493483675</v>
       </c>
-      <c r="K84" s="8">
+      <c r="K84" s="9">
         <v>84</v>
       </c>
-      <c r="L84" s="8">
+      <c r="L84" s="9">
         <v>699</v>
       </c>
-      <c r="M84" s="8">
+      <c r="M84" s="9">
         <v>10.358624777711915</v>
       </c>
-      <c r="N84" s="8">
+      <c r="N84" s="9">
         <v>128.53990437660906</v>
       </c>
-      <c r="O84" s="8">
+      <c r="O84" s="9">
         <v>15.446855461566754</v>
       </c>
-      <c r="P84" s="8">
+      <c r="P84" s="9">
         <v>195</v>
       </c>
-      <c r="Q84" s="8">
+      <c r="Q84" s="9">
         <v>-1</v>
       </c>
-      <c r="R84" s="8">
+      <c r="R84" s="9">
         <v>1748</v>
       </c>
       <c r="S84">
@@ -4754,67 +4761,67 @@
       <c r="A85" s="2" t="d">
         <v>2020-04-16</v>
       </c>
-      <c r="B85" s="8">
+      <c r="B85" s="9">
         <v>28290</v>
       </c>
-      <c r="C85" s="8">
+      <c r="C85" s="9">
         <v>7102</v>
       </c>
-      <c r="D85" s="8">
+      <c r="D85" s="9">
         <f t="shared" ref="D85:D88" si="0">B85+C85</f>
         <v>35392</v>
       </c>
-      <c r="E85" s="8">
+      <c r="E85" s="9">
         <f t="shared" ref="E85:E88" si="1">D85-D84</f>
         <v>1328</v>
       </c>
-      <c r="F85" s="8">
+      <c r="F85" s="9">
         <f t="shared" ref="F85:F88" si="2">C85-C84</f>
         <v>354</v>
       </c>
-      <c r="G85" s="9">
+      <c r="G85" s="10">
         <f t="shared" ref="G85:G88" si="3">F85/F84</f>
         <v>0.90769230769230769</v>
       </c>
-      <c r="H85" s="9">
+      <c r="H85" s="10">
         <f t="shared" ref="H85:H88" si="4">D85/5.438</f>
         <v>6508.2751011401251</v>
       </c>
-      <c r="I85" s="10">
+      <c r="I85" s="11">
         <f t="shared" ref="I85:I88" si="5">F85/E85</f>
         <v>0.26656626506024095</v>
       </c>
-      <c r="J85" s="9">
+      <c r="J85" s="10">
         <f t="shared" ref="J85:J88" si="6">(C85/B85)*100</f>
         <v>25.104277129727819</v>
       </c>
-      <c r="K85" s="8">
+      <c r="K85" s="9">
         <f t="shared" ref="K85:K88" si="7">L85-L84</f>
         <v>80</v>
       </c>
-      <c r="L85" s="8">
+      <c r="L85" s="9">
         <v>779</v>
       </c>
-      <c r="M85" s="9">
+      <c r="M85" s="10">
         <f>(L85/C85)*100</f>
         <v>10.968741199662068</v>
       </c>
-      <c r="N85" s="9">
+      <c r="N85" s="10">
         <f t="shared" ref="N85:N88" si="8">L85/5.438</f>
         <v>143.25119529238691</v>
       </c>
-      <c r="O85" s="9">
+      <c r="O85" s="10">
         <f t="shared" ref="O85:O88" si="9">K85/5.438</f>
         <v>14.711290915777861</v>
       </c>
-      <c r="P85" s="8">
+      <c r="P85" s="9">
         <v>196</v>
       </c>
-      <c r="Q85" s="11">
+      <c r="Q85" s="12">
         <f t="shared" ref="Q85:Q88" si="10">P85-P84</f>
         <v>1</v>
       </c>
-      <c r="R85" s="8">
+      <c r="R85" s="9">
         <v>1799</v>
       </c>
       <c r="S85" s="6">
@@ -4834,67 +4841,67 @@
       <c r="A86" s="2" t="d">
         <v>2020-04-17</v>
       </c>
-      <c r="B86" s="8">
+      <c r="B86" s="9">
         <v>29228</v>
       </c>
-      <c r="C86" s="8">
+      <c r="C86" s="9">
         <v>7409</v>
       </c>
-      <c r="D86" s="8">
+      <c r="D86" s="9">
         <f t="shared" si="0"/>
         <v>36637</v>
       </c>
-      <c r="E86" s="8">
+      <c r="E86" s="9">
         <f t="shared" si="1"/>
         <v>1245</v>
       </c>
-      <c r="F86" s="8">
+      <c r="F86" s="9">
         <f t="shared" si="2"/>
         <v>307</v>
       </c>
-      <c r="G86" s="9">
+      <c r="G86" s="10">
         <f t="shared" si="3"/>
         <v>0.86723163841807904</v>
       </c>
-      <c r="H86" s="9">
+      <c r="H86" s="10">
         <f t="shared" si="4"/>
         <v>6737.2195660169182</v>
       </c>
-      <c r="I86" s="10">
+      <c r="I86" s="11">
         <f t="shared" si="5"/>
         <v>0.2465863453815261</v>
       </c>
-      <c r="J86" s="9">
+      <c r="J86" s="10">
         <f t="shared" si="6"/>
         <v>25.348980429724921</v>
       </c>
-      <c r="K86" s="8">
+      <c r="K86" s="9">
         <f t="shared" si="7"/>
         <v>58</v>
       </c>
-      <c r="L86" s="8">
+      <c r="L86" s="9">
         <v>837</v>
       </c>
-      <c r="M86" s="9">
+      <c r="M86" s="10">
         <f t="shared" ref="M86:M88" si="13">(L86/C86)*100</f>
         <v>11.297071129707113</v>
       </c>
-      <c r="N86" s="9">
+      <c r="N86" s="10">
         <f t="shared" si="8"/>
         <v>153.91688120632585</v>
       </c>
-      <c r="O86" s="9">
+      <c r="O86" s="10">
         <f t="shared" si="9"/>
         <v>10.665685913938949</v>
       </c>
-      <c r="P86" s="8">
+      <c r="P86" s="9">
         <v>189</v>
       </c>
-      <c r="Q86" s="11">
+      <c r="Q86" s="12">
         <f t="shared" si="10"/>
         <v>-7</v>
       </c>
-      <c r="R86" s="8">
+      <c r="R86" s="9">
         <v>1799</v>
       </c>
       <c r="S86" s="6">
@@ -4914,74 +4921,74 @@
       <c r="A87" s="2" t="d">
         <v>2020-04-18</v>
       </c>
-      <c r="B87" s="8">
+      <c r="B87" s="9">
         <v>30413</v>
       </c>
-      <c r="C87" s="8">
+      <c r="C87" s="9">
         <v>7820</v>
       </c>
-      <c r="D87" s="8">
+      <c r="D87" s="9">
         <f t="shared" si="0"/>
         <v>38233</v>
       </c>
-      <c r="E87" s="8">
+      <c r="E87" s="9">
         <f t="shared" si="1"/>
         <v>1596</v>
       </c>
-      <c r="F87" s="8">
+      <c r="F87" s="9">
         <f t="shared" si="2"/>
         <v>411</v>
       </c>
-      <c r="G87" s="9">
+      <c r="G87" s="10">
         <f t="shared" si="3"/>
         <v>1.3387622149837133</v>
       </c>
-      <c r="H87" s="9">
+      <c r="H87" s="10">
         <f t="shared" si="4"/>
         <v>7030.7098197866862</v>
       </c>
-      <c r="I87" s="10">
+      <c r="I87" s="11">
         <f t="shared" si="5"/>
         <v>0.2575187969924812</v>
       </c>
-      <c r="J87" s="9">
+      <c r="J87" s="10">
         <f t="shared" si="6"/>
         <v>25.7126886528787</v>
       </c>
-      <c r="K87" s="8">
+      <c r="K87" s="9">
         <f t="shared" si="7"/>
         <v>56</v>
       </c>
-      <c r="L87" s="8">
+      <c r="L87" s="9">
         <v>893</v>
       </c>
-      <c r="M87" s="9">
+      <c r="M87" s="10">
         <f t="shared" si="13"/>
         <v>11.419437340153452</v>
       </c>
-      <c r="N87" s="9">
+      <c r="N87" s="10">
         <f t="shared" si="8"/>
         <v>164.21478484737037</v>
       </c>
-      <c r="O87" s="9">
+      <c r="O87" s="10">
         <f t="shared" si="9"/>
         <v>10.297903641044503</v>
       </c>
-      <c r="P87" s="8">
+      <c r="P87" s="9">
         <v>182</v>
       </c>
-      <c r="Q87" s="11">
+      <c r="Q87" s="12">
         <f t="shared" si="10"/>
         <v>-7</v>
       </c>
-      <c r="R87" s="8">
+      <c r="R87" s="9">
         <v>1793</v>
       </c>
-      <c r="S87" s="11">
+      <c r="S87" s="12">
         <f t="shared" si="11"/>
         <v>-6</v>
       </c>
-      <c r="T87" s="9">
+      <c r="T87" s="10">
         <f t="shared" si="12"/>
         <v>10.15058561070831</v>
       </c>
@@ -4994,67 +5001,67 @@
       <c r="A88" s="2" t="d">
         <v>2020-04-19</v>
       </c>
-      <c r="B88" s="8">
+      <c r="B88" s="9">
         <v>31425</v>
       </c>
-      <c r="C88" s="8">
+      <c r="C88" s="9">
         <v>8187</v>
       </c>
-      <c r="D88" s="8">
+      <c r="D88" s="9">
         <f t="shared" si="0"/>
         <v>39612</v>
       </c>
-      <c r="E88" s="8">
+      <c r="E88" s="9">
         <f t="shared" si="1"/>
         <v>1379</v>
       </c>
-      <c r="F88" s="8">
+      <c r="F88" s="9">
         <f t="shared" si="2"/>
         <v>367</v>
       </c>
-      <c r="G88" s="9">
+      <c r="G88" s="10">
         <f t="shared" si="3"/>
         <v>0.89294403892944041</v>
       </c>
-      <c r="H88" s="9">
+      <c r="H88" s="10">
         <f t="shared" si="4"/>
         <v>7284.2956969474071</v>
       </c>
-      <c r="I88" s="10">
+      <c r="I88" s="11">
         <f t="shared" si="5"/>
         <v>0.26613488034807831</v>
       </c>
-      <c r="J88" s="9">
+      <c r="J88" s="10">
         <f t="shared" si="6"/>
         <v>26.052505966587113</v>
       </c>
-      <c r="K88" s="8">
+      <c r="K88" s="9">
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="L88" s="8">
+      <c r="L88" s="9">
         <v>903</v>
       </c>
-      <c r="M88" s="9">
+      <c r="M88" s="10">
         <f t="shared" si="13"/>
         <v>11.02968120190546</v>
       </c>
-      <c r="N88" s="9">
+      <c r="N88" s="10">
         <f t="shared" si="8"/>
         <v>166.05369621184261</v>
       </c>
-      <c r="O88" s="9">
+      <c r="O88" s="10">
         <f t="shared" si="9"/>
         <v>1.8389113644722326</v>
       </c>
-      <c r="P88" s="8">
+      <c r="P88" s="9">
         <v>174</v>
       </c>
-      <c r="Q88" s="11">
+      <c r="Q88" s="12">
         <f t="shared" si="10"/>
         <v>-8</v>
       </c>
-      <c r="R88" s="8">
+      <c r="R88" s="9">
         <v>1797</v>
       </c>
       <c r="S88" s="6">
@@ -5263,6 +5270,86 @@
       </c>
       <c r="U91">
         <v>19.650365125027662</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="d">
+        <v>2020-04-23</v>
+      </c>
+      <c r="B92" s="8">
+        <v>35390</v>
+      </c>
+      <c r="C92" s="8">
+        <v>9409</v>
+      </c>
+      <c r="D92">
+        <f t="shared" ref="D92" si="15">B92+C92</f>
+        <v>44799</v>
+      </c>
+      <c r="E92">
+        <f t="shared" ref="E92" si="16">D92-D91</f>
+        <v>1490</v>
+      </c>
+      <c r="F92">
+        <f t="shared" ref="F92" si="17">C92-C91</f>
+        <v>371</v>
+      </c>
+      <c r="G92" s="3">
+        <f t="shared" ref="G92" si="18">F92/F91</f>
+        <v>1.0136612021857923</v>
+      </c>
+      <c r="H92" s="3">
+        <f t="shared" ref="H92" si="19">D92/5.438</f>
+        <v>8238.1390216991549</v>
+      </c>
+      <c r="I92" s="4">
+        <f t="shared" ref="I92" si="20">F92/E92</f>
+        <v>0.24899328859060402</v>
+      </c>
+      <c r="J92" s="3">
+        <f t="shared" ref="J92" si="21">(C92/B92)*100</f>
+        <v>26.586606385984741</v>
+      </c>
+      <c r="K92">
+        <f t="shared" ref="K92" si="22">L92-L91</f>
+        <v>58</v>
+      </c>
+      <c r="L92" s="8">
+        <v>1120</v>
+      </c>
+      <c r="M92" s="3">
+        <f t="shared" ref="M92" si="23">(L92/C92)*100</f>
+        <v>11.903496652141566</v>
+      </c>
+      <c r="N92" s="3">
+        <f t="shared" ref="N92" si="24">L92/5.438</f>
+        <v>205.95807282089004</v>
+      </c>
+      <c r="O92" s="3">
+        <f t="shared" ref="O92" si="25">K92/5.438</f>
+        <v>10.665685913938949</v>
+      </c>
+      <c r="P92" s="8">
+        <v>148</v>
+      </c>
+      <c r="Q92" s="6">
+        <f t="shared" ref="Q92" si="26">P92-P91</f>
+        <v>-7</v>
+      </c>
+      <c r="R92" s="8">
+        <v>1748</v>
+      </c>
+      <c r="S92" s="6">
+        <f t="shared" ref="S92" si="27">R92-R91</f>
+        <v>-28</v>
+      </c>
+      <c r="T92" s="3">
+        <f t="shared" ref="T92" si="28">(P92/R92)*100</f>
+        <v>8.4668192219679632</v>
+      </c>
+      <c r="U92">
+        <f t="shared" ref="U92" si="29">(R92/C92)*100</f>
+        <v>18.577957274949515</v>
       </c>
     </row>
   </sheetData>

--- a/scot_covid.xlsx
+++ b/scot_covid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PGR3\Desktop\WB\Data\Covid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{6F22D448-B5C1-4884-83B1-8A27E383EAD4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{BCD1D7BD-6632-4252-8591-426023A96130}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -489,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U92"/>
+  <dimension ref="A1:U93"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="A91" sqref="A91:A92"/>
+      <selection activeCell="C97" sqref="C97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5283,73 +5283,153 @@
         <v>9409</v>
       </c>
       <c r="D92">
-        <f t="shared" ref="D92" si="15">B92+C92</f>
+        <f t="shared" ref="D92:D93" si="15">B92+C92</f>
         <v>44799</v>
       </c>
       <c r="E92">
-        <f t="shared" ref="E92" si="16">D92-D91</f>
+        <f t="shared" ref="E92:E93" si="16">D92-D91</f>
         <v>1490</v>
       </c>
       <c r="F92">
-        <f t="shared" ref="F92" si="17">C92-C91</f>
+        <f t="shared" ref="F92:F93" si="17">C92-C91</f>
         <v>371</v>
       </c>
       <c r="G92" s="3">
-        <f t="shared" ref="G92" si="18">F92/F91</f>
+        <f t="shared" ref="G92:G93" si="18">F92/F91</f>
         <v>1.0136612021857923</v>
       </c>
       <c r="H92" s="3">
-        <f t="shared" ref="H92" si="19">D92/5.438</f>
+        <f t="shared" ref="H92:H93" si="19">D92/5.438</f>
         <v>8238.1390216991549</v>
       </c>
       <c r="I92" s="4">
-        <f t="shared" ref="I92" si="20">F92/E92</f>
+        <f t="shared" ref="I92:I93" si="20">F92/E92</f>
         <v>0.24899328859060402</v>
       </c>
       <c r="J92" s="3">
-        <f t="shared" ref="J92" si="21">(C92/B92)*100</f>
+        <f t="shared" ref="J92:J93" si="21">(C92/B92)*100</f>
         <v>26.586606385984741</v>
       </c>
       <c r="K92">
-        <f t="shared" ref="K92" si="22">L92-L91</f>
+        <f t="shared" ref="K92:K93" si="22">L92-L91</f>
         <v>58</v>
       </c>
       <c r="L92" s="8">
         <v>1120</v>
       </c>
       <c r="M92" s="3">
-        <f t="shared" ref="M92" si="23">(L92/C92)*100</f>
+        <f t="shared" ref="M92:M93" si="23">(L92/C92)*100</f>
         <v>11.903496652141566</v>
       </c>
       <c r="N92" s="3">
-        <f t="shared" ref="N92" si="24">L92/5.438</f>
+        <f t="shared" ref="N92:N93" si="24">L92/5.438</f>
         <v>205.95807282089004</v>
       </c>
       <c r="O92" s="3">
-        <f t="shared" ref="O92" si="25">K92/5.438</f>
+        <f t="shared" ref="O92:O93" si="25">K92/5.438</f>
         <v>10.665685913938949</v>
       </c>
       <c r="P92" s="8">
         <v>148</v>
       </c>
       <c r="Q92" s="6">
-        <f t="shared" ref="Q92" si="26">P92-P91</f>
+        <f t="shared" ref="Q92:Q93" si="26">P92-P91</f>
         <v>-7</v>
       </c>
       <c r="R92" s="8">
         <v>1748</v>
       </c>
       <c r="S92" s="6">
-        <f t="shared" ref="S92" si="27">R92-R91</f>
+        <f t="shared" ref="S92:S93" si="27">R92-R91</f>
         <v>-28</v>
       </c>
       <c r="T92" s="3">
-        <f t="shared" ref="T92" si="28">(P92/R92)*100</f>
+        <f t="shared" ref="T92:T93" si="28">(P92/R92)*100</f>
         <v>8.4668192219679632</v>
       </c>
       <c r="U92">
-        <f t="shared" ref="U92" si="29">(R92/C92)*100</f>
+        <f t="shared" ref="U92:U93" si="29">(R92/C92)*100</f>
         <v>18.577957274949515</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="d">
+        <v>2020-04-24</v>
+      </c>
+      <c r="B93" s="8">
+        <v>36392</v>
+      </c>
+      <c r="C93" s="8">
+        <v>9697</v>
+      </c>
+      <c r="D93">
+        <f t="shared" si="15"/>
+        <v>46089</v>
+      </c>
+      <c r="E93">
+        <f t="shared" si="16"/>
+        <v>1290</v>
+      </c>
+      <c r="F93">
+        <f t="shared" si="17"/>
+        <v>288</v>
+      </c>
+      <c r="G93" s="3">
+        <f t="shared" si="18"/>
+        <v>0.77628032345013476</v>
+      </c>
+      <c r="H93" s="3">
+        <f t="shared" si="19"/>
+        <v>8475.3585877160731</v>
+      </c>
+      <c r="I93" s="4">
+        <f t="shared" si="20"/>
+        <v>0.22325581395348837</v>
+      </c>
+      <c r="J93" s="3">
+        <f t="shared" si="21"/>
+        <v>26.645966146405804</v>
+      </c>
+      <c r="K93">
+        <f t="shared" si="22"/>
+        <v>64</v>
+      </c>
+      <c r="L93" s="8">
+        <v>1184</v>
+      </c>
+      <c r="M93" s="3">
+        <f t="shared" si="23"/>
+        <v>12.209961843869237</v>
+      </c>
+      <c r="N93" s="3">
+        <f t="shared" si="24"/>
+        <v>217.72710555351233</v>
+      </c>
+      <c r="O93" s="3">
+        <f t="shared" si="25"/>
+        <v>11.769032732622287</v>
+      </c>
+      <c r="P93" s="8">
+        <v>141</v>
+      </c>
+      <c r="Q93" s="6">
+        <f t="shared" si="26"/>
+        <v>-7</v>
+      </c>
+      <c r="R93" s="8">
+        <v>1710</v>
+      </c>
+      <c r="S93" s="6">
+        <f t="shared" si="27"/>
+        <v>-38</v>
+      </c>
+      <c r="T93" s="3">
+        <f t="shared" si="28"/>
+        <v>8.2456140350877192</v>
+      </c>
+      <c r="U93">
+        <f t="shared" si="29"/>
+        <v>17.634319892750337</v>
       </c>
     </row>
   </sheetData>

--- a/scot_covid.xlsx
+++ b/scot_covid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PGR3\Desktop\WB\Data\Covid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{BCD1D7BD-6632-4252-8591-426023A96130}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{C4E6C97B-F139-400E-9A44-F4397803EECA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -489,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U93"/>
+  <dimension ref="A1:U94"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="C97" sqref="C97"/>
+      <selection activeCell="A93" sqref="A93:A94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5283,72 +5283,72 @@
         <v>9409</v>
       </c>
       <c r="D92">
-        <f t="shared" ref="D92:D93" si="15">B92+C92</f>
+        <f t="shared" ref="D92:D94" si="15">B92+C92</f>
         <v>44799</v>
       </c>
       <c r="E92">
-        <f t="shared" ref="E92:E93" si="16">D92-D91</f>
+        <f t="shared" ref="E92:E94" si="16">D92-D91</f>
         <v>1490</v>
       </c>
       <c r="F92">
-        <f t="shared" ref="F92:F93" si="17">C92-C91</f>
+        <f t="shared" ref="F92:F94" si="17">C92-C91</f>
         <v>371</v>
       </c>
       <c r="G92" s="3">
-        <f t="shared" ref="G92:G93" si="18">F92/F91</f>
+        <f t="shared" ref="G92:G94" si="18">F92/F91</f>
         <v>1.0136612021857923</v>
       </c>
       <c r="H92" s="3">
-        <f t="shared" ref="H92:H93" si="19">D92/5.438</f>
+        <f t="shared" ref="H92:H94" si="19">D92/5.438</f>
         <v>8238.1390216991549</v>
       </c>
       <c r="I92" s="4">
-        <f t="shared" ref="I92:I93" si="20">F92/E92</f>
+        <f t="shared" ref="I92:I94" si="20">F92/E92</f>
         <v>0.24899328859060402</v>
       </c>
       <c r="J92" s="3">
-        <f t="shared" ref="J92:J93" si="21">(C92/B92)*100</f>
+        <f t="shared" ref="J92:J94" si="21">(C92/B92)*100</f>
         <v>26.586606385984741</v>
       </c>
       <c r="K92">
-        <f t="shared" ref="K92:K93" si="22">L92-L91</f>
+        <f t="shared" ref="K92:K94" si="22">L92-L91</f>
         <v>58</v>
       </c>
       <c r="L92" s="8">
         <v>1120</v>
       </c>
       <c r="M92" s="3">
-        <f t="shared" ref="M92:M93" si="23">(L92/C92)*100</f>
+        <f t="shared" ref="M92:M94" si="23">(L92/C92)*100</f>
         <v>11.903496652141566</v>
       </c>
       <c r="N92" s="3">
-        <f t="shared" ref="N92:N93" si="24">L92/5.438</f>
+        <f t="shared" ref="N92:N94" si="24">L92/5.438</f>
         <v>205.95807282089004</v>
       </c>
       <c r="O92" s="3">
-        <f t="shared" ref="O92:O93" si="25">K92/5.438</f>
+        <f t="shared" ref="O92:O94" si="25">K92/5.438</f>
         <v>10.665685913938949</v>
       </c>
       <c r="P92" s="8">
         <v>148</v>
       </c>
       <c r="Q92" s="6">
-        <f t="shared" ref="Q92:Q93" si="26">P92-P91</f>
+        <f t="shared" ref="Q92:Q94" si="26">P92-P91</f>
         <v>-7</v>
       </c>
       <c r="R92" s="8">
         <v>1748</v>
       </c>
       <c r="S92" s="6">
-        <f t="shared" ref="S92:S93" si="27">R92-R91</f>
+        <f t="shared" ref="S92:S94" si="27">R92-R91</f>
         <v>-28</v>
       </c>
       <c r="T92" s="3">
-        <f t="shared" ref="T92:T93" si="28">(P92/R92)*100</f>
+        <f t="shared" ref="T92:T94" si="28">(P92/R92)*100</f>
         <v>8.4668192219679632</v>
       </c>
       <c r="U92">
-        <f t="shared" ref="U92:U93" si="29">(R92/C92)*100</f>
+        <f t="shared" ref="U92:U94" si="29">(R92/C92)*100</f>
         <v>18.577957274949515</v>
       </c>
     </row>
@@ -5430,6 +5430,86 @@
       <c r="U93">
         <f t="shared" si="29"/>
         <v>17.634319892750337</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="d">
+        <v>2020-04-25</v>
+      </c>
+      <c r="B94" s="8">
+        <v>37698</v>
+      </c>
+      <c r="C94" s="8">
+        <v>10051</v>
+      </c>
+      <c r="D94">
+        <f t="shared" si="15"/>
+        <v>47749</v>
+      </c>
+      <c r="E94">
+        <f t="shared" si="16"/>
+        <v>1660</v>
+      </c>
+      <c r="F94">
+        <f t="shared" si="17"/>
+        <v>354</v>
+      </c>
+      <c r="G94" s="3">
+        <f t="shared" si="18"/>
+        <v>1.2291666666666667</v>
+      </c>
+      <c r="H94" s="3">
+        <f t="shared" si="19"/>
+        <v>8780.6178742184638</v>
+      </c>
+      <c r="I94" s="4">
+        <f t="shared" si="20"/>
+        <v>0.21325301204819277</v>
+      </c>
+      <c r="J94" s="3">
+        <f t="shared" si="21"/>
+        <v>26.661891877553185</v>
+      </c>
+      <c r="K94">
+        <f t="shared" si="22"/>
+        <v>47</v>
+      </c>
+      <c r="L94" s="8">
+        <v>1231</v>
+      </c>
+      <c r="M94" s="3">
+        <f t="shared" si="23"/>
+        <v>12.247537558451896</v>
+      </c>
+      <c r="N94" s="3">
+        <f t="shared" si="24"/>
+        <v>226.36998896653182</v>
+      </c>
+      <c r="O94" s="3">
+        <f t="shared" si="25"/>
+        <v>8.6428834130194936</v>
+      </c>
+      <c r="P94" s="8">
+        <v>140</v>
+      </c>
+      <c r="Q94" s="6">
+        <f t="shared" si="26"/>
+        <v>-1</v>
+      </c>
+      <c r="R94" s="8">
+        <v>1748</v>
+      </c>
+      <c r="S94" s="6">
+        <f t="shared" si="27"/>
+        <v>38</v>
+      </c>
+      <c r="T94" s="3">
+        <f t="shared" si="28"/>
+        <v>8.0091533180778036</v>
+      </c>
+      <c r="U94">
+        <f t="shared" si="29"/>
+        <v>17.391304347826086</v>
       </c>
     </row>
   </sheetData>

--- a/scot_covid.xlsx
+++ b/scot_covid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PGR3\Desktop\WB\Data\Covid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{C4E6C97B-F139-400E-9A44-F4397803EECA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{3A26C69E-C022-4291-B590-F8D9F123AA9A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -489,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U94"/>
+  <dimension ref="A1:U95"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="A93" sqref="A93:A94"/>
+      <selection activeCell="A94" sqref="A94:A95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5512,6 +5512,71 @@
         <v>17.391304347826086</v>
       </c>
     </row>
+    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="d">
+        <v>2020-04-26</v>
+      </c>
+      <c r="B95">
+        <v>38833</v>
+      </c>
+      <c r="C95">
+        <v>10324</v>
+      </c>
+      <c r="D95">
+        <v>49157</v>
+      </c>
+      <c r="E95">
+        <v>1408</v>
+      </c>
+      <c r="F95">
+        <v>273</v>
+      </c>
+      <c r="G95">
+        <v>0.77118644067796616</v>
+      </c>
+      <c r="H95">
+        <v>9039.5365943361539</v>
+      </c>
+      <c r="I95">
+        <v>0.19389204545454544</v>
+      </c>
+      <c r="J95">
+        <v>26.585635928205392</v>
+      </c>
+      <c r="K95">
+        <v>18</v>
+      </c>
+      <c r="L95">
+        <v>1249</v>
+      </c>
+      <c r="M95">
+        <v>12.098024021697016</v>
+      </c>
+      <c r="N95">
+        <v>229.68002942258184</v>
+      </c>
+      <c r="O95">
+        <v>3.3100404560500185</v>
+      </c>
+      <c r="P95">
+        <v>133</v>
+      </c>
+      <c r="Q95">
+        <v>-7</v>
+      </c>
+      <c r="R95">
+        <v>1735</v>
+      </c>
+      <c r="S95">
+        <v>-13</v>
+      </c>
+      <c r="T95">
+        <v>7.6657060518731983</v>
+      </c>
+      <c r="U95">
+        <v>16.805501743510266</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
